--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="300">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Sample_Date</t>
   </si>
   <si>
+    <t xml:space="preserve">Sequencing_Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t xml:space="preserve">Total pool volume</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequencing_Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type of Run (S2/S4; 50PE, 100PE, 150PE)</t>
   </si>
   <si>
@@ -319,6 +319,9 @@
     <t xml:space="preserve">Novogene</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
   </si>
   <si>
@@ -346,9 +349,6 @@
     <t xml:space="preserve">P1111191</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">20191121_NovaSeq_fastq</t>
   </si>
   <si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t xml:space="preserve">20211105_L3_fastq_single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_Counts</t>
   </si>
   <si>
     <t xml:space="preserve">766-32</t>
@@ -1065,35 +1068,29 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC81" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:AC81">
-    <filterColumn colId="25">
-      <customFilters and="true">
-        <customFilter operator="equal" val="20211105_UTA_L3_L4_cbcl"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC81"/>
   <tableColumns count="29">
     <tableColumn id="1" name="SQ_List"/>
     <tableColumn id="2" name="Sample_Date"/>
-    <tableColumn id="3" name="Project"/>
-    <tableColumn id="4" name="Sample_ID"/>
-    <tableColumn id="5" name="Samples"/>
-    <tableColumn id="6" name="Chip"/>
-    <tableColumn id="7" name="Cell Numbers"/>
-    <tableColumn id="8" name="Library_ID"/>
-    <tableColumn id="9" name="Reads/Cell"/>
-    <tableColumn id="10" name="Reads/Sample"/>
-    <tableColumn id="11" name="Target %"/>
-    <tableColumn id="12" name="Sum"/>
-    <tableColumn id="13" name="I7_Index ID"/>
-    <tableColumn id="14" name="I7_Index_Sequence"/>
-    <tableColumn id="15" name="I5_Index ID"/>
-    <tableColumn id="16" name="I5_Index_Sequence"/>
-    <tableColumn id="17" name="Individual Library Concentration (ng/ul)"/>
-    <tableColumn id="18" name="Estimated Insert Size (bp)"/>
-    <tableColumn id="19" name="Pooled Library concentration_nM"/>
-    <tableColumn id="20" name="Total pool volume"/>
-    <tableColumn id="21" name="Sequencing_Date"/>
+    <tableColumn id="3" name="Sequencing_Date"/>
+    <tableColumn id="4" name="Project"/>
+    <tableColumn id="5" name="Sample_ID"/>
+    <tableColumn id="6" name="Samples"/>
+    <tableColumn id="7" name="Chip"/>
+    <tableColumn id="8" name="Cell Numbers"/>
+    <tableColumn id="9" name="Library_ID"/>
+    <tableColumn id="10" name="Reads/Cell"/>
+    <tableColumn id="11" name="Reads/Sample"/>
+    <tableColumn id="12" name="Target %"/>
+    <tableColumn id="13" name="Sum"/>
+    <tableColumn id="14" name="I7_Index ID"/>
+    <tableColumn id="15" name="I7_Index_Sequence"/>
+    <tableColumn id="16" name="I5_Index ID"/>
+    <tableColumn id="17" name="I5_Index_Sequence"/>
+    <tableColumn id="18" name="Individual Library Concentration (ng/ul)"/>
+    <tableColumn id="19" name="Estimated Insert Size (bp)"/>
+    <tableColumn id="20" name="Pooled Library concentration_nM"/>
+    <tableColumn id="21" name="Total pool volume"/>
     <tableColumn id="22" name="Type of Run (S2/S4; 50PE, 100PE, 150PE)"/>
     <tableColumn id="23" name="Type"/>
     <tableColumn id="24" name="Location"/>
@@ -1111,39 +1108,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI83"/>
+  <dimension ref="A1:AMJ83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="D59" activeCellId="0" sqref="D59:D70"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A41" activeCellId="0" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="40.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.78"/>
@@ -1176,10 +1173,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1248,69 +1245,70 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="H2" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="J2" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="J2" s="6" t="n">
-        <f aca="false">SequencingForm!$G2*SequencingForm!$I2</f>
+      <c r="K2" s="6" t="n">
+        <f aca="false">SequencingForm!$H2*SequencingForm!$J2</f>
         <v>40000000</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="L2" s="7" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="M2" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="n">
+      <c r="Q2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>22.5</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>20190613</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>38</v>
@@ -1334,68 +1332,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="H3" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="J3" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="J3" s="6" t="n">
-        <f aca="false">SequencingForm!$G3*SequencingForm!$I3</f>
+      <c r="K3" s="6" t="n">
+        <f aca="false">SequencingForm!$H3*SequencingForm!$J3</f>
         <v>40000000</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="L3" s="7" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="M3" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="n">
+      <c r="Q3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>22.5</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>20190613</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>38</v>
@@ -1419,68 +1417,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="H4" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="J4" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="J4" s="6" t="n">
-        <f aca="false">SequencingForm!$G4*SequencingForm!$I4</f>
+      <c r="K4" s="6" t="n">
+        <f aca="false">SequencingForm!$H4*SequencingForm!$J4</f>
         <v>40000000</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="L4" s="7" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="M4" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="n">
+      <c r="Q4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>22.5</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>20190613</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>38</v>
@@ -1504,68 +1502,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="H5" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="J5" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <f aca="false">SequencingForm!$G5*SequencingForm!$I5</f>
+      <c r="K5" s="6" t="n">
+        <f aca="false">SequencingForm!$H5*SequencingForm!$J5</f>
         <v>40000000</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="L5" s="7" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>22.5</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>20190613</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>38</v>
@@ -1589,68 +1587,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>20190404</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="n">
+        <v>20190613</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="H6" s="6" t="n">
         <v>5000</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="J6" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <f aca="false">SequencingForm!$G6*SequencingForm!$I6</f>
+      <c r="K6" s="6" t="n">
+        <f aca="false">SequencingForm!$H6*SequencingForm!$J6</f>
         <v>20000000</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="L6" s="7" t="n">
         <v>0.111111111111111</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="M6" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="n">
+      <c r="Q6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>22.5</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>20190613</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>38</v>
@@ -1674,68 +1672,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>20190603</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="H7" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="J7" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J7" s="6" t="n">
-        <f aca="false">SequencingForm!$G7*SequencingForm!$I7</f>
+      <c r="K7" s="6" t="n">
+        <f aca="false">SequencingForm!$H7*SequencingForm!$J7</f>
         <v>30000000</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="L7" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="M7" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="n">
+      <c r="Q7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>38</v>
@@ -1762,68 +1760,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>20190711</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="H8" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="J8" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J8" s="6" t="n">
-        <f aca="false">SequencingForm!$G8*SequencingForm!$I8</f>
+      <c r="K8" s="6" t="n">
+        <f aca="false">SequencingForm!$H8*SequencingForm!$J8</f>
         <v>30000000</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="L8" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="M8" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="n">
+      <c r="Q8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>38</v>
@@ -1850,68 +1848,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="H9" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="J9" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J9" s="6" t="n">
-        <f aca="false">SequencingForm!$G9*SequencingForm!$I9</f>
+      <c r="K9" s="6" t="n">
+        <f aca="false">SequencingForm!$H9*SequencingForm!$J9</f>
         <v>30000000</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="L9" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U9" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>38</v>
@@ -1938,68 +1936,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="H10" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="J10" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J10" s="6" t="n">
-        <f aca="false">SequencingForm!$G10*SequencingForm!$I10</f>
+      <c r="K10" s="6" t="n">
+        <f aca="false">SequencingForm!$H10*SequencingForm!$J10</f>
         <v>30000000</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="L10" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="M10" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6" t="n">
+      <c r="Q10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>38</v>
@@ -2026,68 +2024,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="H11" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="J11" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J11" s="6" t="n">
-        <f aca="false">SequencingForm!$G11*SequencingForm!$I11</f>
+      <c r="K11" s="6" t="n">
+        <f aca="false">SequencingForm!$H11*SequencingForm!$J11</f>
         <v>30000000</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="L11" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="M11" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6" t="n">
+      <c r="Q11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="U11" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U11" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>38</v>
@@ -2114,68 +2112,68 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1" t="n">
+        <v>20190717</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="H12" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="J12" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <f aca="false">SequencingForm!$G12*SequencingForm!$I12</f>
+      <c r="K12" s="6" t="n">
+        <f aca="false">SequencingForm!$H12*SequencingForm!$J12</f>
         <v>30000000</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="L12" s="7" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="M12" s="6" t="n">
         <v>180000000</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6" t="n">
+      <c r="Q12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="n">
         <v>398</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U12" s="1" t="n">
-        <v>20190717</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>38</v>
@@ -2202,63 +2200,63 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="H13" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="J13" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J13" s="6" t="n">
-        <f aca="false">SequencingForm!$G13*SequencingForm!$I13</f>
+      <c r="K13" s="6" t="n">
+        <f aca="false">SequencingForm!$H13*SequencingForm!$J13</f>
         <v>500000000</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="L13" s="7" t="n">
         <v>0.222221728396159</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="M13" s="6" t="n">
         <v>2250005000</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6" t="n">
+      <c r="Q13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="n">
         <v>426</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="6"/>
+      <c r="U13" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U13" s="1" t="n">
-        <v>20190816</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>96</v>
@@ -2272,73 +2270,76 @@
       <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z13" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="H14" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="J14" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J14" s="6" t="n">
-        <f aca="false">SequencingForm!$G14*SequencingForm!$I14</f>
+      <c r="K14" s="6" t="n">
+        <f aca="false">SequencingForm!$H14*SequencingForm!$J14</f>
         <v>500000000</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="L14" s="7" t="n">
         <v>0.222221728396159</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="M14" s="6" t="n">
         <v>2250005000</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6" t="n">
+      <c r="Q14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="n">
         <v>436</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U14" s="1" t="n">
-        <v>20190816</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>96</v>
@@ -2352,73 +2353,76 @@
       <c r="Y14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z14" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="H15" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="J15" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J15" s="6" t="n">
-        <f aca="false">SequencingForm!$G15*SequencingForm!$I15</f>
+      <c r="K15" s="6" t="n">
+        <f aca="false">SequencingForm!$H15*SequencingForm!$J15</f>
         <v>500000000</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="L15" s="7" t="n">
         <v>0.222221728396159</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="M15" s="6" t="n">
         <v>2250005000</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6" t="n">
+      <c r="Q15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U15" s="1" t="n">
-        <v>20190816</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>96</v>
@@ -2432,73 +2436,76 @@
       <c r="Y15" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z15" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>20190409</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="H16" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="J16" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J16" s="6" t="n">
-        <f aca="false">SequencingForm!$G16*SequencingForm!$I16</f>
+      <c r="K16" s="6" t="n">
+        <f aca="false">SequencingForm!$H16*SequencingForm!$J16</f>
         <v>500000000</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="L16" s="7" t="n">
         <v>0.222221728396159</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="M16" s="6" t="n">
         <v>2250005000</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6" t="n">
+      <c r="Q16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="n">
         <v>427</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="6"/>
+      <c r="U16" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>20190816</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>96</v>
@@ -2512,73 +2519,76 @@
       <c r="Y16" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z16" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>20190404</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1" t="n">
+        <v>20190816</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="H17" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="J17" s="9" t="n">
         <v>50001</v>
       </c>
-      <c r="J17" s="6" t="n">
-        <f aca="false">SequencingForm!$G17*SequencingForm!$I17</f>
+      <c r="K17" s="6" t="n">
+        <f aca="false">SequencingForm!$H17*SequencingForm!$J17</f>
         <v>250005000</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="L17" s="7" t="n">
         <v>0.111113086415364</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="M17" s="6" t="n">
         <v>2250005000</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6" t="n">
+      <c r="Q17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="n">
         <v>435</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6" t="n">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U17" s="1" t="n">
-        <v>20190816</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>96</v>
@@ -2592,73 +2602,76 @@
       <c r="Y17" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z17" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>20190603</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="H18" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="J18" s="9" t="n">
         <v>100000</v>
       </c>
-      <c r="J18" s="6" t="n">
-        <f aca="false">SequencingForm!$G18*SequencingForm!$I18</f>
+      <c r="K18" s="6" t="n">
+        <f aca="false">SequencingForm!$H18*SequencingForm!$J18</f>
         <v>1000000000</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="L18" s="7" t="n">
         <v>0.377358490566038</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="M18" s="6" t="n">
         <v>2650000000</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6" t="n">
+      <c r="Q18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="n">
         <v>251</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="U18" s="1" t="n">
-        <v>20190912</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>96</v>
@@ -2672,73 +2685,76 @@
       <c r="Y18" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z18" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>20190624</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="J19" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J19" s="6" t="n">
-        <f aca="false">SequencingForm!$G19*SequencingForm!$I19</f>
+      <c r="K19" s="6" t="n">
+        <f aca="false">SequencingForm!$H19*SequencingForm!$J19</f>
         <v>500000000</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="L19" s="7" t="n">
         <v>0.188679245283019</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="M19" s="6" t="n">
         <v>2650000000</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>105</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6" t="n">
+      <c r="Q19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="n">
         <v>264</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="n">
         <v>45</v>
-      </c>
-      <c r="U19" s="1" t="n">
-        <v>20190912</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>96</v>
@@ -2752,73 +2768,76 @@
       <c r="Y19" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z19" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>20190711</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1" t="n">
+        <v>20190912</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="H20" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="J20" s="9" t="n">
         <v>115000</v>
       </c>
-      <c r="J20" s="6" t="n">
-        <f aca="false">SequencingForm!$G20*SequencingForm!$I20</f>
+      <c r="K20" s="6" t="n">
+        <f aca="false">SequencingForm!$H20*SequencingForm!$J20</f>
         <v>1150000000</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="L20" s="7" t="n">
         <v>0.433962264150943</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="M20" s="6" t="n">
         <v>2650000000</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="N20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6" t="n">
+      <c r="Q20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="n">
         <v>217</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6" t="n">
         <v>20</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>20190912</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>96</v>
@@ -2832,78 +2851,81 @@
       <c r="Y20" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Z20" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AA20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="H21" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J21" s="6" t="n">
-        <f aca="false">SequencingForm!$G21*SequencingForm!$I21</f>
+      <c r="K21" s="6" t="n">
+        <f aca="false">SequencingForm!$H21*SequencingForm!$J21</f>
         <v>500000000</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="L21" s="7" t="n">
         <v>0.213565692807107</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="M21" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6" t="n">
+      <c r="Q21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="n">
         <v>396</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="T21" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="U21" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>96</v>
@@ -2918,7 +2940,7 @@
         <v>41</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>109</v>
@@ -2930,68 +2952,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="H22" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J22" s="6" t="n">
-        <f aca="false">SequencingForm!$G22*SequencingForm!$I22</f>
+      <c r="K22" s="6" t="n">
+        <f aca="false">SequencingForm!$H22*SequencingForm!$J22</f>
         <v>500000000</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="L22" s="7" t="n">
         <v>0.213565692807107</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="M22" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="n">
+      <c r="Q22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="n">
         <v>393</v>
       </c>
-      <c r="S22" s="6" t="n">
+      <c r="T22" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="U22" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>96</v>
@@ -3006,7 +3028,7 @@
         <v>41</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>109</v>
@@ -3018,68 +3040,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="H23" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J23" s="6" t="n">
-        <f aca="false">SequencingForm!$G23*SequencingForm!$I23</f>
+      <c r="K23" s="6" t="n">
+        <f aca="false">SequencingForm!$H23*SequencingForm!$J23</f>
         <v>500000000</v>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="L23" s="7" t="n">
         <v>0.213565692807107</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="M23" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="N23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6" t="n">
+      <c r="Q23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="n">
         <v>388</v>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="T23" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="U23" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U23" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>96</v>
@@ -3094,7 +3116,7 @@
         <v>41</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>109</v>
@@ -3106,68 +3128,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>20190329</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="H24" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J24" s="6" t="n">
-        <f aca="false">SequencingForm!$G24*SequencingForm!$I24</f>
+      <c r="K24" s="6" t="n">
+        <f aca="false">SequencingForm!$H24*SequencingForm!$J24</f>
         <v>500000000</v>
       </c>
-      <c r="K24" s="7" t="n">
+      <c r="L24" s="7" t="n">
         <v>0.213565692807107</v>
       </c>
-      <c r="L24" s="6" t="n">
+      <c r="M24" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6" t="n">
+      <c r="Q24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="n">
         <v>401</v>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="T24" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="U24" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U24" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>96</v>
@@ -3182,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>109</v>
@@ -3194,68 +3216,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>20190404</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="H25" s="9" t="n">
         <v>4824</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J25" s="6" t="n">
-        <f aca="false">SequencingForm!$G25*SequencingForm!$I25</f>
+      <c r="K25" s="6" t="n">
+        <f aca="false">SequencingForm!$H25*SequencingForm!$J25</f>
         <v>241200000</v>
       </c>
-      <c r="K25" s="7" t="n">
+      <c r="L25" s="7" t="n">
         <v>0.103024090210149</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="M25" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6" t="n">
+      <c r="Q25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="n">
         <v>435</v>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="T25" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="U25" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U25" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>96</v>
@@ -3270,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>109</v>
@@ -3282,66 +3304,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>20190909</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9" t="n">
+      <c r="F26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="J26" s="6" t="n">
-        <f aca="false">SequencingForm!$G26*SequencingForm!$I26</f>
+      <c r="K26" s="6" t="n">
+        <f aca="false">SequencingForm!$H26*SequencingForm!$J26</f>
         <v>100000000</v>
       </c>
-      <c r="K26" s="7" t="n">
+      <c r="L26" s="7" t="n">
         <v>0.0427131385614215</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="M26" s="6" t="n">
         <v>2341200000</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6" t="n">
+      <c r="Q26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="n">
         <v>517</v>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="T26" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="U26" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U26" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>96</v>
@@ -3356,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>109</v>
@@ -3368,66 +3390,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>20190829</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="9" t="n">
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="J27" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J27" s="6" t="n">
-        <f aca="false">SequencingForm!$G27*SequencingForm!$I27</f>
+      <c r="K27" s="6" t="n">
+        <f aca="false">SequencingForm!$H27*SequencingForm!$J27</f>
         <v>500000000</v>
       </c>
-      <c r="K27" s="7" t="n">
+      <c r="L27" s="7" t="n">
         <v>0.1999992000032</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="M27" s="6" t="n">
         <v>2500010000</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6" t="n">
+      <c r="Q27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="n">
         <v>497</v>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="T27" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="U27" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U27" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>96</v>
@@ -3442,7 +3464,7 @@
         <v>41</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>109</v>
@@ -3454,66 +3476,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>20190905</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9" t="n">
+      <c r="F28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="J28" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J28" s="6" t="n">
-        <f aca="false">SequencingForm!$G28*SequencingForm!$I28</f>
+      <c r="K28" s="6" t="n">
+        <f aca="false">SequencingForm!$H28*SequencingForm!$J28</f>
         <v>500000000</v>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="L28" s="7" t="n">
         <v>0.1999992000032</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="M28" s="6" t="n">
         <v>2500010000</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6" t="n">
+      <c r="Q28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="T28" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="U28" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>96</v>
@@ -3528,7 +3550,7 @@
         <v>41</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>109</v>
@@ -3540,66 +3562,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>20190909</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="9" t="n">
+      <c r="F29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="J29" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J29" s="6" t="n">
-        <f aca="false">SequencingForm!$G29*SequencingForm!$I29</f>
+      <c r="K29" s="6" t="n">
+        <f aca="false">SequencingForm!$H29*SequencingForm!$J29</f>
         <v>500000000</v>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="L29" s="7" t="n">
         <v>0.1999992000032</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="M29" s="6" t="n">
         <v>2500010000</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6" t="n">
+      <c r="Q29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="n">
         <v>510</v>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="T29" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="U29" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U29" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>96</v>
@@ -3614,7 +3636,7 @@
         <v>41</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>109</v>
@@ -3626,66 +3648,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>20190923</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="9" t="n">
+      <c r="F30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="J30" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J30" s="6" t="n">
-        <f aca="false">SequencingForm!$G30*SequencingForm!$I30</f>
+      <c r="K30" s="6" t="n">
+        <f aca="false">SequencingForm!$H30*SequencingForm!$J30</f>
         <v>500000000</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="L30" s="7" t="n">
         <v>0.1999992000032</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="M30" s="6" t="n">
         <v>2500010000</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6" t="n">
+      <c r="Q30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="n">
         <v>479</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="T30" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="U30" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U30" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>96</v>
@@ -3700,7 +3722,7 @@
         <v>41</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA30" s="1" t="s">
         <v>109</v>
@@ -3712,66 +3734,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>20191018</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="1" t="n">
+        <v>20191121</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="9" t="n">
+      <c r="F31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="J31" s="9" t="n">
         <v>50001</v>
       </c>
-      <c r="J31" s="6" t="n">
-        <f aca="false">SequencingForm!$G31*SequencingForm!$I31</f>
+      <c r="K31" s="6" t="n">
+        <f aca="false">SequencingForm!$H31*SequencingForm!$J31</f>
         <v>500010000</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="L31" s="7" t="n">
         <v>0.2000031999872</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="M31" s="6" t="n">
         <v>2500010000</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="N31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="n">
+      <c r="Q31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="n">
         <v>406</v>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="T31" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="U31" s="6" t="n">
         <v>40</v>
-      </c>
-      <c r="U31" s="1" t="n">
-        <v>20191121</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>96</v>
@@ -3786,7 +3808,7 @@
         <v>41</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>109</v>
@@ -3798,70 +3820,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20191205</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1" t="n">
+        <v>20210114</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="H32" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="J32" s="9" t="n">
         <v>90000000</v>
       </c>
-      <c r="J32" s="6" t="n">
-        <f aca="false">SequencingForm!$G32*SequencingForm!$I32</f>
+      <c r="K32" s="6" t="n">
+        <f aca="false">SequencingForm!$H32*SequencingForm!$J32</f>
         <v>900000000000</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="L32" s="7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="M32" s="6" t="n">
         <v>2700000000</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="6" t="n">
+      <c r="Q32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="6" t="n">
         <v>16.3</v>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="S32" s="6" t="n">
         <v>313</v>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="T32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="U32" s="6" t="n">
         <v>80</v>
-      </c>
-      <c r="U32" s="1" t="n">
-        <v>20210114</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>96</v>
@@ -3888,70 +3910,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20200219</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="1" t="n">
+        <v>20210114</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="H33" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="J33" s="9" t="n">
         <v>90000000</v>
       </c>
-      <c r="J33" s="6" t="n">
-        <f aca="false">SequencingForm!$G33*SequencingForm!$I33</f>
+      <c r="K33" s="6" t="n">
+        <f aca="false">SequencingForm!$H33*SequencingForm!$J33</f>
         <v>900000000000</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="L33" s="7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="L33" s="6" t="n">
+      <c r="M33" s="6" t="n">
         <v>2700000000</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="N33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="6" t="n">
+      <c r="Q33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="6" t="n">
         <v>20.3</v>
       </c>
-      <c r="R33" s="6" t="n">
+      <c r="S33" s="6" t="n">
         <v>385</v>
       </c>
-      <c r="S33" s="6" t="n">
+      <c r="T33" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="T33" s="6" t="n">
+      <c r="U33" s="6" t="n">
         <v>80</v>
-      </c>
-      <c r="U33" s="1" t="n">
-        <v>20210114</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>96</v>
@@ -3978,70 +4000,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>20200318</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="1" t="n">
+        <v>20210114</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="H34" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="J34" s="9" t="n">
         <v>90000000</v>
       </c>
-      <c r="J34" s="6" t="n">
-        <f aca="false">SequencingForm!$G34*SequencingForm!$I34</f>
+      <c r="K34" s="6" t="n">
+        <f aca="false">SequencingForm!$H34*SequencingForm!$J34</f>
         <v>900000000000</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="L34" s="7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="L34" s="6" t="n">
+      <c r="M34" s="6" t="n">
         <v>2700000000</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="N34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="O34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="6" t="n">
         <v>26.6</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="S34" s="6" t="n">
         <v>359</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="T34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="U34" s="6" t="n">
         <v>80</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>20210114</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>96</v>
@@ -4068,70 +4090,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>20200211</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="H35" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="J35" s="9" t="n">
         <v>75000000</v>
       </c>
-      <c r="J35" s="6" t="n">
-        <f aca="false">SequencingForm!$G35*SequencingForm!$I35</f>
+      <c r="K35" s="6" t="n">
+        <f aca="false">SequencingForm!$H35*SequencingForm!$J35</f>
         <v>750000000000</v>
       </c>
-      <c r="K35" s="7" t="n">
+      <c r="L35" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="L35" s="6" t="n">
+      <c r="M35" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="N35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="O35" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="6" t="n">
+      <c r="Q35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="6" t="n">
         <v>2.03</v>
       </c>
-      <c r="R35" s="6" t="n">
+      <c r="S35" s="6" t="n">
         <v>328</v>
       </c>
-      <c r="S35" s="6" t="n">
+      <c r="T35" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T35" s="6" t="n">
+      <c r="U35" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>20210126</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>96</v>
@@ -4158,70 +4180,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>20200909</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="H36" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="J36" s="9" t="n">
         <v>75000000</v>
       </c>
-      <c r="J36" s="6" t="n">
-        <f aca="false">SequencingForm!$G36*SequencingForm!$I36</f>
+      <c r="K36" s="6" t="n">
+        <f aca="false">SequencingForm!$H36*SequencingForm!$J36</f>
         <v>750000000000</v>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="L36" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="L36" s="6" t="n">
+      <c r="M36" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="N36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="Q36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q36" s="6" t="n">
+      <c r="R36" s="6" t="n">
         <v>30.3</v>
       </c>
-      <c r="R36" s="6" t="n">
+      <c r="S36" s="6" t="n">
         <v>415</v>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="T36" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T36" s="6" t="n">
+      <c r="U36" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>20210126</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>96</v>
@@ -4248,70 +4270,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>20201119</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="H37" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="J37" s="9" t="n">
         <v>75000000</v>
       </c>
-      <c r="J37" s="6" t="n">
-        <f aca="false">SequencingForm!$G37*SequencingForm!$I37</f>
+      <c r="K37" s="6" t="n">
+        <f aca="false">SequencingForm!$H37*SequencingForm!$J37</f>
         <v>750000000000</v>
       </c>
-      <c r="K37" s="7" t="n">
+      <c r="L37" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="M37" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="N37" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="O37" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O37" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q37" s="6" t="n">
+      <c r="Q37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R37" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="R37" s="6" t="n">
+      <c r="S37" s="6" t="n">
         <v>383</v>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="T37" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="U37" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U37" s="1" t="n">
-        <v>20210126</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>96</v>
@@ -4338,70 +4360,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>20201203</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="1" t="n">
+        <v>20210126</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="H38" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="J38" s="9" t="n">
         <v>75000000</v>
       </c>
-      <c r="J38" s="6" t="n">
-        <f aca="false">SequencingForm!$G38*SequencingForm!$I38</f>
+      <c r="K38" s="6" t="n">
+        <f aca="false">SequencingForm!$H38*SequencingForm!$J38</f>
         <v>750000000000</v>
       </c>
-      <c r="K38" s="7" t="n">
+      <c r="L38" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="M38" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="N38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="O38" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q38" s="6" t="n">
+      <c r="Q38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="6" t="n">
         <v>7.55</v>
       </c>
-      <c r="R38" s="6" t="n">
+      <c r="S38" s="6" t="n">
         <v>317</v>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="T38" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="U38" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U38" s="1" t="n">
-        <v>20210126</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>96</v>
@@ -4428,68 +4450,68 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>20210519</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9" t="n">
+      <c r="F39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="J39" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J39" s="6" t="n">
-        <f aca="false">SequencingForm!$G39*SequencingForm!$I39</f>
+      <c r="K39" s="6" t="n">
+        <f aca="false">SequencingForm!$H39*SequencingForm!$J39</f>
         <v>700000000</v>
       </c>
-      <c r="K39" s="7" t="n">
+      <c r="L39" s="7" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="L39" s="6" t="n">
+      <c r="M39" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="N39" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="Q39" s="6" t="n">
+      <c r="R39" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R39" s="6" t="n">
+      <c r="S39" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S39" s="6" t="n">
+      <c r="T39" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T39" s="6" t="n">
+      <c r="U39" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U39" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>96</v>
@@ -4516,68 +4538,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>20210519</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9" t="n">
+      <c r="F40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="J40" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J40" s="6" t="n">
-        <f aca="false">SequencingForm!$G40*SequencingForm!$I40</f>
+      <c r="K40" s="6" t="n">
+        <f aca="false">SequencingForm!$H40*SequencingForm!$J40</f>
         <v>700000000</v>
       </c>
-      <c r="K40" s="7" t="n">
+      <c r="L40" s="7" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="L40" s="6" t="n">
+      <c r="M40" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="O40" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="Q40" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Q40" s="6" t="n">
+      <c r="R40" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R40" s="6" t="n">
+      <c r="S40" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S40" s="6" t="n">
+      <c r="T40" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T40" s="6" t="n">
+      <c r="U40" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U40" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>96</v>
@@ -4604,68 +4626,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>20210520</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9" t="n">
+      <c r="F41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="J41" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J41" s="6" t="n">
-        <f aca="false">SequencingForm!$G41*SequencingForm!$I41</f>
+      <c r="K41" s="6" t="n">
+        <f aca="false">SequencingForm!$H41*SequencingForm!$J41</f>
         <v>700000000</v>
       </c>
-      <c r="K41" s="7" t="n">
+      <c r="L41" s="7" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="L41" s="6" t="n">
+      <c r="M41" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="N41" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="O41" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Q41" s="6" t="n">
+      <c r="R41" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R41" s="6" t="n">
+      <c r="S41" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S41" s="6" t="n">
+      <c r="T41" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T41" s="6" t="n">
+      <c r="U41" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U41" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>96</v>
@@ -4692,68 +4714,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>20210520</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="9" t="n">
+      <c r="F42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="J42" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J42" s="6" t="n">
-        <f aca="false">SequencingForm!$G42*SequencingForm!$I42</f>
+      <c r="K42" s="6" t="n">
+        <f aca="false">SequencingForm!$H42*SequencingForm!$J42</f>
         <v>700000000</v>
       </c>
-      <c r="K42" s="7" t="n">
+      <c r="L42" s="7" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="L42" s="6" t="n">
+      <c r="M42" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="O42" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="Q42" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="Q42" s="6" t="n">
+      <c r="R42" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R42" s="6" t="n">
+      <c r="S42" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S42" s="6" t="n">
+      <c r="T42" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T42" s="6" t="n">
+      <c r="U42" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U42" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>96</v>
@@ -4780,68 +4802,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>20210519</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9" t="n">
+      <c r="G43" s="5"/>
+      <c r="H43" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="J43" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="J43" s="6" t="n">
-        <f aca="false">SequencingForm!$G43*SequencingForm!$I43</f>
+      <c r="K43" s="6" t="n">
+        <f aca="false">SequencingForm!$H43*SequencingForm!$J43</f>
         <v>50000000</v>
       </c>
-      <c r="K43" s="7" t="n">
+      <c r="L43" s="7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="L43" s="6" t="n">
+      <c r="M43" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="N43" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="O43" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q43" s="6" t="n">
+      <c r="Q43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R43" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="S43" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S43" s="6" t="n">
+      <c r="T43" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T43" s="6" t="n">
+      <c r="U43" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U43" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>96</v>
@@ -4868,68 +4890,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>20210519</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="9" t="n">
+      <c r="G44" s="5"/>
+      <c r="H44" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="J44" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="J44" s="6" t="n">
-        <f aca="false">SequencingForm!$G44*SequencingForm!$I44</f>
+      <c r="K44" s="6" t="n">
+        <f aca="false">SequencingForm!$H44*SequencingForm!$J44</f>
         <v>50000000</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="L44" s="7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="M44" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="N44" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="O44" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="O44" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q44" s="6" t="n">
+      <c r="Q44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R44" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R44" s="6" t="n">
+      <c r="S44" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S44" s="6" t="n">
+      <c r="T44" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T44" s="6" t="n">
+      <c r="U44" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U44" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>96</v>
@@ -4956,68 +4978,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>20210520</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="9" t="n">
+      <c r="G45" s="5"/>
+      <c r="H45" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="J45" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="J45" s="6" t="n">
-        <f aca="false">SequencingForm!$G45*SequencingForm!$I45</f>
+      <c r="K45" s="6" t="n">
+        <f aca="false">SequencingForm!$H45*SequencingForm!$J45</f>
         <v>50000000</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="L45" s="7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="L45" s="6" t="n">
+      <c r="M45" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="N45" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="O45" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="O45" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q45" s="6" t="n">
+      <c r="Q45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R45" s="6" t="n">
+      <c r="S45" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S45" s="6" t="n">
+      <c r="T45" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T45" s="6" t="n">
+      <c r="U45" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U45" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>96</v>
@@ -5044,68 +5066,68 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>20210520</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="5"/>
+      <c r="H46" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="J46" s="9" t="n">
         <v>5000</v>
       </c>
-      <c r="J46" s="6" t="n">
-        <f aca="false">SequencingForm!$G46*SequencingForm!$I46</f>
+      <c r="K46" s="6" t="n">
+        <f aca="false">SequencingForm!$H46*SequencingForm!$J46</f>
         <v>50000000</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="L46" s="7" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="L46" s="6" t="n">
+      <c r="M46" s="6" t="n">
         <v>3000000000</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="N46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="O46" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="O46" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" s="6" t="n">
+      <c r="Q46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R46" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R46" s="6" t="n">
+      <c r="S46" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="S46" s="6" t="n">
+      <c r="T46" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T46" s="6" t="n">
+      <c r="U46" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U46" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>96</v>
@@ -5132,70 +5154,70 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>20191205</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="H47" s="9" t="n">
         <v>17925</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="J47" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J47" s="6" t="n">
-        <f aca="false">SequencingForm!$G47*SequencingForm!$I47</f>
+      <c r="K47" s="6" t="n">
+        <f aca="false">SequencingForm!$H47*SequencingForm!$J47</f>
         <v>896250000</v>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="L47" s="7" t="n">
         <v>0.299531777940424</v>
       </c>
-      <c r="L47" s="6" t="n">
+      <c r="M47" s="6" t="n">
         <v>2992170000</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="N47" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="O47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O47" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="6" t="n">
+      <c r="Q47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R47" s="6" t="n">
+      <c r="S47" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S47" s="6" t="n">
+      <c r="T47" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T47" s="6" t="n">
+      <c r="U47" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U47" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>96</v>
@@ -5222,70 +5244,70 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>20201119</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="H48" s="9" t="n">
         <v>8674</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="J48" s="9" t="n">
         <v>30000</v>
       </c>
-      <c r="J48" s="6" t="n">
-        <f aca="false">SequencingForm!$G48*SequencingForm!$I48</f>
+      <c r="K48" s="6" t="n">
+        <f aca="false">SequencingForm!$H48*SequencingForm!$J48</f>
         <v>260220000</v>
       </c>
-      <c r="K48" s="7" t="n">
+      <c r="L48" s="7" t="n">
         <v>0.0869669838277905</v>
       </c>
-      <c r="L48" s="6" t="n">
+      <c r="M48" s="6" t="n">
         <v>2992170000</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="N48" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="O48" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O48" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q48" s="6" t="n">
+      <c r="Q48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R48" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R48" s="6" t="n">
+      <c r="S48" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S48" s="6" t="n">
+      <c r="T48" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T48" s="6" t="n">
+      <c r="U48" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U48" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V48" s="1" t="s">
         <v>96</v>
@@ -5312,68 +5334,68 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>20190829</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="5"/>
+      <c r="H49" s="9" t="n">
         <v>8714</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="J49" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J49" s="6" t="n">
-        <f aca="false">SequencingForm!$G49*SequencingForm!$I49</f>
+      <c r="K49" s="6" t="n">
+        <f aca="false">SequencingForm!$H49*SequencingForm!$J49</f>
         <v>435700000</v>
       </c>
-      <c r="K49" s="7" t="n">
+      <c r="L49" s="7" t="n">
         <v>0.145613384266268</v>
       </c>
-      <c r="L49" s="6" t="n">
+      <c r="M49" s="6" t="n">
         <v>2992170000</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="N49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="O49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O49" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P49" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" s="6" t="n">
+      <c r="Q49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R49" s="6" t="n">
+      <c r="S49" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S49" s="6" t="n">
+      <c r="T49" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T49" s="6" t="n">
+      <c r="U49" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U49" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>96</v>
@@ -5400,68 +5422,68 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>20210408</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="9" t="n">
+      <c r="G50" s="5"/>
+      <c r="H50" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="J50" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J50" s="6" t="n">
-        <f aca="false">SequencingForm!$G50*SequencingForm!$I50</f>
+      <c r="K50" s="6" t="n">
+        <f aca="false">SequencingForm!$H50*SequencingForm!$J50</f>
         <v>700000000</v>
       </c>
-      <c r="K50" s="7" t="n">
+      <c r="L50" s="7" t="n">
         <v>0.233943926982758</v>
       </c>
-      <c r="L50" s="6" t="n">
+      <c r="M50" s="6" t="n">
         <v>2992170000</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="N50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="O50" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O50" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q50" s="6" t="n">
+      <c r="Q50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R50" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R50" s="6" t="n">
+      <c r="S50" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S50" s="6" t="n">
+      <c r="T50" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T50" s="6" t="n">
+      <c r="U50" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U50" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>96</v>
@@ -5488,68 +5510,68 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>20210409</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="1" t="n">
+        <v>20210716</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="5"/>
+      <c r="H51" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="J51" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J51" s="6" t="n">
-        <f aca="false">SequencingForm!$G51*SequencingForm!$I51</f>
+      <c r="K51" s="6" t="n">
+        <f aca="false">SequencingForm!$H51*SequencingForm!$J51</f>
         <v>700000000</v>
       </c>
-      <c r="K51" s="7" t="n">
+      <c r="L51" s="7" t="n">
         <v>0.233943926982758</v>
       </c>
-      <c r="L51" s="6" t="n">
+      <c r="M51" s="6" t="n">
         <v>2992170000</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="N51" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="O51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O51" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q51" s="6" t="n">
+      <c r="Q51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="R51" s="6" t="n">
+      <c r="S51" s="6" t="n">
         <v>448</v>
       </c>
-      <c r="S51" s="6" t="n">
+      <c r="T51" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T51" s="6" t="n">
+      <c r="U51" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U51" s="1" t="n">
-        <v>20210716</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>96</v>
@@ -5576,70 +5598,70 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>20210707</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G52" s="9" t="n">
+      <c r="H52" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="J52" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J52" s="6" t="n">
-        <f aca="false">SequencingForm!$G52*SequencingForm!$I52</f>
+      <c r="K52" s="6" t="n">
+        <f aca="false">SequencingForm!$H52*SequencingForm!$J52</f>
         <v>428000000</v>
       </c>
-      <c r="K52" s="7" t="n">
+      <c r="L52" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L52" s="6" t="n">
+      <c r="M52" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="N52" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="O52" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="P52" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="Q52" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q52" s="6" t="n">
+      <c r="R52" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R52" s="6" t="n">
+      <c r="S52" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S52" s="6" t="n">
+      <c r="T52" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T52" s="6" t="n">
+      <c r="U52" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U52" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>96</v>
@@ -5666,70 +5688,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>20210707</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="H53" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="J53" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J53" s="6" t="n">
-        <f aca="false">SequencingForm!$G53*SequencingForm!$I53</f>
+      <c r="K53" s="6" t="n">
+        <f aca="false">SequencingForm!$H53*SequencingForm!$J53</f>
         <v>428000000</v>
       </c>
-      <c r="K53" s="7" t="n">
+      <c r="L53" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L53" s="6" t="n">
+      <c r="M53" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="N53" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="O53" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q53" s="6" t="n">
+      <c r="R53" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R53" s="6" t="n">
+      <c r="S53" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S53" s="6" t="n">
+      <c r="T53" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T53" s="6" t="n">
+      <c r="U53" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U53" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>96</v>
@@ -5756,70 +5778,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>20210713</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G54" s="9" t="n">
+      <c r="H54" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I54" s="9" t="n">
+      <c r="J54" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J54" s="6" t="n">
-        <f aca="false">SequencingForm!$G54*SequencingForm!$I54</f>
+      <c r="K54" s="6" t="n">
+        <f aca="false">SequencingForm!$H54*SequencingForm!$J54</f>
         <v>428000000</v>
       </c>
-      <c r="K54" s="7" t="n">
+      <c r="L54" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L54" s="6" t="n">
+      <c r="M54" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="N54" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="O54" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="P54" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="Q54" s="6" t="n">
+      <c r="R54" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R54" s="6" t="n">
+      <c r="S54" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S54" s="6" t="n">
+      <c r="T54" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T54" s="6" t="n">
+      <c r="U54" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U54" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>96</v>
@@ -5846,70 +5868,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>20210713</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G55" s="9" t="n">
+      <c r="H55" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="J55" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J55" s="6" t="n">
-        <f aca="false">SequencingForm!$G55*SequencingForm!$I55</f>
+      <c r="K55" s="6" t="n">
+        <f aca="false">SequencingForm!$H55*SequencingForm!$J55</f>
         <v>428000000</v>
       </c>
-      <c r="K55" s="7" t="n">
+      <c r="L55" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L55" s="6" t="n">
+      <c r="M55" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="N55" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="O55" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="O55" s="6" t="s">
+      <c r="P55" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="Q55" s="6" t="n">
+      <c r="R55" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R55" s="6" t="n">
+      <c r="S55" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S55" s="6" t="n">
+      <c r="T55" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T55" s="6" t="n">
+      <c r="U55" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U55" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>96</v>
@@ -5936,70 +5958,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>20210623</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="9" t="n">
+      <c r="H56" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I56" s="9" t="n">
+      <c r="J56" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J56" s="6" t="n">
-        <f aca="false">SequencingForm!$G56*SequencingForm!$I56</f>
+      <c r="K56" s="6" t="n">
+        <f aca="false">SequencingForm!$H56*SequencingForm!$J56</f>
         <v>428000000</v>
       </c>
-      <c r="K56" s="7" t="n">
+      <c r="L56" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L56" s="6" t="n">
+      <c r="M56" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="N56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="O56" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="P56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="Q56" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="Q56" s="6" t="n">
+      <c r="R56" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R56" s="6" t="n">
+      <c r="S56" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S56" s="6" t="n">
+      <c r="T56" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T56" s="6" t="n">
+      <c r="U56" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U56" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>96</v>
@@ -6026,70 +6048,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>20210623</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G57" s="9" t="n">
+      <c r="H57" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I57" s="9" t="n">
+      <c r="J57" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J57" s="6" t="n">
-        <f aca="false">SequencingForm!$G57*SequencingForm!$I57</f>
+      <c r="K57" s="6" t="n">
+        <f aca="false">SequencingForm!$H57*SequencingForm!$J57</f>
         <v>428000000</v>
       </c>
-      <c r="K57" s="7" t="n">
+      <c r="L57" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L57" s="6" t="n">
+      <c r="M57" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="N57" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="O57" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="Q57" s="6" t="n">
+      <c r="R57" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R57" s="6" t="n">
+      <c r="S57" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S57" s="6" t="n">
+      <c r="T57" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T57" s="6" t="n">
+      <c r="U57" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U57" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>96</v>
@@ -6116,70 +6138,70 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>20210723</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="1" t="n">
+        <v>20210830</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G58" s="9" t="n">
+      <c r="H58" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I58" s="9" t="n">
+      <c r="J58" s="9" t="n">
         <v>42800</v>
       </c>
-      <c r="J58" s="6" t="n">
-        <f aca="false">SequencingForm!$G58*SequencingForm!$I58</f>
+      <c r="K58" s="6" t="n">
+        <f aca="false">SequencingForm!$H58*SequencingForm!$J58</f>
         <v>428000000</v>
       </c>
-      <c r="K58" s="7" t="n">
+      <c r="L58" s="7" t="n">
         <v>0.143</v>
       </c>
-      <c r="L58" s="6" t="n">
+      <c r="M58" s="6" t="n">
         <v>2996000000</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="N58" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="O58" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Q58" s="6" t="n">
+      <c r="R58" s="6" t="n">
         <v>2.84</v>
       </c>
-      <c r="R58" s="6" t="n">
+      <c r="S58" s="6" t="n">
         <v>498</v>
       </c>
-      <c r="S58" s="6" t="n">
+      <c r="T58" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="T58" s="6" t="n">
+      <c r="U58" s="6" t="n">
         <v>50</v>
-      </c>
-      <c r="U58" s="1" t="n">
-        <v>20210830</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>96</v>
@@ -6213,61 +6235,61 @@
       <c r="B59" s="1" t="n">
         <v>20210408</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9" t="n">
+      <c r="G59" s="5"/>
+      <c r="H59" s="9" t="n">
         <v>8410</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I59" s="9" t="n">
+      <c r="J59" s="9" t="n">
         <v>28640</v>
       </c>
-      <c r="J59" s="6" t="n">
-        <f aca="false">SequencingForm!$G59*SequencingForm!$I59</f>
+      <c r="K59" s="6" t="n">
+        <f aca="false">SequencingForm!$H59*SequencingForm!$J59</f>
         <v>240862400</v>
       </c>
-      <c r="K59" s="7" t="n">
+      <c r="L59" s="7" t="n">
         <v>0.0783540963167712</v>
       </c>
-      <c r="L59" s="6" t="n">
+      <c r="M59" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="N59" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="O59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O59" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q59" s="6" t="n">
+      <c r="Q59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R59" s="6" t="n">
+      <c r="S59" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S59" s="6" t="n">
+      <c r="T59" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T59" s="6" t="n">
+      <c r="U59" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U59" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>96</v>
@@ -6287,7 +6309,9 @@
       <c r="AA59" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AB59" s="1"/>
+      <c r="AB59" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC59" s="1" t="s">
         <v>140</v>
       </c>
@@ -6299,61 +6323,61 @@
       <c r="B60" s="1" t="n">
         <v>20210409</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="9" t="n">
+      <c r="G60" s="5"/>
+      <c r="H60" s="9" t="n">
         <v>8464</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I60" s="9" t="n">
+      <c r="J60" s="9" t="n">
         <v>35280</v>
       </c>
-      <c r="J60" s="6" t="n">
-        <f aca="false">SequencingForm!$G60*SequencingForm!$I60</f>
+      <c r="K60" s="6" t="n">
+        <f aca="false">SequencingForm!$H60*SequencingForm!$J60</f>
         <v>298609920</v>
       </c>
-      <c r="K60" s="7" t="n">
+      <c r="L60" s="7" t="n">
         <v>0.0971397380115092</v>
       </c>
-      <c r="L60" s="6" t="n">
+      <c r="M60" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="N60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N60" s="6" t="s">
+      <c r="O60" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O60" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q60" s="6" t="n">
+      <c r="Q60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R60" s="6" t="n">
+      <c r="S60" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S60" s="6" t="n">
+      <c r="T60" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T60" s="6" t="n">
+      <c r="U60" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U60" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>96</v>
@@ -6373,7 +6397,9 @@
       <c r="AA60" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AB60" s="1"/>
+      <c r="AB60" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC60" s="1" t="s">
         <v>140</v>
       </c>
@@ -6385,63 +6411,63 @@
       <c r="B61" s="1" t="n">
         <v>20210707</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G61" s="9" t="n">
+      <c r="H61" s="9" t="n">
         <v>6367</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I61" s="9" t="n">
+      <c r="J61" s="9" t="n">
         <v>43457</v>
       </c>
-      <c r="J61" s="6" t="n">
-        <f aca="false">SequencingForm!$G61*SequencingForm!$I61</f>
+      <c r="K61" s="6" t="n">
+        <f aca="false">SequencingForm!$H61*SequencingForm!$J61</f>
         <v>276690719</v>
       </c>
-      <c r="K61" s="7" t="n">
+      <c r="L61" s="7" t="n">
         <v>0.0900092801802302</v>
       </c>
-      <c r="L61" s="6" t="n">
+      <c r="M61" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="N61" s="6" t="s">
+      <c r="O61" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="P61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="Q61" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q61" s="6" t="n">
+      <c r="R61" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R61" s="6" t="n">
+      <c r="S61" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S61" s="6" t="n">
+      <c r="T61" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T61" s="6" t="n">
+      <c r="U61" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U61" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>96</v>
@@ -6459,9 +6485,11 @@
         <v>265</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB61" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC61" s="1" t="s">
         <v>140</v>
       </c>
@@ -6473,63 +6501,63 @@
       <c r="B62" s="1" t="n">
         <v>20210707</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G62" s="9" t="n">
+      <c r="H62" s="9" t="n">
         <v>3870</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I62" s="9" t="n">
+      <c r="J62" s="9" t="n">
         <v>8371</v>
       </c>
-      <c r="J62" s="6" t="n">
-        <f aca="false">SequencingForm!$G62*SequencingForm!$I62</f>
+      <c r="K62" s="6" t="n">
+        <f aca="false">SequencingForm!$H62*SequencingForm!$J62</f>
         <v>32395770</v>
       </c>
-      <c r="K62" s="7" t="n">
+      <c r="L62" s="7" t="n">
         <v>0.0105385534763249</v>
       </c>
-      <c r="L62" s="6" t="n">
+      <c r="M62" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M62" s="6" t="s">
+      <c r="N62" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N62" s="6" t="s">
+      <c r="O62" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O62" s="6" t="s">
+      <c r="P62" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="Q62" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q62" s="6" t="n">
+      <c r="R62" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R62" s="6" t="n">
+      <c r="S62" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S62" s="6" t="n">
+      <c r="T62" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T62" s="6" t="n">
+      <c r="U62" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U62" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>96</v>
@@ -6547,9 +6575,11 @@
         <v>265</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB62" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC62" s="1" t="s">
         <v>140</v>
       </c>
@@ -6561,63 +6591,63 @@
       <c r="B63" s="1" t="n">
         <v>20210713</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G63" s="9" t="n">
+      <c r="H63" s="9" t="n">
         <v>11600</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I63" s="9" t="n">
+      <c r="J63" s="9" t="n">
         <v>58583</v>
       </c>
-      <c r="J63" s="6" t="n">
-        <f aca="false">SequencingForm!$G63*SequencingForm!$I63</f>
+      <c r="K63" s="6" t="n">
+        <f aca="false">SequencingForm!$H63*SequencingForm!$J63</f>
         <v>679562800</v>
       </c>
-      <c r="K63" s="7" t="n">
+      <c r="L63" s="7" t="n">
         <v>0.221066173402302</v>
       </c>
-      <c r="L63" s="6" t="n">
+      <c r="M63" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M63" s="6" t="s">
+      <c r="N63" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="O63" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="P63" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="Q63" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="Q63" s="6" t="n">
+      <c r="R63" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R63" s="6" t="n">
+      <c r="S63" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S63" s="6" t="n">
+      <c r="T63" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T63" s="6" t="n">
+      <c r="U63" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U63" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>96</v>
@@ -6635,9 +6665,11 @@
         <v>265</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB63" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC63" s="1" t="s">
         <v>140</v>
       </c>
@@ -6649,63 +6681,63 @@
       <c r="B64" s="1" t="n">
         <v>20210713</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G64" s="9" t="n">
+      <c r="H64" s="9" t="n">
         <v>9287</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I64" s="9" t="n">
+      <c r="J64" s="9" t="n">
         <v>65607</v>
       </c>
-      <c r="J64" s="6" t="n">
-        <f aca="false">SequencingForm!$G64*SequencingForm!$I64</f>
+      <c r="K64" s="6" t="n">
+        <f aca="false">SequencingForm!$H64*SequencingForm!$J64</f>
         <v>609292209</v>
       </c>
-      <c r="K64" s="7" t="n">
+      <c r="L64" s="7" t="n">
         <v>0.198206695727703</v>
       </c>
-      <c r="L64" s="6" t="n">
+      <c r="M64" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M64" s="6" t="s">
+      <c r="N64" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="O64" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="P64" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="Q64" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="Q64" s="6" t="n">
+      <c r="R64" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R64" s="6" t="n">
+      <c r="S64" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S64" s="6" t="n">
+      <c r="T64" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T64" s="6" t="n">
+      <c r="U64" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U64" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>96</v>
@@ -6723,9 +6755,11 @@
         <v>265</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB64" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC64" s="1" t="s">
         <v>140</v>
       </c>
@@ -6737,63 +6771,63 @@
       <c r="B65" s="1" t="n">
         <v>20210723</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G65" s="9" t="n">
+      <c r="H65" s="9" t="n">
         <v>14332</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I65" s="9" t="n">
+      <c r="J65" s="9" t="n">
         <v>65351</v>
       </c>
-      <c r="J65" s="6" t="n">
-        <f aca="false">SequencingForm!$G65*SequencingForm!$I65</f>
+      <c r="K65" s="6" t="n">
+        <f aca="false">SequencingForm!$H65*SequencingForm!$J65</f>
         <v>936610532</v>
       </c>
-      <c r="K65" s="7" t="n">
+      <c r="L65" s="7" t="n">
         <v>0.304685462885159</v>
       </c>
-      <c r="L65" s="6" t="n">
+      <c r="M65" s="6" t="n">
         <v>3074024350</v>
       </c>
-      <c r="M65" s="6" t="s">
+      <c r="N65" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="O65" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="P65" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Q65" s="6" t="n">
+      <c r="R65" s="6" t="n">
         <v>3.26</v>
       </c>
-      <c r="R65" s="6" t="n">
+      <c r="S65" s="6" t="n">
         <v>494</v>
       </c>
-      <c r="S65" s="6" t="n">
+      <c r="T65" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T65" s="6" t="n">
+      <c r="U65" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U65" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>96</v>
@@ -6811,9 +6845,11 @@
         <v>265</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB65" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC65" s="1" t="s">
         <v>140</v>
       </c>
@@ -6825,63 +6861,63 @@
       <c r="B66" s="1" t="n">
         <v>20210623</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G66" s="9" t="n">
+      <c r="H66" s="9" t="n">
         <v>14491</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I66" s="9" t="n">
+      <c r="I66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J66" s="9" t="n">
         <v>36812</v>
       </c>
-      <c r="J66" s="6" t="n">
-        <f aca="false">SequencingForm!$G66*SequencingForm!$I66</f>
+      <c r="K66" s="6" t="n">
+        <f aca="false">SequencingForm!$H66*SequencingForm!$J66</f>
         <v>533442692</v>
       </c>
-      <c r="K66" s="7" t="n">
+      <c r="L66" s="7" t="n">
         <v>0.172942395424857</v>
       </c>
-      <c r="L66" s="6" t="n">
+      <c r="M66" s="6" t="n">
         <v>3084510832</v>
       </c>
-      <c r="M66" s="6" t="s">
+      <c r="N66" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="N66" s="6" t="s">
+      <c r="O66" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="P66" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="Q66" s="6" t="n">
+      <c r="R66" s="6" t="n">
         <v>8.34</v>
       </c>
-      <c r="R66" s="6" t="n">
+      <c r="S66" s="6" t="n">
         <v>518</v>
       </c>
-      <c r="S66" s="6" t="n">
+      <c r="T66" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="T66" s="6" t="n">
+      <c r="U66" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U66" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>96</v>
@@ -6899,11 +6935,13 @@
         <v>265</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB66" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC66" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,63 +6951,63 @@
       <c r="B67" s="1" t="n">
         <v>20210623</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G67" s="9" t="n">
+      <c r="H67" s="9" t="n">
         <v>7769</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I67" s="9" t="n">
+      <c r="I67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J67" s="9" t="n">
         <v>58060</v>
       </c>
-      <c r="J67" s="6" t="n">
-        <f aca="false">SequencingForm!$G67*SequencingForm!$I67</f>
+      <c r="K67" s="6" t="n">
+        <f aca="false">SequencingForm!$H67*SequencingForm!$J67</f>
         <v>451068140</v>
       </c>
-      <c r="K67" s="7" t="n">
+      <c r="L67" s="7" t="n">
         <v>0.146236523250439</v>
       </c>
-      <c r="L67" s="6" t="n">
+      <c r="M67" s="6" t="n">
         <v>3084510832</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="N67" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="O67" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="Q67" s="6" t="n">
+      <c r="R67" s="6" t="n">
         <v>7.11</v>
       </c>
-      <c r="R67" s="6" t="n">
+      <c r="S67" s="6" t="n">
         <v>483</v>
       </c>
-      <c r="S67" s="6" t="n">
+      <c r="T67" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="T67" s="6" t="n">
+      <c r="U67" s="6" t="n">
         <v>25</v>
-      </c>
-      <c r="U67" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>96</v>
@@ -6987,11 +7025,13 @@
         <v>265</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB67" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC67" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,61 +7041,61 @@
       <c r="B68" s="1" t="n">
         <v>20210826</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="9" t="n">
+      <c r="F68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I68" s="9" t="n">
+      <c r="I68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J68" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J68" s="6" t="n">
-        <f aca="false">SequencingForm!$G68*SequencingForm!$I68</f>
+      <c r="K68" s="6" t="n">
+        <f aca="false">SequencingForm!$H68*SequencingForm!$J68</f>
         <v>700000000</v>
       </c>
-      <c r="K68" s="7" t="n">
+      <c r="L68" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L68" s="6" t="n">
+      <c r="M68" s="6" t="n">
         <v>3084510832</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>278</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q68" s="6" t="n">
+      <c r="Q68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="6" t="n">
         <v>3.14</v>
       </c>
-      <c r="R68" s="6" t="n">
+      <c r="S68" s="6" t="n">
         <v>487</v>
       </c>
-      <c r="S68" s="6" t="n">
+      <c r="T68" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T68" s="6" t="n">
+      <c r="U68" s="6" t="n">
         <v>30</v>
-      </c>
-      <c r="U68" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>96</v>
@@ -7073,11 +7113,13 @@
         <v>265</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB68" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC68" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,61 +7129,61 @@
       <c r="B69" s="1" t="n">
         <v>20210924</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="9" t="n">
+      <c r="F69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I69" s="9" t="n">
+      <c r="I69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J69" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J69" s="6" t="n">
-        <f aca="false">SequencingForm!$G69*SequencingForm!$I69</f>
+      <c r="K69" s="6" t="n">
+        <f aca="false">SequencingForm!$H69*SequencingForm!$J69</f>
         <v>700000000</v>
       </c>
-      <c r="K69" s="7" t="n">
+      <c r="L69" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L69" s="6" t="n">
+      <c r="M69" s="6" t="n">
         <v>3084510832</v>
       </c>
-      <c r="M69" s="6" t="s">
+      <c r="N69" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N69" s="6" t="s">
+      <c r="O69" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O69" s="6" t="s">
+      <c r="P69" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="P69" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q69" s="6" t="n">
+      <c r="Q69" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="R69" s="6" t="n">
         <v>3.14</v>
       </c>
-      <c r="R69" s="6" t="n">
+      <c r="S69" s="6" t="n">
         <v>457</v>
       </c>
-      <c r="S69" s="6" t="n">
+      <c r="T69" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T69" s="6" t="n">
+      <c r="U69" s="6" t="n">
         <v>30</v>
-      </c>
-      <c r="U69" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>96</v>
@@ -7159,11 +7201,13 @@
         <v>265</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB69" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC69" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,61 +7217,61 @@
       <c r="B70" s="1" t="n">
         <v>20211001</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="1" t="n">
+        <v>20211105</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="9" t="n">
+      <c r="F70" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I70" s="9" t="n">
+      <c r="I70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J70" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J70" s="6" t="n">
-        <f aca="false">SequencingForm!$G70*SequencingForm!$I70</f>
+      <c r="K70" s="6" t="n">
+        <f aca="false">SequencingForm!$H70*SequencingForm!$J70</f>
         <v>700000000</v>
       </c>
-      <c r="K70" s="7" t="n">
+      <c r="L70" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L70" s="6" t="n">
+      <c r="M70" s="6" t="n">
         <v>3084510832</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>286</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q70" s="6" t="n">
+        <v>286</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R70" s="6" t="n">
         <v>3.14</v>
       </c>
-      <c r="R70" s="6" t="n">
+      <c r="S70" s="6" t="n">
         <v>477</v>
       </c>
-      <c r="S70" s="6" t="n">
+      <c r="T70" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="T70" s="6" t="n">
+      <c r="U70" s="6" t="n">
         <v>30</v>
-      </c>
-      <c r="U70" s="1" t="n">
-        <v>20211105</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>96</v>
@@ -7245,47 +7289,48 @@
         <v>265</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB70" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="AC70" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>20211102</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="9" t="n">
+        <v>289</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I71" s="9" t="n">
+      <c r="J71" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J71" s="6" t="n">
-        <f aca="false">SequencingForm!$G71*SequencingForm!$I71</f>
+      <c r="K71" s="6" t="n">
+        <f aca="false">SequencingForm!$H71*SequencingForm!$J71</f>
         <v>500000000</v>
       </c>
-      <c r="K71" s="7" t="n">
+      <c r="L71" s="7" t="n">
         <v>0.162100257458263</v>
       </c>
-      <c r="L71" s="6" t="n">
+      <c r="M71" s="6" t="n">
         <v>2500000000</v>
       </c>
-      <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -7293,6 +7338,7 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
       <c r="W71" s="1" t="s">
         <v>135</v>
       </c>
@@ -7300,45 +7346,44 @@
         <v>264</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>20211110</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="9" t="n">
+        <v>291</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I72" s="9" t="n">
+      <c r="J72" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J72" s="6" t="n">
-        <f aca="false">SequencingForm!$G72*SequencingForm!$I72</f>
+      <c r="K72" s="6" t="n">
+        <f aca="false">SequencingForm!$H72*SequencingForm!$J72</f>
         <v>500000000</v>
       </c>
-      <c r="K72" s="7" t="n">
+      <c r="L72" s="7" t="n">
         <v>0.162100257458263</v>
       </c>
-      <c r="L72" s="6" t="n">
+      <c r="M72" s="6" t="n">
         <v>2500000000</v>
       </c>
-      <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -7346,6 +7391,7 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
       <c r="W72" s="1" t="s">
         <v>135</v>
       </c>
@@ -7353,45 +7399,44 @@
         <v>264</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>20211111</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="9" t="n">
+        <v>292</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I73" s="9" t="n">
+      <c r="J73" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J73" s="6" t="n">
-        <f aca="false">SequencingForm!$G73*SequencingForm!$I73</f>
+      <c r="K73" s="6" t="n">
+        <f aca="false">SequencingForm!$H73*SequencingForm!$J73</f>
         <v>500000000</v>
       </c>
-      <c r="K73" s="7" t="n">
+      <c r="L73" s="7" t="n">
         <v>0.162100257458263</v>
       </c>
-      <c r="L73" s="6" t="n">
+      <c r="M73" s="6" t="n">
         <v>2500000000</v>
       </c>
-      <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
@@ -7399,6 +7444,7 @@
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
       <c r="W73" s="1" t="s">
         <v>135</v>
       </c>
@@ -7406,34 +7452,33 @@
         <v>264</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="9" t="n">
+      <c r="G74" s="5"/>
+      <c r="H74" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I74" s="9" t="n">
+      <c r="J74" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J74" s="6" t="n">
-        <f aca="false">SequencingForm!$G74*SequencingForm!$I74</f>
+      <c r="K74" s="6" t="n">
+        <f aca="false">SequencingForm!$H74*SequencingForm!$J74</f>
         <v>500000000</v>
       </c>
-      <c r="K74" s="7" t="n">
+      <c r="L74" s="7" t="n">
         <v>0.162100257458263</v>
       </c>
-      <c r="L74" s="6" t="n">
+      <c r="M74" s="6" t="n">
         <v>2500000000</v>
       </c>
-      <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -7441,6 +7486,7 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
       <c r="W74" s="1" t="s">
         <v>135</v>
       </c>
@@ -7448,34 +7494,33 @@
         <v>264</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="9" t="n">
+      <c r="G75" s="5"/>
+      <c r="H75" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I75" s="9" t="n">
+      <c r="J75" s="9" t="n">
         <v>50000</v>
       </c>
-      <c r="J75" s="6" t="n">
-        <f aca="false">SequencingForm!$G75*SequencingForm!$I75</f>
+      <c r="K75" s="6" t="n">
+        <f aca="false">SequencingForm!$H75*SequencingForm!$J75</f>
         <v>500000000</v>
       </c>
-      <c r="K75" s="7" t="n">
+      <c r="L75" s="7" t="n">
         <v>0.162100257458263</v>
       </c>
-      <c r="L75" s="6" t="n">
+      <c r="M75" s="6" t="n">
         <v>2500000000</v>
       </c>
-      <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
@@ -7483,6 +7528,7 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
       <c r="W75" s="1" t="s">
         <v>135</v>
       </c>
@@ -7490,60 +7536,60 @@
         <v>264</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>20190909</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="9" t="n">
+      <c r="F76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="9" t="n">
         <v>6512</v>
       </c>
-      <c r="I76" s="9" t="n">
+      <c r="J76" s="9" t="n">
         <v>25000</v>
       </c>
-      <c r="J76" s="6" t="n">
-        <f aca="false">SequencingForm!$G76*SequencingForm!$I76</f>
+      <c r="K76" s="6" t="n">
+        <f aca="false">SequencingForm!$H76*SequencingForm!$J76</f>
         <v>162800000</v>
       </c>
-      <c r="K76" s="7" t="n">
+      <c r="L76" s="7" t="n">
         <v>0.0527798438284103</v>
       </c>
-      <c r="L76" s="6" t="n">
+      <c r="M76" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M76" s="6" t="s">
+      <c r="N76" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N76" s="6" t="s">
+      <c r="O76" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O76" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P76" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q76" s="6"/>
+      <c r="Q76" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
       <c r="W76" s="1" t="s">
         <v>135</v>
       </c>
@@ -7551,62 +7597,62 @@
         <v>264</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>20190923</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G77" s="9" t="n">
+      <c r="H77" s="9" t="n">
         <v>12710</v>
       </c>
-      <c r="I77" s="9" t="n">
+      <c r="J77" s="9" t="n">
         <v>35000</v>
       </c>
-      <c r="J77" s="6" t="n">
-        <f aca="false">SequencingForm!$G77*SequencingForm!$I77</f>
+      <c r="K77" s="6" t="n">
+        <f aca="false">SequencingForm!$H77*SequencingForm!$J77</f>
         <v>444850000</v>
       </c>
-      <c r="K77" s="7" t="n">
+      <c r="L77" s="7" t="n">
         <v>0.144220599060616</v>
       </c>
-      <c r="L77" s="6" t="n">
+      <c r="M77" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M77" s="6" t="s">
+      <c r="N77" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="N77" s="6" t="s">
+      <c r="O77" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O77" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q77" s="6"/>
+      <c r="Q77" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
       <c r="W77" s="1" t="s">
         <v>135</v>
       </c>
@@ -7614,62 +7660,62 @@
         <v>264</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>20201119</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G78" s="9" t="n">
+      <c r="H78" s="9" t="n">
         <v>9886</v>
       </c>
-      <c r="I78" s="9" t="n">
+      <c r="J78" s="9" t="n">
         <v>25000</v>
       </c>
-      <c r="J78" s="6" t="n">
-        <f aca="false">SequencingForm!$G78*SequencingForm!$I78</f>
+      <c r="K78" s="6" t="n">
+        <f aca="false">SequencingForm!$H78*SequencingForm!$J78</f>
         <v>247150000</v>
       </c>
-      <c r="K78" s="7" t="n">
+      <c r="L78" s="7" t="n">
         <v>0.0801261572616192</v>
       </c>
-      <c r="L78" s="6" t="n">
+      <c r="M78" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M78" s="6" t="s">
+      <c r="N78" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N78" s="6" t="s">
+      <c r="O78" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="O78" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="P78" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q78" s="6"/>
+      <c r="Q78" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
       <c r="W78" s="1" t="s">
         <v>135</v>
       </c>
@@ -7677,45 +7723,44 @@
         <v>264</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>20201203</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="9" t="n">
+      <c r="F79" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I79" s="9" t="n">
+      <c r="J79" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J79" s="6" t="n">
-        <f aca="false">SequencingForm!$G79*SequencingForm!$I79</f>
+      <c r="K79" s="6" t="n">
+        <f aca="false">SequencingForm!$H79*SequencingForm!$J79</f>
         <v>700000000</v>
       </c>
-      <c r="K79" s="7" t="n">
+      <c r="L79" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L79" s="6" t="n">
+      <c r="M79" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -7723,6 +7768,7 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
       <c r="W79" s="1" t="s">
         <v>135</v>
       </c>
@@ -7730,45 +7776,44 @@
         <v>264</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>20211111</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="9" t="n">
+      <c r="F80" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I80" s="9" t="n">
+      <c r="J80" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J80" s="6" t="n">
-        <f aca="false">SequencingForm!$G80*SequencingForm!$I80</f>
+      <c r="K80" s="6" t="n">
+        <f aca="false">SequencingForm!$H80*SequencingForm!$J80</f>
         <v>700000000</v>
       </c>
-      <c r="K80" s="7" t="n">
+      <c r="L80" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L80" s="6" t="n">
+      <c r="M80" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -7776,6 +7821,7 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
       <c r="W80" s="1" t="s">
         <v>135</v>
       </c>
@@ -7783,45 +7829,44 @@
         <v>264</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>20211106</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="9" t="n">
+      <c r="F81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="I81" s="9" t="n">
+      <c r="J81" s="9" t="n">
         <v>70000</v>
       </c>
-      <c r="J81" s="6" t="n">
-        <f aca="false">SequencingForm!$G81*SequencingForm!$I81</f>
+      <c r="K81" s="6" t="n">
+        <f aca="false">SequencingForm!$H81*SequencingForm!$J81</f>
         <v>700000000</v>
       </c>
-      <c r="K81" s="7" t="n">
+      <c r="L81" s="7" t="n">
         <v>0.226940360441568</v>
       </c>
-      <c r="L81" s="6" t="n">
+      <c r="M81" s="6" t="n">
         <v>2954800000</v>
       </c>
-      <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
@@ -7829,6 +7874,7 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
       <c r="W81" s="1" t="s">
         <v>135</v>
       </c>
@@ -7836,16 +7882,16 @@
         <v>264</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="9"/>
+      <c r="C82" s="7"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
@@ -7854,7 +7900,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
-      <c r="U82" s="7"/>
+      <c r="U82" s="9"/>
       <c r="V82" s="7"/>
       <c r="W82" s="6"/>
       <c r="X82" s="7"/>
@@ -7862,8 +7908,7 @@
       <c r="AI82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J83" s="10"/>
-      <c r="L83" s="6"/>
+      <c r="K83" s="10"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -7872,6 +7917,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="302">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -259,6 +259,9 @@
     <t xml:space="preserve">CTCGTCAC, GATCAGCA, ACAACAGG, TGGTGTTT</t>
   </si>
   <si>
+    <t xml:space="preserve">Aging_Mouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">ND_Young</t>
   </si>
   <si>
@@ -283,9 +286,6 @@
     <t xml:space="preserve">AATAATGG, CCAGGGCA, TGCCTCAT, GTGTCATC</t>
   </si>
   <si>
-    <t xml:space="preserve">Aging_Mouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">HFD_Young</t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">ATTTGCTA,TAGACACC,CCACAGGG,GGCGTTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Masternek</t>
+    <t xml:space="preserve">Masternak</t>
   </si>
   <si>
     <t xml:space="preserve">Con-R1</t>
@@ -901,6 +901,12 @@
     <t xml:space="preserve">76647_V11</t>
   </si>
   <si>
+    <t xml:space="preserve">76656_V11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76658_V11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lane_2</t>
   </si>
   <si>
@@ -916,10 +922,10 @@
     <t xml:space="preserve">STARR060</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR061</t>
+    <t xml:space="preserve">STARR_063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_064</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1073,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC81" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:AC81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC82" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="29">
     <tableColumn id="1" name="SQ_List"/>
     <tableColumn id="2" name="Sample_Date"/>
@@ -1111,11 +1116,11 @@
   <dimension ref="A1:AMJ83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="A41" activeCellId="0" sqref="A41:A42"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,7 +1151,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="32.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="31.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="32.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.55"/>
@@ -1157,7 +1162,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.78"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="56.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1859,16 +1864,16 @@
         <v>20190717</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="9" t="n">
         <v>10000</v>
@@ -1890,10 +1895,10 @@
         <v>180000000</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>36</v>
@@ -1947,16 +1952,16 @@
         <v>20190717</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>10000</v>
@@ -1978,10 +1983,10 @@
         <v>180000000</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>36</v>
@@ -2035,7 +2040,7 @@
         <v>20190717</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
@@ -2123,7 +2128,7 @@
         <v>20190717</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>92</v>
@@ -2875,7 +2880,7 @@
         <v>20191121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>88</v>
@@ -2963,16 +2968,16 @@
         <v>20191121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>10000</v>
@@ -2994,10 +2999,10 @@
         <v>2341200000</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>36</v>
@@ -3051,7 +3056,7 @@
         <v>20191121</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>92</v>
@@ -3139,16 +3144,16 @@
         <v>20191121</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>10000</v>
@@ -3170,10 +3175,10 @@
         <v>2341200000</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>36</v>
@@ -7461,7 +7466,18 @@
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="n">
+        <v>20211208</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="9" t="n">
         <v>10000</v>
@@ -7503,7 +7519,18 @@
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="n">
+        <v>20211213</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="G75" s="5"/>
       <c r="H75" s="9" t="n">
         <v>10000</v>
@@ -7597,7 +7624,7 @@
         <v>264</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
@@ -7660,7 +7687,7 @@
         <v>264</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
@@ -7723,7 +7750,7 @@
         <v>264</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
@@ -7739,10 +7766,10 @@
         <v>65</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="9" t="n">
@@ -7776,7 +7803,7 @@
         <v>264</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
@@ -7792,10 +7819,10 @@
         <v>65</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="9" t="n">
@@ -7829,7 +7856,7 @@
         <v>264</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
@@ -7839,16 +7866,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>20211106</v>
+        <v>20211210</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="9" t="n">
@@ -7882,15 +7909,38 @@
         <v>264</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="7"/>
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>20211210</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <v>10000</v>
+      </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="9" t="n">
+        <v>70000</v>
+      </c>
+      <c r="K82" s="6" t="n">
+        <f aca="false">SequencingForm!$H82*SequencingForm!$J82</f>
+        <v>700000000</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Project</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample_ID</t>
+    <t xml:space="preserve">sample_id</t>
   </si>
   <si>
     <t xml:space="preserve">Samples</t>
@@ -1079,7 +1079,7 @@
     <tableColumn id="2" name="Sample_Date"/>
     <tableColumn id="3" name="Sequencing_Date"/>
     <tableColumn id="4" name="Project"/>
-    <tableColumn id="5" name="Sample_ID"/>
+    <tableColumn id="5" name="sample_id"/>
     <tableColumn id="6" name="Samples"/>
     <tableColumn id="7" name="Chip"/>
     <tableColumn id="8" name="Cell Numbers"/>
@@ -1116,11 +1116,11 @@
   <dimension ref="A1:AMJ83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="B79" activeCellId="0" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A7E76A-63AF-416D-8C64-B8BE86C1B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SequencingForm" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SequencingForm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,926 +35,934 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="302">
-  <si>
-    <t xml:space="preserve">SQ_List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reads/Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reads/Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I7_Index ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I7_Index_Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I5_Index ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I5_Index_Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual Library Concentration (ng/ul)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Insert Size (bp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooled Library concentration_nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total pool volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Run (S2/S4; 50PE, 100PE, 150PE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbcl_Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FastqFolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CountsFolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCAT_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190613_JN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTACATG, CGCGATAC, ACGCGGGT, GAATTCCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq Mid Output 2x75bp (R1=28, I7=8, R2=100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeqMid_UTHSCSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190613_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGATTCTA, ACTAGGAG, CAGCCACT, GTCGATGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAATGACC, ATGCCTTA, GCCGAGAT, CGTATCGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO_HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-HFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAGTACTG, AGTAGTCT, GCAGTAGA, TTCCCGAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTGTATTA, TGTGCGGG, ACCATAAC, CAACGCCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X3063-5P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTCGCCCT, GGATGGGC, AATCAATG, CCGATTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 nM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190717_NextSeq_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190717_NextSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons_Old_Marmoset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCGTCAC, GATCAGCA, ACAACAGG, TGGTGTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aging_Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-H4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCATTCC, CAAGAATT, TTGCCGGA, AGTTGCAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATAATGG, CCAGGGCA, TGCCTCAT, GTGTCATC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTAGGTGA, TCGTTCAG, AGCCAATT, GATACGCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFD_Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X306422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGACTTGA, TACAGACT, ATTGCGTG, GCGTACAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4 150PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novo_NovaSeq S4 lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novogene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapa_Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-G5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGCAAGA, TCTGTGAT, CGCAGTTC, ATATCCCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1111191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-H7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTATGCA, CTCGAAAT, ACACCTTC, TAGTGCGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1111192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAACCTCA, GCCTTGGT, CTGGACTC, TGTAGAAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-G8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0111211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCGCAGAA,ATCTTACC,TATGGTGT,CGAACCTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTA_NovaSeq S4 lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmoset_Olaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCACTTAT,AACTGGCG,TTGGCATA,GGTAACGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30941b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACTCTTC,CCTGTGCG,GGACACGT,ATGAGAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X30891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0111212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-H12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGLT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76615_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76615-V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X31031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACGGTGAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTCGTCACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X31081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X31091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTTGCTA,TAGACACC,CCACAGGG,GGCGTTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masternak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P06242211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-H5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAGAAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGAAACACAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_UTA_NovaSeq_L1_L2_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_fastq_dual_cellranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_count_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAACGCGTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAAGTTAGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGCCATGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCATTACGTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGACTACCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTAGGGTCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R1_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCACGAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGATGTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R1_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTAGGCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amei-R2_Multiplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPI4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGACCAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P070720211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L2_fastq_single_cellranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L2_counts_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632-V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76632_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P08232021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCAGCTTCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTTGGTGTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_UTA_NovaSeq_L3_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_counts_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76643_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-E6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTGAGAGTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTACCAGGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776-47 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCTTCGGTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAATCGTTGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCGCACTTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGAATACAGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-38 Fat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCTGTCAGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTACGGGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V5_Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-38 Muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x31152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTCCTTCGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTGTGCATGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776-49 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x3119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATGTATCCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAAGCTCATT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P101521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_UTA_L3_L4_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_fastq_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-47 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-49 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638-v5_mus-fat_musi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L4_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-56 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCGAGTA, ACTTCTAT, CAAATACG, TTGCGCGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L4_fastq_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-58 V5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGTGACGAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">766-38 V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-TT-B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAGACGAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCACACTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76649_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76654_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76647_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76656_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76658_V11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_064</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="307">
+  <si>
+    <t>SQ_List</t>
+  </si>
+  <si>
+    <t>Sample_Date</t>
+  </si>
+  <si>
+    <t>Sequencing_Date</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Cell Numbers</t>
+  </si>
+  <si>
+    <t>Library_ID</t>
+  </si>
+  <si>
+    <t>Reads/Cell</t>
+  </si>
+  <si>
+    <t>Reads/Sample</t>
+  </si>
+  <si>
+    <t>Target %</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>I7_Index ID</t>
+  </si>
+  <si>
+    <t>I7_Index_Sequence</t>
+  </si>
+  <si>
+    <t>I5_Index ID</t>
+  </si>
+  <si>
+    <t>I5_Index_Sequence</t>
+  </si>
+  <si>
+    <t>Individual Library Concentration (ng/ul)</t>
+  </si>
+  <si>
+    <t>Estimated Insert Size (bp)</t>
+  </si>
+  <si>
+    <t>Pooled Library concentration_nM</t>
+  </si>
+  <si>
+    <t>Total pool volume</t>
+  </si>
+  <si>
+    <t>Type of Run (S2/S4; 50PE, 100PE, 150PE)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>cbcl_Folder</t>
+  </si>
+  <si>
+    <t>FastqFolder</t>
+  </si>
+  <si>
+    <t>CountsFolder</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>ALCAT_Mouse</t>
+  </si>
+  <si>
+    <t>P16_ND</t>
+  </si>
+  <si>
+    <t>P16-ND</t>
+  </si>
+  <si>
+    <t>10X30581</t>
+  </si>
+  <si>
+    <t>20190613_JN</t>
+  </si>
+  <si>
+    <t>SI-GA-F2</t>
+  </si>
+  <si>
+    <t>TTTACATG, CGCGATAC, ACGCGGGT, GAATTCCA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>10nM</t>
+  </si>
+  <si>
+    <t>NextSeq Mid Output 2x75bp (R1=28, I7=8, R2=100)</t>
+  </si>
+  <si>
+    <t>NextSeqMid_UTHSCSA</t>
+  </si>
+  <si>
+    <t>GCCRI</t>
+  </si>
+  <si>
+    <t>Seagate_SequencingFiles_1</t>
+  </si>
+  <si>
+    <t>20190613_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>P16_HFD</t>
+  </si>
+  <si>
+    <t>P16-HFD</t>
+  </si>
+  <si>
+    <t>10X30582</t>
+  </si>
+  <si>
+    <t>SI-GA-G2</t>
+  </si>
+  <si>
+    <t>TGATTCTA, ACTAGGAG, CAGCCACT, GTCGATGC</t>
+  </si>
+  <si>
+    <t>KO_ND</t>
+  </si>
+  <si>
+    <t>KO-ND</t>
+  </si>
+  <si>
+    <t>10X30583</t>
+  </si>
+  <si>
+    <t>SI-GA-H2</t>
+  </si>
+  <si>
+    <t>TAATGACC, ATGCCTTA, GCCGAGAT, CGTATCGG</t>
+  </si>
+  <si>
+    <t>KO_HFD</t>
+  </si>
+  <si>
+    <t>KO-HFD</t>
+  </si>
+  <si>
+    <t>10X30584</t>
+  </si>
+  <si>
+    <t>SI-GA-A3</t>
+  </si>
+  <si>
+    <t>CAGTACTG, AGTAGTCT, GCAGTAGA, TTCCCGAC</t>
+  </si>
+  <si>
+    <t>Marmoset</t>
+  </si>
+  <si>
+    <t>Rapa</t>
+  </si>
+  <si>
+    <t>Rapa_Marmoset</t>
+  </si>
+  <si>
+    <t>10X30585</t>
+  </si>
+  <si>
+    <t>SI-GA-B3</t>
+  </si>
+  <si>
+    <t>GTGTATTA, TGTGCGGG, ACCATAAC, CAACGCCT</t>
+  </si>
+  <si>
+    <t>STARR</t>
+  </si>
+  <si>
+    <t>STARR_015</t>
+  </si>
+  <si>
+    <t>10X30631</t>
+  </si>
+  <si>
+    <t>10X3063-5P</t>
+  </si>
+  <si>
+    <t>SI-GA-E4</t>
+  </si>
+  <si>
+    <t>TTCGCCCT, GGATGGGC, AATCAATG, CCGATTAA</t>
+  </si>
+  <si>
+    <t>11 nM</t>
+  </si>
+  <si>
+    <t>20190717_NextSeq_cbcl</t>
+  </si>
+  <si>
+    <t>20190717_NextSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Buttons_Old_Marmoset</t>
+  </si>
+  <si>
+    <t>10X30651</t>
+  </si>
+  <si>
+    <t>SI-GA-D5</t>
+  </si>
+  <si>
+    <t>CTCGTCAC, GATCAGCA, ACAACAGG, TGGTGTTT</t>
+  </si>
+  <si>
+    <t>Aging_Mouse</t>
+  </si>
+  <si>
+    <t>ND_Young</t>
+  </si>
+  <si>
+    <t>10X30642</t>
+  </si>
+  <si>
+    <t>SI-GA-H4</t>
+  </si>
+  <si>
+    <t>GCCATTCC, CAAGAATT, TTGCCGGA, AGTTGCAG</t>
+  </si>
+  <si>
+    <t>ND_Old</t>
+  </si>
+  <si>
+    <t>10X30644</t>
+  </si>
+  <si>
+    <t>SI-GA-B5</t>
+  </si>
+  <si>
+    <t>AATAATGG, CCAGGGCA, TGCCTCAT, GTGTCATC</t>
+  </si>
+  <si>
+    <t>HFD_Young</t>
+  </si>
+  <si>
+    <t>10X30641</t>
+  </si>
+  <si>
+    <t>SI-GA-A5</t>
+  </si>
+  <si>
+    <t>CTAGGTGA, TCGTTCAG, AGCCAATT, GATACGCC</t>
+  </si>
+  <si>
+    <t>HFD_Old</t>
+  </si>
+  <si>
+    <t>10X306422</t>
+  </si>
+  <si>
+    <t>SI-GA-C5</t>
+  </si>
+  <si>
+    <t>CGACTTGA, TACAGACT, ATTGCGTG, GCGTACAC</t>
+  </si>
+  <si>
+    <t>S4 150PE</t>
+  </si>
+  <si>
+    <t>Novo_NovaSeq S4 lane</t>
+  </si>
+  <si>
+    <t>Novogene</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>20190816_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>Rapa_Mar</t>
+  </si>
+  <si>
+    <t>20190912_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t>STARR_016</t>
+  </si>
+  <si>
+    <t>10X30671</t>
+  </si>
+  <si>
+    <t>SI-GA-G5</t>
+  </si>
+  <si>
+    <t>GAGCAAGA, TCTGTGAT, CGCAGTTC, ATATCCCG</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>P1111191</t>
+  </si>
+  <si>
+    <t>20191121_NovaSeq_fastq</t>
+  </si>
+  <si>
+    <t>20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t>STARR_026h</t>
+  </si>
+  <si>
+    <t>SI-GA-H7</t>
+  </si>
+  <si>
+    <t>GGTATGCA, CTCGAAAT, ACACCTTC, TAGTGCGG</t>
+  </si>
+  <si>
+    <t>STARR_024</t>
+  </si>
+  <si>
+    <t>P1111192</t>
+  </si>
+  <si>
+    <t>SI-GA-B7</t>
+  </si>
+  <si>
+    <t>AAACCTCA, GCCTTGGT, CTGGACTC, TGTAGAAG</t>
+  </si>
+  <si>
+    <t>STARR_031</t>
+  </si>
+  <si>
+    <t>SI-GA-E7</t>
+  </si>
+  <si>
+    <t>CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
+  </si>
+  <si>
+    <t>STARR_028</t>
+  </si>
+  <si>
+    <t>SI-GA-F7</t>
+  </si>
+  <si>
+    <t>CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
+  </si>
+  <si>
+    <t>STARR_026</t>
+  </si>
+  <si>
+    <t>SI-GA-C8</t>
+  </si>
+  <si>
+    <t>GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
+  </si>
+  <si>
+    <t>STARR_032</t>
+  </si>
+  <si>
+    <t>SI-GA-G8</t>
+  </si>
+  <si>
+    <t>TATGAGCT, CCGATAGC, ATACCCAA, GGCTGTTG</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>10X30831</t>
+  </si>
+  <si>
+    <t>P0111211</t>
+  </si>
+  <si>
+    <t>SI-GA-C9</t>
+  </si>
+  <si>
+    <t>GCGCAGAA,ATCTTACC,TATGGTGT,CGAACCTG</t>
+  </si>
+  <si>
+    <t>UTA_NovaSeq S4 lane</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>20210114_UTA_NovaSeq_L3_cbcl</t>
+  </si>
+  <si>
+    <t>20210114_UTA_NovaSeq_L3_fastq</t>
+  </si>
+  <si>
+    <t>20210114_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Marmoset_Olaf</t>
+  </si>
+  <si>
+    <t>10X30901</t>
+  </si>
+  <si>
+    <t>SI-GA-C1</t>
+  </si>
+  <si>
+    <t>CCACTTAT,AACTGGCG,TTGGCATA,GGTAACGC</t>
+  </si>
+  <si>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>10X30941b</t>
+  </si>
+  <si>
+    <t>SI-GA-B2</t>
+  </si>
+  <si>
+    <t>TACTCTTC,CCTGTGCG,GGACACGT,ATGAGAAA</t>
+  </si>
+  <si>
+    <t>STARR_039</t>
+  </si>
+  <si>
+    <t>10X30891</t>
+  </si>
+  <si>
+    <t>P0111212</t>
+  </si>
+  <si>
+    <t>SI-GA-H12</t>
+  </si>
+  <si>
+    <t>GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
+  </si>
+  <si>
+    <t>Seagate_SequencingFiles_2</t>
+  </si>
+  <si>
+    <t>20210126_UTA_NovaSeq_L3_cbcl</t>
+  </si>
+  <si>
+    <t>20210126_UTA_NovaSeq_L3_fastq</t>
+  </si>
+  <si>
+    <t>20210126_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t>SGLT2</t>
+  </si>
+  <si>
+    <t>76615_V5</t>
+  </si>
+  <si>
+    <t>76615-V5</t>
+  </si>
+  <si>
+    <t>10X31031</t>
+  </si>
+  <si>
+    <t>SI-TT-B3</t>
+  </si>
+  <si>
+    <t>CACGGTGAAT</t>
+  </si>
+  <si>
+    <t>GTTCGTCACA</t>
+  </si>
+  <si>
+    <t>STARR_041</t>
+  </si>
+  <si>
+    <t>10X31081</t>
+  </si>
+  <si>
+    <t>SI-GA-C7</t>
+  </si>
+  <si>
+    <t>GTCTCTCG,AATCTCTC,CGGAGGGA,TCAGAAAT</t>
+  </si>
+  <si>
+    <t>STARR_043</t>
+  </si>
+  <si>
+    <t>10X31091</t>
+  </si>
+  <si>
+    <t>SI-GA-D7</t>
+  </si>
+  <si>
+    <t>ATTTGCTA,TAGACACC,CCACAGGG,GGCGTTAT</t>
+  </si>
+  <si>
+    <t>Masternak</t>
+  </si>
+  <si>
+    <t>Con-R1</t>
+  </si>
+  <si>
+    <t>P06242211</t>
+  </si>
+  <si>
+    <t>SI-TT-H5</t>
+  </si>
+  <si>
+    <t>AGCAAGAAGC</t>
+  </si>
+  <si>
+    <t>AGAAACACAA</t>
+  </si>
+  <si>
+    <t>20210716_UTA_NovaSeq_L1_L2_cbcl</t>
+  </si>
+  <si>
+    <t>20210716_L1_fastq_dual_cellranger</t>
+  </si>
+  <si>
+    <t>20210716_L1_count_dual</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Con-R2</t>
+  </si>
+  <si>
+    <t>SI-TT-A6</t>
+  </si>
+  <si>
+    <t>TAACGCGTGA</t>
+  </si>
+  <si>
+    <t>GAAGTTAGGG</t>
+  </si>
+  <si>
+    <t>Amei-R1</t>
+  </si>
+  <si>
+    <t>SI-TT-B6</t>
+  </si>
+  <si>
+    <t>AATGCCATGA</t>
+  </si>
+  <si>
+    <t>GCATTACGTA</t>
+  </si>
+  <si>
+    <t>Amei-R2</t>
+  </si>
+  <si>
+    <t>SI-TT-C6</t>
+  </si>
+  <si>
+    <t>ACGACTACCA</t>
+  </si>
+  <si>
+    <t>TTAGGGTCGT</t>
+  </si>
+  <si>
+    <t>Con-R1_Multiplex</t>
+  </si>
+  <si>
+    <t>RPI1</t>
+  </si>
+  <si>
+    <t>ATCACGAT</t>
+  </si>
+  <si>
+    <t>Con-R2_Multiplex</t>
+  </si>
+  <si>
+    <t>RPI2</t>
+  </si>
+  <si>
+    <t>CGATGTAT</t>
+  </si>
+  <si>
+    <t>Amei-R1_Multiplex</t>
+  </si>
+  <si>
+    <t>RPI3</t>
+  </si>
+  <si>
+    <t>TTAGGCAT</t>
+  </si>
+  <si>
+    <t>Amei-R2_Multiplex</t>
+  </si>
+  <si>
+    <t>RPI4</t>
+  </si>
+  <si>
+    <t>TGACCAAT</t>
+  </si>
+  <si>
+    <t>P070720211</t>
+  </si>
+  <si>
+    <t>20210716_L2_fastq_single_cellranger</t>
+  </si>
+  <si>
+    <t>20210716_L2_counts_single</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>STARR024</t>
+  </si>
+  <si>
+    <t>76632_V5</t>
+  </si>
+  <si>
+    <t>76632-V5</t>
+  </si>
+  <si>
+    <t>STARR_049</t>
+  </si>
+  <si>
+    <t>STARR049</t>
+  </si>
+  <si>
+    <t>76632_V11</t>
+  </si>
+  <si>
+    <t>776-32</t>
+  </si>
+  <si>
+    <t>10x31161</t>
+  </si>
+  <si>
+    <t>P08232021</t>
+  </si>
+  <si>
+    <t>SI-TT-D6</t>
+  </si>
+  <si>
+    <t>CCCAGCTTCT</t>
+  </si>
+  <si>
+    <t>GTTTGGTGTC</t>
+  </si>
+  <si>
+    <t>20210830_UTA_NovaSeq_L3_cbcl</t>
+  </si>
+  <si>
+    <t>20210830_L3_fastq_dual</t>
+  </si>
+  <si>
+    <t>20210830_L3_counts_dual</t>
+  </si>
+  <si>
+    <t>76643_V5</t>
+  </si>
+  <si>
+    <t>776-43</t>
+  </si>
+  <si>
+    <t>10x31162</t>
+  </si>
+  <si>
+    <t>SI-TT-E6</t>
+  </si>
+  <si>
+    <t>TTGAGAGTCA</t>
+  </si>
+  <si>
+    <t>CTACCAGGTT</t>
+  </si>
+  <si>
+    <t>76647_V5</t>
+  </si>
+  <si>
+    <t>776-47 V5</t>
+  </si>
+  <si>
+    <t>10x31175</t>
+  </si>
+  <si>
+    <t>SI-TT-B7</t>
+  </si>
+  <si>
+    <t>GCCTTCGGTA</t>
+  </si>
+  <si>
+    <t>AAATCGTTGG</t>
+  </si>
+  <si>
+    <t>STARR_051</t>
+  </si>
+  <si>
+    <t>STARR051</t>
+  </si>
+  <si>
+    <t>10x31182</t>
+  </si>
+  <si>
+    <t>SI-TT-C7</t>
+  </si>
+  <si>
+    <t>CGCGCACTTA</t>
+  </si>
+  <si>
+    <t>AGAATACAGG</t>
+  </si>
+  <si>
+    <t>76638_V5</t>
+  </si>
+  <si>
+    <t>766-38 Fat</t>
+  </si>
+  <si>
+    <t>10x31151</t>
+  </si>
+  <si>
+    <t>SI-TT-D7</t>
+  </si>
+  <si>
+    <t>CCTGTCAGGG</t>
+  </si>
+  <si>
+    <t>GTTACGGGCT</t>
+  </si>
+  <si>
+    <t>76638_V5_Muscle</t>
+  </si>
+  <si>
+    <t>766-38 Muscle</t>
+  </si>
+  <si>
+    <t>10x31152</t>
+  </si>
+  <si>
+    <t>SI-TT-E7</t>
+  </si>
+  <si>
+    <t>GTCCTTCGGC</t>
+  </si>
+  <si>
+    <t>CTGTGCATGA</t>
+  </si>
+  <si>
+    <t>76649_V5</t>
+  </si>
+  <si>
+    <t>776-49 V5</t>
+  </si>
+  <si>
+    <t>10x3119</t>
+  </si>
+  <si>
+    <t>SI-TT-F7</t>
+  </si>
+  <si>
+    <t>AATGTATCCA</t>
+  </si>
+  <si>
+    <t>TAAGCTCATT</t>
+  </si>
+  <si>
+    <t>P101521</t>
+  </si>
+  <si>
+    <t>SequencingFiles_3</t>
+  </si>
+  <si>
+    <t>20211105_UTA_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t>20211105_L3_fastq_single</t>
+  </si>
+  <si>
+    <t>20211105_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t>766-32</t>
+  </si>
+  <si>
+    <t>20211105_L3_fastq_dual</t>
+  </si>
+  <si>
+    <t>766-43</t>
+  </si>
+  <si>
+    <t>766-47 V5</t>
+  </si>
+  <si>
+    <t>766-49 V5</t>
+  </si>
+  <si>
+    <t>76638-v5_mus-fat_musi</t>
+  </si>
+  <si>
+    <t>20211105_L4_fastq_dual</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>76656_V5</t>
+  </si>
+  <si>
+    <t>766-56 V5</t>
+  </si>
+  <si>
+    <t>SI-GA-H11</t>
+  </si>
+  <si>
+    <t>GGCGAGTA, ACTTCTAT, CAAATACG, TTGCGCGC</t>
+  </si>
+  <si>
+    <t>20211105_L4_fastq_single</t>
+  </si>
+  <si>
+    <t>76658_V5</t>
+  </si>
+  <si>
+    <t>766-58 V5</t>
+  </si>
+  <si>
+    <t>TGTGACGAAC</t>
+  </si>
+  <si>
+    <t>76638_V11</t>
+  </si>
+  <si>
+    <t>766-38 V11</t>
+  </si>
+  <si>
+    <t>SI-TT-B4</t>
+  </si>
+  <si>
+    <t>GTAGACGAAA</t>
+  </si>
+  <si>
+    <t>ACCACACTAG</t>
+  </si>
+  <si>
+    <t>76649_V11</t>
+  </si>
+  <si>
+    <t>Lane_1</t>
+  </si>
+  <si>
+    <t>76647_V11</t>
+  </si>
+  <si>
+    <t>76656_V11</t>
+  </si>
+  <si>
+    <t>76658_V11</t>
+  </si>
+  <si>
+    <t>Lane_2</t>
+  </si>
+  <si>
+    <t>STARR_059</t>
+  </si>
+  <si>
+    <t>STARR059</t>
+  </si>
+  <si>
+    <t>STARR_060</t>
+  </si>
+  <si>
+    <t>STARR060</t>
+  </si>
+  <si>
+    <t>STARR_063</t>
+  </si>
+  <si>
+    <t>76643_V11</t>
+  </si>
+  <si>
+    <t>P20220001</t>
+  </si>
+  <si>
+    <t>P20220002</t>
+  </si>
+  <si>
+    <t>P20220003</t>
+  </si>
+  <si>
+    <t>76660_V5</t>
+  </si>
+  <si>
+    <t>76661_V5</t>
+  </si>
+  <si>
+    <t>76662_V5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="\ * #,##0.00\ ;\ * \(#,##0.00\);\ * \-#\ ;\ @\ "/>
-    <numFmt numFmtId="168" formatCode="\ * #,##0\ ;\ * \(#,##0\);\ * \-#\ ;\ @\ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -948,22 +971,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -978,7 +993,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -986,183 +1001,444 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC82" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC86" totalsRowShown="0">
+  <autoFilter ref="A1:AC86" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:AC70">
+    <sortCondition ref="A1:A77"/>
+  </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="SQ_List"/>
-    <tableColumn id="2" name="Sample_Date"/>
-    <tableColumn id="3" name="Sequencing_Date"/>
-    <tableColumn id="4" name="Project"/>
-    <tableColumn id="5" name="sample_id"/>
-    <tableColumn id="6" name="Samples"/>
-    <tableColumn id="7" name="Chip"/>
-    <tableColumn id="8" name="Cell Numbers"/>
-    <tableColumn id="9" name="Library_ID"/>
-    <tableColumn id="10" name="Reads/Cell"/>
-    <tableColumn id="11" name="Reads/Sample"/>
-    <tableColumn id="12" name="Target %"/>
-    <tableColumn id="13" name="Sum"/>
-    <tableColumn id="14" name="I7_Index ID"/>
-    <tableColumn id="15" name="I7_Index_Sequence"/>
-    <tableColumn id="16" name="I5_Index ID"/>
-    <tableColumn id="17" name="I5_Index_Sequence"/>
-    <tableColumn id="18" name="Individual Library Concentration (ng/ul)"/>
-    <tableColumn id="19" name="Estimated Insert Size (bp)"/>
-    <tableColumn id="20" name="Pooled Library concentration_nM"/>
-    <tableColumn id="21" name="Total pool volume"/>
-    <tableColumn id="22" name="Type of Run (S2/S4; 50PE, 100PE, 150PE)"/>
-    <tableColumn id="23" name="Type"/>
-    <tableColumn id="24" name="Location"/>
-    <tableColumn id="25" name="Disk"/>
-    <tableColumn id="26" name="cbcl_Folder"/>
-    <tableColumn id="27" name="FastqFolder"/>
-    <tableColumn id="28" name="CountsFolder"/>
-    <tableColumn id="29" name="Lane"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SQ_List"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sample_Date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sequencing_Date"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Project"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="sample_id"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Samples"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Chip"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cell Numbers"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Library_ID"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reads/Cell"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Reads/Sample"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Target %"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sum"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="I7_Index ID"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="I7_Index_Sequence"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="I5_Index ID"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="I5_Index_Sequence"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Individual Library Concentration (ng/ul)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Estimated Insert Size (bp)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Pooled Library concentration_nM"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Total pool volume"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Type of Run (S2/S4; 50PE, 100PE, 150PE)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Type"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Location"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Disk"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="cbcl_Folder"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="FastqFolder"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="CountsFolder"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Lane"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="40.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="32.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="32.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.78"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="32.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="32.77734375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="32.21875" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="32.21875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="25.21875" customWidth="1"/>
+    <col min="37" max="37" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1024" s="4" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1250,16 +1526,16 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>20190409</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>20190613</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1274,23 +1550,23 @@
       <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>10000</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="6">
         <v>4000</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <f aca="false">SequencingForm!$H2*SequencingForm!$J2</f>
+      <c r="K2" s="6">
+        <f>SequencingForm!$H2*SequencingForm!$J2</f>
         <v>40000000</v>
       </c>
-      <c r="L2" s="7" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="M2" s="6" t="n">
+      <c r="L2" s="7">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M2" s="6">
         <v>180000000</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -1306,13 +1582,13 @@
         <v>36</v>
       </c>
       <c r="R2" s="6"/>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="6">
         <v>448</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>22.5</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -1337,14 +1613,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>20190409</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>20190613</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1359,23 +1635,23 @@
       <c r="G3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>10000</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="6">
         <v>4000</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <f aca="false">SequencingForm!$H3*SequencingForm!$J3</f>
+      <c r="K3" s="6">
+        <f>SequencingForm!$H3*SequencingForm!$J3</f>
         <v>40000000</v>
       </c>
-      <c r="L3" s="7" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="M3" s="6" t="n">
+      <c r="L3" s="7">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M3" s="6">
         <v>180000000</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -1391,13 +1667,13 @@
         <v>36</v>
       </c>
       <c r="R3" s="6"/>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="6">
         <v>448</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="6">
         <v>22.5</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1422,14 +1698,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>20190409</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>20190613</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1444,23 +1720,23 @@
       <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>10000</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="6">
         <v>4000</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <f aca="false">SequencingForm!$H4*SequencingForm!$J4</f>
+      <c r="K4" s="6">
+        <f>SequencingForm!$H4*SequencingForm!$J4</f>
         <v>40000000</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="M4" s="6" t="n">
+      <c r="L4" s="7">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M4" s="6">
         <v>180000000</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -1476,13 +1752,13 @@
         <v>36</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="6">
         <v>448</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="U4" s="6">
         <v>22.5</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1507,14 +1783,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>20190409</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>20190613</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1529,23 +1805,23 @@
       <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>10000</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="6">
         <v>4000</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <f aca="false">SequencingForm!$H5*SequencingForm!$J5</f>
+      <c r="K5" s="6">
+        <f>SequencingForm!$H5*SequencingForm!$J5</f>
         <v>40000000</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v>0.222222222222222</v>
-      </c>
-      <c r="M5" s="6" t="n">
+      <c r="L5" s="7">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M5" s="6">
         <v>180000000</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1561,13 +1837,13 @@
         <v>36</v>
       </c>
       <c r="R5" s="6"/>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="6">
         <v>448</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="6">
         <v>22.5</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -1592,14 +1868,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>20190404</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>20190613</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1614,23 +1890,23 @@
       <c r="G6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="6">
         <v>5000</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="6">
         <v>4000</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <f aca="false">SequencingForm!$H6*SequencingForm!$J6</f>
+      <c r="K6" s="6">
+        <f>SequencingForm!$H6*SequencingForm!$J6</f>
         <v>20000000</v>
       </c>
-      <c r="L6" s="7" t="n">
-        <v>0.111111111111111</v>
-      </c>
-      <c r="M6" s="6" t="n">
+      <c r="L6" s="7">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="M6" s="6">
         <v>180000000</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1646,13 +1922,13 @@
         <v>36</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="6">
         <v>448</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="6">
         <v>22.5</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1677,14 +1953,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>20190603</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>20190717</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1699,23 +1975,23 @@
       <c r="G7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>10000</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="9">
         <v>3000</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <f aca="false">SequencingForm!$H7*SequencingForm!$J7</f>
+      <c r="K7" s="6">
+        <f>SequencingForm!$H7*SequencingForm!$J7</f>
         <v>30000000</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M7" s="6" t="n">
+      <c r="L7" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M7" s="6">
         <v>180000000</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1731,13 +2007,13 @@
         <v>36</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="6">
         <v>398</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="6">
         <v>25</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -1765,14 +2041,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>20190711</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>20190717</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1787,23 +2063,23 @@
       <c r="G8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>10000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="9">
         <v>3000</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <f aca="false">SequencingForm!$H8*SequencingForm!$J8</f>
+      <c r="K8" s="6">
+        <f>SequencingForm!$H8*SequencingForm!$J8</f>
         <v>30000000</v>
       </c>
-      <c r="L8" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M8" s="6" t="n">
+      <c r="L8" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M8" s="6">
         <v>180000000</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -1819,13 +2095,13 @@
         <v>36</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="6">
         <v>398</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="6">
         <v>25</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -1853,14 +2129,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>20190329</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>20190717</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1875,23 +2151,23 @@
       <c r="G9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="9">
         <v>10000</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>3000</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <f aca="false">SequencingForm!$H9*SequencingForm!$J9</f>
+      <c r="K9" s="6">
+        <f>SequencingForm!$H9*SequencingForm!$J9</f>
         <v>30000000</v>
       </c>
-      <c r="L9" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M9" s="6" t="n">
+      <c r="L9" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M9" s="6">
         <v>180000000</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -1907,13 +2183,13 @@
         <v>36</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="6">
         <v>398</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="U9" s="6">
         <v>25</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -1941,14 +2217,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>20190329</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>20190717</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1963,23 +2239,23 @@
       <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="9">
         <v>10000</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="9">
         <v>3000</v>
       </c>
-      <c r="K10" s="6" t="n">
-        <f aca="false">SequencingForm!$H10*SequencingForm!$J10</f>
+      <c r="K10" s="6">
+        <f>SequencingForm!$H10*SequencingForm!$J10</f>
         <v>30000000</v>
       </c>
-      <c r="L10" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M10" s="6" t="n">
+      <c r="L10" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M10" s="6">
         <v>180000000</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -1995,13 +2271,13 @@
         <v>36</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="6">
         <v>398</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="U10" s="6">
         <v>25</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -2029,14 +2305,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>20190329</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>20190717</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2051,23 +2327,23 @@
       <c r="G11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="9">
         <v>10000</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="9">
         <v>3000</v>
       </c>
-      <c r="K11" s="6" t="n">
-        <f aca="false">SequencingForm!$H11*SequencingForm!$J11</f>
+      <c r="K11" s="6">
+        <f>SequencingForm!$H11*SequencingForm!$J11</f>
         <v>30000000</v>
       </c>
-      <c r="L11" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M11" s="6" t="n">
+      <c r="L11" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M11" s="6">
         <v>180000000</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -2083,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="6">
         <v>398</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="6">
         <v>25</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2117,14 +2393,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>20190329</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>20190717</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2139,23 +2415,23 @@
       <c r="G12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="9">
         <v>10000</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="9">
         <v>3000</v>
       </c>
-      <c r="K12" s="6" t="n">
-        <f aca="false">SequencingForm!$H12*SequencingForm!$J12</f>
+      <c r="K12" s="6">
+        <f>SequencingForm!$H12*SequencingForm!$J12</f>
         <v>30000000</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M12" s="6" t="n">
+      <c r="L12" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="M12" s="6">
         <v>180000000</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -2171,13 +2447,13 @@
         <v>36</v>
       </c>
       <c r="R12" s="6"/>
-      <c r="S12" s="6" t="n">
+      <c r="S12" s="6">
         <v>398</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="6">
         <v>25</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -2205,14 +2481,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>20190409</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>20190816</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2227,20 +2503,20 @@
       <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="9">
         <v>10000</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="9">
         <v>50000</v>
       </c>
-      <c r="K13" s="6" t="n">
-        <f aca="false">SequencingForm!$H13*SequencingForm!$J13</f>
+      <c r="K13" s="6">
+        <f>SequencingForm!$H13*SequencingForm!$J13</f>
         <v>500000000</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="7">
         <v>0.222221728396159</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="6">
         <v>2250005000</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -2256,11 +2532,11 @@
         <v>36</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="6" t="n">
+      <c r="S13" s="6">
         <v>426</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="6">
         <v>45</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -2284,18 +2560,18 @@
       <c r="AB13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AC13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>20190409</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>20190816</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2310,20 +2586,20 @@
       <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="9">
         <v>10000</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="9">
         <v>50000</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <f aca="false">SequencingForm!$H14*SequencingForm!$J14</f>
+      <c r="K14" s="6">
+        <f>SequencingForm!$H14*SequencingForm!$J14</f>
         <v>500000000</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="7">
         <v>0.222221728396159</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="6">
         <v>2250005000</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2339,11 +2615,11 @@
         <v>36</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="6">
         <v>436</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="6">
         <v>45</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2367,18 +2643,18 @@
       <c r="AB14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AC14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>20190409</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>20190816</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2393,20 +2669,20 @@
       <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="9">
         <v>10000</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="9">
         <v>50000</v>
       </c>
-      <c r="K15" s="6" t="n">
-        <f aca="false">SequencingForm!$H15*SequencingForm!$J15</f>
+      <c r="K15" s="6">
+        <f>SequencingForm!$H15*SequencingForm!$J15</f>
         <v>500000000</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="7">
         <v>0.222221728396159</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="6">
         <v>2250005000</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2422,11 +2698,11 @@
         <v>36</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="6">
         <v>440</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="6">
         <v>45</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -2450,18 +2726,18 @@
       <c r="AB15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AC15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>20190409</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>20190816</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2476,20 +2752,20 @@
       <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="9">
         <v>10000</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="9">
         <v>50000</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <f aca="false">SequencingForm!$H16*SequencingForm!$J16</f>
+      <c r="K16" s="6">
+        <f>SequencingForm!$H16*SequencingForm!$J16</f>
         <v>500000000</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="7">
         <v>0.222221728396159</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="6">
         <v>2250005000</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -2505,11 +2781,11 @@
         <v>36</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="6">
         <v>427</v>
       </c>
       <c r="T16" s="6"/>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="6">
         <v>45</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -2533,18 +2809,18 @@
       <c r="AB16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AC16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>20190404</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>20190816</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2559,20 +2835,20 @@
       <c r="G17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="9">
         <v>5000</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="9">
         <v>50001</v>
       </c>
-      <c r="K17" s="6" t="n">
-        <f aca="false">SequencingForm!$H17*SequencingForm!$J17</f>
+      <c r="K17" s="6">
+        <f>SequencingForm!$H17*SequencingForm!$J17</f>
         <v>250005000</v>
       </c>
-      <c r="L17" s="7" t="n">
-        <v>0.111113086415364</v>
-      </c>
-      <c r="M17" s="6" t="n">
+      <c r="L17" s="7">
+        <v>0.11111308641536401</v>
+      </c>
+      <c r="M17" s="6">
         <v>2250005000</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -2588,11 +2864,11 @@
         <v>36</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="6">
         <v>435</v>
       </c>
       <c r="T17" s="6"/>
-      <c r="U17" s="6" t="n">
+      <c r="U17" s="6">
         <v>45</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -2616,18 +2892,18 @@
       <c r="AB17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC17" s="1" t="n">
+      <c r="AC17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>20190603</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>20190912</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2642,20 +2918,20 @@
       <c r="G18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="9">
         <v>10000</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="9">
         <v>100000</v>
       </c>
-      <c r="K18" s="6" t="n">
-        <f aca="false">SequencingForm!$H18*SequencingForm!$J18</f>
+      <c r="K18" s="6">
+        <f>SequencingForm!$H18*SequencingForm!$J18</f>
         <v>1000000000</v>
       </c>
-      <c r="L18" s="7" t="n">
-        <v>0.377358490566038</v>
-      </c>
-      <c r="M18" s="6" t="n">
+      <c r="L18" s="7">
+        <v>0.37735849056603799</v>
+      </c>
+      <c r="M18" s="6">
         <v>2650000000</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -2671,11 +2947,11 @@
         <v>36</v>
       </c>
       <c r="R18" s="6"/>
-      <c r="S18" s="6" t="n">
+      <c r="S18" s="6">
         <v>251</v>
       </c>
       <c r="T18" s="6"/>
-      <c r="U18" s="6" t="n">
+      <c r="U18" s="6">
         <v>20</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -2699,18 +2975,18 @@
       <c r="AB18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC18" s="1" t="n">
+      <c r="AC18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>20190624</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>20190912</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2725,20 +3001,20 @@
       <c r="G19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="9">
         <v>10000</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="9">
         <v>50000</v>
       </c>
-      <c r="K19" s="6" t="n">
-        <f aca="false">SequencingForm!$H19*SequencingForm!$J19</f>
+      <c r="K19" s="6">
+        <f>SequencingForm!$H19*SequencingForm!$J19</f>
         <v>500000000</v>
       </c>
-      <c r="L19" s="7" t="n">
-        <v>0.188679245283019</v>
-      </c>
-      <c r="M19" s="6" t="n">
+      <c r="L19" s="7">
+        <v>0.18867924528301899</v>
+      </c>
+      <c r="M19" s="6">
         <v>2650000000</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -2754,11 +3030,11 @@
         <v>36</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="6" t="n">
+      <c r="S19" s="6">
         <v>264</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="6">
         <v>45</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -2782,18 +3058,18 @@
       <c r="AB19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC19" s="1" t="n">
+      <c r="AC19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>20190711</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>20190912</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2808,20 +3084,20 @@
       <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="9">
         <v>10000</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="9">
         <v>115000</v>
       </c>
-      <c r="K20" s="6" t="n">
-        <f aca="false">SequencingForm!$H20*SequencingForm!$J20</f>
+      <c r="K20" s="6">
+        <f>SequencingForm!$H20*SequencingForm!$J20</f>
         <v>1150000000</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <v>0.433962264150943</v>
-      </c>
-      <c r="M20" s="6" t="n">
+      <c r="L20" s="7">
+        <v>0.43396226415094302</v>
+      </c>
+      <c r="M20" s="6">
         <v>2650000000</v>
       </c>
       <c r="N20" s="6" t="s">
@@ -2837,11 +3113,11 @@
         <v>36</v>
       </c>
       <c r="R20" s="6"/>
-      <c r="S20" s="6" t="n">
+      <c r="S20" s="6">
         <v>217</v>
       </c>
       <c r="T20" s="6"/>
-      <c r="U20" s="6" t="n">
+      <c r="U20" s="6">
         <v>20</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -2865,18 +3141,18 @@
       <c r="AB20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC20" s="1" t="n">
+      <c r="AC20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>20190329</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>20191121</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2891,23 +3167,23 @@
       <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="9">
         <v>10000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="9">
         <v>50000</v>
       </c>
-      <c r="K21" s="6" t="n">
-        <f aca="false">SequencingForm!$H21*SequencingForm!$J21</f>
+      <c r="K21" s="6">
+        <f>SequencingForm!$H21*SequencingForm!$J21</f>
         <v>500000000</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <v>0.213565692807107</v>
-      </c>
-      <c r="M21" s="6" t="n">
+      <c r="L21" s="7">
+        <v>0.21356569280710699</v>
+      </c>
+      <c r="M21" s="6">
         <v>2341200000</v>
       </c>
       <c r="N21" s="6" t="s">
@@ -2923,13 +3199,13 @@
         <v>36</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="6" t="n">
+      <c r="S21" s="6">
         <v>396</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="T21" s="6">
         <v>10</v>
       </c>
-      <c r="U21" s="6" t="n">
+      <c r="U21" s="6">
         <v>40</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -2953,18 +3229,18 @@
       <c r="AB21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC21" s="1" t="n">
+      <c r="AC21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>20190329</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>20191121</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2979,23 +3255,23 @@
       <c r="G22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="9">
         <v>10000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="9">
         <v>50000</v>
       </c>
-      <c r="K22" s="6" t="n">
-        <f aca="false">SequencingForm!$H22*SequencingForm!$J22</f>
+      <c r="K22" s="6">
+        <f>SequencingForm!$H22*SequencingForm!$J22</f>
         <v>500000000</v>
       </c>
-      <c r="L22" s="7" t="n">
-        <v>0.213565692807107</v>
-      </c>
-      <c r="M22" s="6" t="n">
+      <c r="L22" s="7">
+        <v>0.21356569280710699</v>
+      </c>
+      <c r="M22" s="6">
         <v>2341200000</v>
       </c>
       <c r="N22" s="6" t="s">
@@ -3011,13 +3287,13 @@
         <v>36</v>
       </c>
       <c r="R22" s="6"/>
-      <c r="S22" s="6" t="n">
+      <c r="S22" s="6">
         <v>393</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="T22" s="6">
         <v>10</v>
       </c>
-      <c r="U22" s="6" t="n">
+      <c r="U22" s="6">
         <v>40</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -3041,18 +3317,18 @@
       <c r="AB22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC22" s="1" t="n">
+      <c r="AC22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>20190329</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>20191121</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3067,23 +3343,23 @@
       <c r="G23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="9">
         <v>10000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="9">
         <v>50000</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <f aca="false">SequencingForm!$H23*SequencingForm!$J23</f>
+      <c r="K23" s="6">
+        <f>SequencingForm!$H23*SequencingForm!$J23</f>
         <v>500000000</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <v>0.213565692807107</v>
-      </c>
-      <c r="M23" s="6" t="n">
+      <c r="L23" s="7">
+        <v>0.21356569280710699</v>
+      </c>
+      <c r="M23" s="6">
         <v>2341200000</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -3099,13 +3375,13 @@
         <v>36</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="6" t="n">
+      <c r="S23" s="6">
         <v>388</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="T23" s="6">
         <v>10</v>
       </c>
-      <c r="U23" s="6" t="n">
+      <c r="U23" s="6">
         <v>40</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -3129,18 +3405,18 @@
       <c r="AB23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC23" s="1" t="n">
+      <c r="AC23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>20190329</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>20191121</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3155,23 +3431,23 @@
       <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="9">
         <v>10000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="9">
         <v>50000</v>
       </c>
-      <c r="K24" s="6" t="n">
-        <f aca="false">SequencingForm!$H24*SequencingForm!$J24</f>
+      <c r="K24" s="6">
+        <f>SequencingForm!$H24*SequencingForm!$J24</f>
         <v>500000000</v>
       </c>
-      <c r="L24" s="7" t="n">
-        <v>0.213565692807107</v>
-      </c>
-      <c r="M24" s="6" t="n">
+      <c r="L24" s="7">
+        <v>0.21356569280710699</v>
+      </c>
+      <c r="M24" s="6">
         <v>2341200000</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3187,13 +3463,13 @@
         <v>36</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="6" t="n">
+      <c r="S24" s="6">
         <v>401</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="T24" s="6">
         <v>10</v>
       </c>
-      <c r="U24" s="6" t="n">
+      <c r="U24" s="6">
         <v>40</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -3217,18 +3493,18 @@
       <c r="AB24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC24" s="1" t="n">
+      <c r="AC24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>20190404</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>20191121</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3243,23 +3519,23 @@
       <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="9">
         <v>4824</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="9">
         <v>50000</v>
       </c>
-      <c r="K25" s="6" t="n">
-        <f aca="false">SequencingForm!$H25*SequencingForm!$J25</f>
+      <c r="K25" s="6">
+        <f>SequencingForm!$H25*SequencingForm!$J25</f>
         <v>241200000</v>
       </c>
-      <c r="L25" s="7" t="n">
-        <v>0.103024090210149</v>
-      </c>
-      <c r="M25" s="6" t="n">
+      <c r="L25" s="7">
+        <v>0.10302409021014899</v>
+      </c>
+      <c r="M25" s="6">
         <v>2341200000</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -3275,13 +3551,13 @@
         <v>36</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="6" t="n">
+      <c r="S25" s="6">
         <v>435</v>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="T25" s="6">
         <v>10</v>
       </c>
-      <c r="U25" s="6" t="n">
+      <c r="U25" s="6">
         <v>40</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -3305,18 +3581,18 @@
       <c r="AB25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC25" s="1" t="n">
+      <c r="AC25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>20190909</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>20191121</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3329,23 +3605,23 @@
         <v>111</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="9">
         <v>10000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="9">
         <v>10000</v>
       </c>
-      <c r="K26" s="6" t="n">
-        <f aca="false">SequencingForm!$H26*SequencingForm!$J26</f>
+      <c r="K26" s="6">
+        <f>SequencingForm!$H26*SequencingForm!$J26</f>
         <v>100000000</v>
       </c>
-      <c r="L26" s="7" t="n">
-        <v>0.0427131385614215</v>
-      </c>
-      <c r="M26" s="6" t="n">
+      <c r="L26" s="7">
+        <v>4.2713138561421497E-2</v>
+      </c>
+      <c r="M26" s="6">
         <v>2341200000</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -3361,13 +3637,13 @@
         <v>36</v>
       </c>
       <c r="R26" s="6"/>
-      <c r="S26" s="6" t="n">
+      <c r="S26" s="6">
         <v>517</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="T26" s="6">
         <v>10</v>
       </c>
-      <c r="U26" s="6" t="n">
+      <c r="U26" s="6">
         <v>40</v>
       </c>
       <c r="V26" s="1" t="s">
@@ -3391,18 +3667,18 @@
       <c r="AB26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC26" s="1" t="n">
+      <c r="AC26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>20190829</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>20191121</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3415,23 +3691,23 @@
         <v>114</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="9">
         <v>10000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="9">
         <v>50000</v>
       </c>
-      <c r="K27" s="6" t="n">
-        <f aca="false">SequencingForm!$H27*SequencingForm!$J27</f>
+      <c r="K27" s="6">
+        <f>SequencingForm!$H27*SequencingForm!$J27</f>
         <v>500000000</v>
       </c>
-      <c r="L27" s="7" t="n">
-        <v>0.1999992000032</v>
-      </c>
-      <c r="M27" s="6" t="n">
+      <c r="L27" s="7">
+        <v>0.19999920000320001</v>
+      </c>
+      <c r="M27" s="6">
         <v>2500010000</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -3447,13 +3723,13 @@
         <v>36</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6" t="n">
+      <c r="S27" s="6">
         <v>497</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="T27" s="6">
         <v>10</v>
       </c>
-      <c r="U27" s="6" t="n">
+      <c r="U27" s="6">
         <v>40</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -3477,18 +3753,18 @@
       <c r="AB27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC27" s="1" t="n">
+      <c r="AC27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>20190905</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>20191121</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3501,23 +3777,23 @@
         <v>118</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="9">
         <v>10000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="9">
         <v>50000</v>
       </c>
-      <c r="K28" s="6" t="n">
-        <f aca="false">SequencingForm!$H28*SequencingForm!$J28</f>
+      <c r="K28" s="6">
+        <f>SequencingForm!$H28*SequencingForm!$J28</f>
         <v>500000000</v>
       </c>
-      <c r="L28" s="7" t="n">
-        <v>0.1999992000032</v>
-      </c>
-      <c r="M28" s="6" t="n">
+      <c r="L28" s="7">
+        <v>0.19999920000320001</v>
+      </c>
+      <c r="M28" s="6">
         <v>2500010000</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -3533,13 +3809,13 @@
         <v>36</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6" t="n">
+      <c r="S28" s="6">
         <v>504</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="T28" s="6">
         <v>10</v>
       </c>
-      <c r="U28" s="6" t="n">
+      <c r="U28" s="6">
         <v>40</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -3563,18 +3839,18 @@
       <c r="AB28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC28" s="1" t="n">
+      <c r="AC28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>20190909</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>20191121</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3587,23 +3863,23 @@
         <v>121</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="9">
         <v>10000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="9">
         <v>50000</v>
       </c>
-      <c r="K29" s="6" t="n">
-        <f aca="false">SequencingForm!$H29*SequencingForm!$J29</f>
+      <c r="K29" s="6">
+        <f>SequencingForm!$H29*SequencingForm!$J29</f>
         <v>500000000</v>
       </c>
-      <c r="L29" s="7" t="n">
-        <v>0.1999992000032</v>
-      </c>
-      <c r="M29" s="6" t="n">
+      <c r="L29" s="7">
+        <v>0.19999920000320001</v>
+      </c>
+      <c r="M29" s="6">
         <v>2500010000</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -3619,13 +3895,13 @@
         <v>36</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6" t="n">
+      <c r="S29" s="6">
         <v>510</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="T29" s="6">
         <v>10</v>
       </c>
-      <c r="U29" s="6" t="n">
+      <c r="U29" s="6">
         <v>40</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -3649,18 +3925,18 @@
       <c r="AB29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC29" s="1" t="n">
+      <c r="AC29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>20190923</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>20191121</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3673,23 +3949,23 @@
         <v>124</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="9" t="n">
+      <c r="H30" s="9">
         <v>10000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="9">
         <v>50000</v>
       </c>
-      <c r="K30" s="6" t="n">
-        <f aca="false">SequencingForm!$H30*SequencingForm!$J30</f>
+      <c r="K30" s="6">
+        <f>SequencingForm!$H30*SequencingForm!$J30</f>
         <v>500000000</v>
       </c>
-      <c r="L30" s="7" t="n">
-        <v>0.1999992000032</v>
-      </c>
-      <c r="M30" s="6" t="n">
+      <c r="L30" s="7">
+        <v>0.19999920000320001</v>
+      </c>
+      <c r="M30" s="6">
         <v>2500010000</v>
       </c>
       <c r="N30" s="6" t="s">
@@ -3705,13 +3981,13 @@
         <v>36</v>
       </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="6" t="n">
+      <c r="S30" s="6">
         <v>479</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="T30" s="6">
         <v>10</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="6">
         <v>40</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -3735,18 +4011,18 @@
       <c r="AB30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC30" s="1" t="n">
+      <c r="AC30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>20191018</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>20191121</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3759,23 +4035,23 @@
         <v>127</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="9">
         <v>10000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="9">
         <v>50001</v>
       </c>
-      <c r="K31" s="6" t="n">
-        <f aca="false">SequencingForm!$H31*SequencingForm!$J31</f>
+      <c r="K31" s="6">
+        <f>SequencingForm!$H31*SequencingForm!$J31</f>
         <v>500010000</v>
       </c>
-      <c r="L31" s="7" t="n">
-        <v>0.2000031999872</v>
-      </c>
-      <c r="M31" s="6" t="n">
+      <c r="L31" s="7">
+        <v>0.20000319998720001</v>
+      </c>
+      <c r="M31" s="6">
         <v>2500010000</v>
       </c>
       <c r="N31" s="6" t="s">
@@ -3791,13 +4067,13 @@
         <v>36</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="6" t="n">
+      <c r="S31" s="6">
         <v>406</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="T31" s="6">
         <v>10</v>
       </c>
-      <c r="U31" s="6" t="n">
+      <c r="U31" s="6">
         <v>40</v>
       </c>
       <c r="V31" s="1" t="s">
@@ -3821,18 +4097,18 @@
       <c r="AB31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC31" s="1" t="n">
+      <c r="AC31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>20191205</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>20210114</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3847,23 +4123,23 @@
       <c r="G32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="9">
         <v>10000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="9" t="n">
+      <c r="J32" s="9">
         <v>90000000</v>
       </c>
-      <c r="K32" s="6" t="n">
-        <f aca="false">SequencingForm!$H32*SequencingForm!$J32</f>
+      <c r="K32" s="6">
+        <f>SequencingForm!$H32*SequencingForm!$J32</f>
         <v>900000000000</v>
       </c>
-      <c r="L32" s="7" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M32" s="6" t="n">
+      <c r="L32" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M32" s="6">
         <v>2700000000</v>
       </c>
       <c r="N32" s="6" t="s">
@@ -3878,16 +4154,16 @@
       <c r="Q32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="R32" s="6">
         <v>16.3</v>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="S32" s="6">
         <v>313</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="T32" s="6">
         <v>6</v>
       </c>
-      <c r="U32" s="6" t="n">
+      <c r="U32" s="6">
         <v>80</v>
       </c>
       <c r="V32" s="1" t="s">
@@ -3915,14 +4191,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>20200219</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>20210114</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3937,23 +4213,23 @@
       <c r="G33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="9">
         <v>10000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="9" t="n">
+      <c r="J33" s="9">
         <v>90000000</v>
       </c>
-      <c r="K33" s="6" t="n">
-        <f aca="false">SequencingForm!$H33*SequencingForm!$J33</f>
+      <c r="K33" s="6">
+        <f>SequencingForm!$H33*SequencingForm!$J33</f>
         <v>900000000000</v>
       </c>
-      <c r="L33" s="7" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M33" s="6" t="n">
+      <c r="L33" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M33" s="6">
         <v>2700000000</v>
       </c>
       <c r="N33" s="6" t="s">
@@ -3968,16 +4244,16 @@
       <c r="Q33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="6" t="n">
+      <c r="R33" s="6">
         <v>20.3</v>
       </c>
-      <c r="S33" s="6" t="n">
+      <c r="S33" s="6">
         <v>385</v>
       </c>
-      <c r="T33" s="6" t="n">
+      <c r="T33" s="6">
         <v>6</v>
       </c>
-      <c r="U33" s="6" t="n">
+      <c r="U33" s="6">
         <v>80</v>
       </c>
       <c r="V33" s="1" t="s">
@@ -4005,14 +4281,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>20200318</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>20210114</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4027,23 +4303,23 @@
       <c r="G34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H34" s="9">
         <v>10000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="9" t="n">
+      <c r="J34" s="9">
         <v>90000000</v>
       </c>
-      <c r="K34" s="6" t="n">
-        <f aca="false">SequencingForm!$H34*SequencingForm!$J34</f>
+      <c r="K34" s="6">
+        <f>SequencingForm!$H34*SequencingForm!$J34</f>
         <v>900000000000</v>
       </c>
-      <c r="L34" s="7" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M34" s="6" t="n">
+      <c r="L34" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M34" s="6">
         <v>2700000000</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -4058,16 +4334,16 @@
       <c r="Q34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="6">
         <v>26.6</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="S34" s="6">
         <v>359</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="T34" s="6">
         <v>6</v>
       </c>
-      <c r="U34" s="6" t="n">
+      <c r="U34" s="6">
         <v>80</v>
       </c>
       <c r="V34" s="1" t="s">
@@ -4095,14 +4371,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:29" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>20200211</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>20210126</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4117,23 +4393,23 @@
       <c r="G35" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="9">
         <v>10000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J35" s="9" t="n">
-        <v>75000000</v>
-      </c>
-      <c r="K35" s="6" t="n">
-        <f aca="false">SequencingForm!$H35*SequencingForm!$J35</f>
-        <v>750000000000</v>
-      </c>
-      <c r="L35" s="7" t="n">
+      <c r="J35" s="9">
+        <v>75000</v>
+      </c>
+      <c r="K35" s="6">
+        <f>SequencingForm!$H35*SequencingForm!$J35</f>
+        <v>750000000</v>
+      </c>
+      <c r="L35" s="7">
         <v>0.25</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="6">
         <v>3000000000</v>
       </c>
       <c r="N35" s="6" t="s">
@@ -4148,16 +4424,16 @@
       <c r="Q35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S35" s="6" t="n">
+      <c r="R35" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S35" s="6">
         <v>328</v>
       </c>
-      <c r="T35" s="6" t="n">
+      <c r="T35" s="6">
         <v>2.5</v>
       </c>
-      <c r="U35" s="6" t="n">
+      <c r="U35" s="6">
         <v>50</v>
       </c>
       <c r="V35" s="1" t="s">
@@ -4185,14 +4461,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>20200909</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>20210126</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -4207,23 +4483,23 @@
       <c r="G36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="9">
         <v>10000</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="9" t="n">
-        <v>75000000</v>
-      </c>
-      <c r="K36" s="6" t="n">
-        <f aca="false">SequencingForm!$H36*SequencingForm!$J36</f>
-        <v>750000000000</v>
-      </c>
-      <c r="L36" s="7" t="n">
+      <c r="J36" s="9">
+        <v>75000</v>
+      </c>
+      <c r="K36" s="6">
+        <f>SequencingForm!$H36*SequencingForm!$J36</f>
+        <v>750000000</v>
+      </c>
+      <c r="L36" s="7">
         <v>0.25</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="6">
         <v>3000000000</v>
       </c>
       <c r="N36" s="6" t="s">
@@ -4238,16 +4514,16 @@
       <c r="Q36" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R36" s="6" t="n">
+      <c r="R36" s="6">
         <v>30.3</v>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="S36" s="6">
         <v>415</v>
       </c>
-      <c r="T36" s="6" t="n">
+      <c r="T36" s="6">
         <v>2.5</v>
       </c>
-      <c r="U36" s="6" t="n">
+      <c r="U36" s="6">
         <v>50</v>
       </c>
       <c r="V36" s="1" t="s">
@@ -4275,14 +4551,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
         <v>20201119</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>20210126</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4297,23 +4573,23 @@
       <c r="G37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="9">
         <v>10000</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="9">
         <v>75000000</v>
       </c>
-      <c r="K37" s="6" t="n">
-        <f aca="false">SequencingForm!$H37*SequencingForm!$J37</f>
+      <c r="K37" s="6">
+        <f>SequencingForm!$H37*SequencingForm!$J37</f>
         <v>750000000000</v>
       </c>
-      <c r="L37" s="7" t="n">
+      <c r="L37" s="7">
         <v>0.25</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="6">
         <v>3000000000</v>
       </c>
       <c r="N37" s="6" t="s">
@@ -4328,16 +4604,16 @@
       <c r="Q37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="6" t="n">
+      <c r="R37" s="6">
         <v>52</v>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="S37" s="6">
         <v>383</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="T37" s="6">
         <v>2.5</v>
       </c>
-      <c r="U37" s="6" t="n">
+      <c r="U37" s="6">
         <v>50</v>
       </c>
       <c r="V37" s="1" t="s">
@@ -4365,14 +4641,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>20201203</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>20210126</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4387,23 +4663,23 @@
       <c r="G38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="9">
         <v>10000</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J38" s="9">
         <v>75000000</v>
       </c>
-      <c r="K38" s="6" t="n">
-        <f aca="false">SequencingForm!$H38*SequencingForm!$J38</f>
+      <c r="K38" s="6">
+        <f>SequencingForm!$H38*SequencingForm!$J38</f>
         <v>750000000000</v>
       </c>
-      <c r="L38" s="7" t="n">
+      <c r="L38" s="7">
         <v>0.25</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="6">
         <v>3000000000</v>
       </c>
       <c r="N38" s="6" t="s">
@@ -4418,16 +4694,16 @@
       <c r="Q38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R38" s="6" t="n">
+      <c r="R38" s="6">
         <v>7.55</v>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="S38" s="6">
         <v>317</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="T38" s="6">
         <v>2.5</v>
       </c>
-      <c r="U38" s="6" t="n">
+      <c r="U38" s="6">
         <v>50</v>
       </c>
       <c r="V38" s="1" t="s">
@@ -4455,14 +4731,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>20210519</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>20210716</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4475,23 +4751,23 @@
         <v>175</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="9">
         <v>10000</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J39" s="9" t="n">
+      <c r="J39" s="9">
         <v>70000</v>
       </c>
-      <c r="K39" s="6" t="n">
-        <f aca="false">SequencingForm!$H39*SequencingForm!$J39</f>
+      <c r="K39" s="6">
+        <f>SequencingForm!$H39*SequencingForm!$J39</f>
         <v>700000000</v>
       </c>
-      <c r="L39" s="7" t="n">
+      <c r="L39" s="7">
         <v>0.233333333333333</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="6">
         <v>3000000000</v>
       </c>
       <c r="N39" s="6" t="s">
@@ -4506,16 +4782,16 @@
       <c r="Q39" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R39" s="6" t="n">
+      <c r="R39" s="6">
         <v>3</v>
       </c>
-      <c r="S39" s="6" t="n">
+      <c r="S39" s="6">
         <v>480</v>
       </c>
-      <c r="T39" s="6" t="n">
+      <c r="T39" s="6">
         <v>10</v>
       </c>
-      <c r="U39" s="6" t="n">
+      <c r="U39" s="6">
         <v>50</v>
       </c>
       <c r="V39" s="1" t="s">
@@ -4543,14 +4819,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>20210519</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>20210716</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4563,23 +4839,23 @@
         <v>184</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="9" t="n">
+      <c r="H40" s="9">
         <v>10000</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J40" s="9" t="n">
+      <c r="J40" s="9">
         <v>70000</v>
       </c>
-      <c r="K40" s="6" t="n">
-        <f aca="false">SequencingForm!$H40*SequencingForm!$J40</f>
+      <c r="K40" s="6">
+        <f>SequencingForm!$H40*SequencingForm!$J40</f>
         <v>700000000</v>
       </c>
-      <c r="L40" s="7" t="n">
+      <c r="L40" s="7">
         <v>0.233333333333333</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="6">
         <v>3000000000</v>
       </c>
       <c r="N40" s="6" t="s">
@@ -4594,16 +4870,16 @@
       <c r="Q40" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R40" s="6" t="n">
+      <c r="R40" s="6">
         <v>3</v>
       </c>
-      <c r="S40" s="6" t="n">
+      <c r="S40" s="6">
         <v>480</v>
       </c>
-      <c r="T40" s="6" t="n">
+      <c r="T40" s="6">
         <v>10</v>
       </c>
-      <c r="U40" s="6" t="n">
+      <c r="U40" s="6">
         <v>50</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -4631,14 +4907,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>20210520</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>20210716</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4651,23 +4927,23 @@
         <v>188</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="9">
         <v>10000</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J41" s="9">
         <v>70000</v>
       </c>
-      <c r="K41" s="6" t="n">
-        <f aca="false">SequencingForm!$H41*SequencingForm!$J41</f>
+      <c r="K41" s="6">
+        <f>SequencingForm!$H41*SequencingForm!$J41</f>
         <v>700000000</v>
       </c>
-      <c r="L41" s="7" t="n">
+      <c r="L41" s="7">
         <v>0.233333333333333</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="6">
         <v>3000000000</v>
       </c>
       <c r="N41" s="6" t="s">
@@ -4682,16 +4958,16 @@
       <c r="Q41" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="R41" s="6" t="n">
+      <c r="R41" s="6">
         <v>3</v>
       </c>
-      <c r="S41" s="6" t="n">
+      <c r="S41" s="6">
         <v>480</v>
       </c>
-      <c r="T41" s="6" t="n">
+      <c r="T41" s="6">
         <v>10</v>
       </c>
-      <c r="U41" s="6" t="n">
+      <c r="U41" s="6">
         <v>50</v>
       </c>
       <c r="V41" s="1" t="s">
@@ -4719,14 +4995,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="1">
         <v>20210520</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>20210716</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4739,23 +5015,23 @@
         <v>192</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="9">
         <v>10000</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J42" s="9">
         <v>70000</v>
       </c>
-      <c r="K42" s="6" t="n">
-        <f aca="false">SequencingForm!$H42*SequencingForm!$J42</f>
+      <c r="K42" s="6">
+        <f>SequencingForm!$H42*SequencingForm!$J42</f>
         <v>700000000</v>
       </c>
-      <c r="L42" s="7" t="n">
+      <c r="L42" s="7">
         <v>0.233333333333333</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="6">
         <v>3000000000</v>
       </c>
       <c r="N42" s="6" t="s">
@@ -4770,16 +5046,16 @@
       <c r="Q42" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="R42" s="6" t="n">
+      <c r="R42" s="6">
         <v>3</v>
       </c>
-      <c r="S42" s="6" t="n">
+      <c r="S42" s="6">
         <v>480</v>
       </c>
-      <c r="T42" s="6" t="n">
+      <c r="T42" s="6">
         <v>10</v>
       </c>
-      <c r="U42" s="6" t="n">
+      <c r="U42" s="6">
         <v>50</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -4807,14 +5083,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>20210519</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>20210716</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4827,23 +5103,23 @@
         <v>175</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="9">
         <v>10000</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="9">
         <v>5000</v>
       </c>
-      <c r="K43" s="6" t="n">
-        <f aca="false">SequencingForm!$H43*SequencingForm!$J43</f>
+      <c r="K43" s="6">
+        <f>SequencingForm!$H43*SequencingForm!$J43</f>
         <v>50000000</v>
       </c>
-      <c r="L43" s="7" t="n">
-        <v>0.0166666666666667</v>
-      </c>
-      <c r="M43" s="6" t="n">
+      <c r="L43" s="7">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="M43" s="6">
         <v>3000000000</v>
       </c>
       <c r="N43" s="6" t="s">
@@ -4858,16 +5134,16 @@
       <c r="Q43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="R43" s="6">
         <v>3</v>
       </c>
-      <c r="S43" s="6" t="n">
+      <c r="S43" s="6">
         <v>480</v>
       </c>
-      <c r="T43" s="6" t="n">
+      <c r="T43" s="6">
         <v>10</v>
       </c>
-      <c r="U43" s="6" t="n">
+      <c r="U43" s="6">
         <v>50</v>
       </c>
       <c r="V43" s="1" t="s">
@@ -4895,14 +5171,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="1">
         <v>20210519</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>20210716</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4915,23 +5191,23 @@
         <v>184</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="9">
         <v>10000</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J44" s="9">
         <v>5000</v>
       </c>
-      <c r="K44" s="6" t="n">
-        <f aca="false">SequencingForm!$H44*SequencingForm!$J44</f>
+      <c r="K44" s="6">
+        <f>SequencingForm!$H44*SequencingForm!$J44</f>
         <v>50000000</v>
       </c>
-      <c r="L44" s="7" t="n">
-        <v>0.0166666666666667</v>
-      </c>
-      <c r="M44" s="6" t="n">
+      <c r="L44" s="7">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="M44" s="6">
         <v>3000000000</v>
       </c>
       <c r="N44" s="6" t="s">
@@ -4946,16 +5222,16 @@
       <c r="Q44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R44" s="6" t="n">
+      <c r="R44" s="6">
         <v>3</v>
       </c>
-      <c r="S44" s="6" t="n">
+      <c r="S44" s="6">
         <v>480</v>
       </c>
-      <c r="T44" s="6" t="n">
+      <c r="T44" s="6">
         <v>10</v>
       </c>
-      <c r="U44" s="6" t="n">
+      <c r="U44" s="6">
         <v>50</v>
       </c>
       <c r="V44" s="1" t="s">
@@ -4983,14 +5259,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="1">
         <v>20210520</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>20210716</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5003,23 +5279,23 @@
         <v>188</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="9" t="n">
+      <c r="H45" s="9">
         <v>10000</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J45" s="9">
         <v>5000</v>
       </c>
-      <c r="K45" s="6" t="n">
-        <f aca="false">SequencingForm!$H45*SequencingForm!$J45</f>
+      <c r="K45" s="6">
+        <f>SequencingForm!$H45*SequencingForm!$J45</f>
         <v>50000000</v>
       </c>
-      <c r="L45" s="7" t="n">
-        <v>0.0166666666666667</v>
-      </c>
-      <c r="M45" s="6" t="n">
+      <c r="L45" s="7">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="M45" s="6">
         <v>3000000000</v>
       </c>
       <c r="N45" s="6" t="s">
@@ -5034,16 +5310,16 @@
       <c r="Q45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R45" s="6" t="n">
+      <c r="R45" s="6">
         <v>3</v>
       </c>
-      <c r="S45" s="6" t="n">
+      <c r="S45" s="6">
         <v>480</v>
       </c>
-      <c r="T45" s="6" t="n">
+      <c r="T45" s="6">
         <v>10</v>
       </c>
-      <c r="U45" s="6" t="n">
+      <c r="U45" s="6">
         <v>50</v>
       </c>
       <c r="V45" s="1" t="s">
@@ -5071,14 +5347,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="1">
         <v>20210520</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>20210716</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5091,23 +5367,23 @@
         <v>192</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="9">
         <v>10000</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J46" s="9">
         <v>5000</v>
       </c>
-      <c r="K46" s="6" t="n">
-        <f aca="false">SequencingForm!$H46*SequencingForm!$J46</f>
+      <c r="K46" s="6">
+        <f>SequencingForm!$H46*SequencingForm!$J46</f>
         <v>50000000</v>
       </c>
-      <c r="L46" s="7" t="n">
-        <v>0.0166666666666667</v>
-      </c>
-      <c r="M46" s="6" t="n">
+      <c r="L46" s="7">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="M46" s="6">
         <v>3000000000</v>
       </c>
       <c r="N46" s="6" t="s">
@@ -5122,16 +5398,16 @@
       <c r="Q46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R46" s="6" t="n">
+      <c r="R46" s="6">
         <v>3</v>
       </c>
-      <c r="S46" s="6" t="n">
+      <c r="S46" s="6">
         <v>480</v>
       </c>
-      <c r="T46" s="6" t="n">
+      <c r="T46" s="6">
         <v>10</v>
       </c>
-      <c r="U46" s="6" t="n">
+      <c r="U46" s="6">
         <v>50</v>
       </c>
       <c r="V46" s="1" t="s">
@@ -5159,14 +5435,14 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>20191205</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>20210716</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5181,23 +5457,23 @@
       <c r="G47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="9">
         <v>17925</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J47" s="9">
         <v>50000</v>
       </c>
-      <c r="K47" s="6" t="n">
-        <f aca="false">SequencingForm!$H47*SequencingForm!$J47</f>
+      <c r="K47" s="6">
+        <f>SequencingForm!$H47*SequencingForm!$J47</f>
         <v>896250000</v>
       </c>
-      <c r="L47" s="7" t="n">
-        <v>0.299531777940424</v>
-      </c>
-      <c r="M47" s="6" t="n">
+      <c r="L47" s="7">
+        <v>0.29953177794042402</v>
+      </c>
+      <c r="M47" s="6">
         <v>2992170000</v>
       </c>
       <c r="N47" s="6" t="s">
@@ -5212,16 +5488,16 @@
       <c r="Q47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R47" s="6" t="n">
+      <c r="R47" s="6">
         <v>3</v>
       </c>
-      <c r="S47" s="6" t="n">
+      <c r="S47" s="6">
         <v>448</v>
       </c>
-      <c r="T47" s="6" t="n">
+      <c r="T47" s="6">
         <v>10</v>
       </c>
-      <c r="U47" s="6" t="n">
+      <c r="U47" s="6">
         <v>50</v>
       </c>
       <c r="V47" s="1" t="s">
@@ -5249,14 +5525,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="1">
         <v>20201119</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>20210716</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5271,23 +5547,23 @@
       <c r="G48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="9">
         <v>8674</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J48" s="9">
         <v>30000</v>
       </c>
-      <c r="K48" s="6" t="n">
-        <f aca="false">SequencingForm!$H48*SequencingForm!$J48</f>
+      <c r="K48" s="6">
+        <f>SequencingForm!$H48*SequencingForm!$J48</f>
         <v>260220000</v>
       </c>
-      <c r="L48" s="7" t="n">
-        <v>0.0869669838277905</v>
-      </c>
-      <c r="M48" s="6" t="n">
+      <c r="L48" s="7">
+        <v>8.6966983827790501E-2</v>
+      </c>
+      <c r="M48" s="6">
         <v>2992170000</v>
       </c>
       <c r="N48" s="6" t="s">
@@ -5302,16 +5578,16 @@
       <c r="Q48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="6" t="n">
+      <c r="R48" s="6">
         <v>3</v>
       </c>
-      <c r="S48" s="6" t="n">
+      <c r="S48" s="6">
         <v>448</v>
       </c>
-      <c r="T48" s="6" t="n">
+      <c r="T48" s="6">
         <v>10</v>
       </c>
-      <c r="U48" s="6" t="n">
+      <c r="U48" s="6">
         <v>50</v>
       </c>
       <c r="V48" s="1" t="s">
@@ -5339,14 +5615,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>20190829</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>20210716</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5359,23 +5635,23 @@
         <v>212</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="9" t="n">
+      <c r="H49" s="9">
         <v>8714</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="9">
         <v>50000</v>
       </c>
-      <c r="K49" s="6" t="n">
-        <f aca="false">SequencingForm!$H49*SequencingForm!$J49</f>
+      <c r="K49" s="6">
+        <f>SequencingForm!$H49*SequencingForm!$J49</f>
         <v>435700000</v>
       </c>
-      <c r="L49" s="7" t="n">
-        <v>0.145613384266268</v>
-      </c>
-      <c r="M49" s="6" t="n">
+      <c r="L49" s="7">
+        <v>0.14561338426626799</v>
+      </c>
+      <c r="M49" s="6">
         <v>2992170000</v>
       </c>
       <c r="N49" s="6" t="s">
@@ -5390,16 +5666,16 @@
       <c r="Q49" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="6" t="n">
+      <c r="R49" s="6">
         <v>3</v>
       </c>
-      <c r="S49" s="6" t="n">
+      <c r="S49" s="6">
         <v>448</v>
       </c>
-      <c r="T49" s="6" t="n">
+      <c r="T49" s="6">
         <v>10</v>
       </c>
-      <c r="U49" s="6" t="n">
+      <c r="U49" s="6">
         <v>50</v>
       </c>
       <c r="V49" s="1" t="s">
@@ -5427,14 +5703,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>20210408</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>20210716</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -5447,23 +5723,23 @@
         <v>214</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="9" t="n">
+      <c r="H50" s="9">
         <v>10000</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="9">
         <v>70000</v>
       </c>
-      <c r="K50" s="6" t="n">
-        <f aca="false">SequencingForm!$H50*SequencingForm!$J50</f>
+      <c r="K50" s="6">
+        <f>SequencingForm!$H50*SequencingForm!$J50</f>
         <v>700000000</v>
       </c>
-      <c r="L50" s="7" t="n">
-        <v>0.233943926982758</v>
-      </c>
-      <c r="M50" s="6" t="n">
+      <c r="L50" s="7">
+        <v>0.23394392698275801</v>
+      </c>
+      <c r="M50" s="6">
         <v>2992170000</v>
       </c>
       <c r="N50" s="6" t="s">
@@ -5478,16 +5754,16 @@
       <c r="Q50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R50" s="6" t="n">
+      <c r="R50" s="6">
         <v>3</v>
       </c>
-      <c r="S50" s="6" t="n">
+      <c r="S50" s="6">
         <v>448</v>
       </c>
-      <c r="T50" s="6" t="n">
+      <c r="T50" s="6">
         <v>10</v>
       </c>
-      <c r="U50" s="6" t="n">
+      <c r="U50" s="6">
         <v>50</v>
       </c>
       <c r="V50" s="1" t="s">
@@ -5515,14 +5791,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="1">
         <v>20210409</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>20210716</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -5535,23 +5811,23 @@
         <v>216</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="9">
         <v>10000</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="9">
         <v>70000</v>
       </c>
-      <c r="K51" s="6" t="n">
-        <f aca="false">SequencingForm!$H51*SequencingForm!$J51</f>
+      <c r="K51" s="6">
+        <f>SequencingForm!$H51*SequencingForm!$J51</f>
         <v>700000000</v>
       </c>
-      <c r="L51" s="7" t="n">
-        <v>0.233943926982758</v>
-      </c>
-      <c r="M51" s="6" t="n">
+      <c r="L51" s="7">
+        <v>0.23394392698275801</v>
+      </c>
+      <c r="M51" s="6">
         <v>2992170000</v>
       </c>
       <c r="N51" s="6" t="s">
@@ -5566,16 +5842,16 @@
       <c r="Q51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="6" t="n">
+      <c r="R51" s="6">
         <v>3</v>
       </c>
-      <c r="S51" s="6" t="n">
+      <c r="S51" s="6">
         <v>448</v>
       </c>
-      <c r="T51" s="6" t="n">
+      <c r="T51" s="6">
         <v>10</v>
       </c>
-      <c r="U51" s="6" t="n">
+      <c r="U51" s="6">
         <v>50</v>
       </c>
       <c r="V51" s="1" t="s">
@@ -5603,14 +5879,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>20210707</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>20210830</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -5625,23 +5901,23 @@
       <c r="G52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H52" s="9">
         <v>10000</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J52" s="9">
         <v>42800</v>
       </c>
-      <c r="K52" s="6" t="n">
-        <f aca="false">SequencingForm!$H52*SequencingForm!$J52</f>
+      <c r="K52" s="6">
+        <f>SequencingForm!$H52*SequencingForm!$J52</f>
         <v>428000000</v>
       </c>
-      <c r="L52" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M52" s="6" t="n">
+      <c r="L52" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M52" s="6">
         <v>2996000000</v>
       </c>
       <c r="N52" s="6" t="s">
@@ -5656,16 +5932,16 @@
       <c r="Q52" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R52" s="6" t="n">
+      <c r="R52" s="6">
         <v>2.84</v>
       </c>
-      <c r="S52" s="6" t="n">
+      <c r="S52" s="6">
         <v>498</v>
       </c>
-      <c r="T52" s="6" t="n">
+      <c r="T52" s="6">
         <v>8.6</v>
       </c>
-      <c r="U52" s="6" t="n">
+      <c r="U52" s="6">
         <v>50</v>
       </c>
       <c r="V52" s="1" t="s">
@@ -5693,14 +5969,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="1">
         <v>20210707</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>20210830</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -5715,23 +5991,23 @@
       <c r="G53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H53" s="9">
         <v>10000</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="9">
         <v>42800</v>
       </c>
-      <c r="K53" s="6" t="n">
-        <f aca="false">SequencingForm!$H53*SequencingForm!$J53</f>
+      <c r="K53" s="6">
+        <f>SequencingForm!$H53*SequencingForm!$J53</f>
         <v>428000000</v>
       </c>
-      <c r="L53" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M53" s="6" t="n">
+      <c r="L53" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M53" s="6">
         <v>2996000000</v>
       </c>
       <c r="N53" s="6" t="s">
@@ -5746,16 +6022,16 @@
       <c r="Q53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="R53" s="6" t="n">
+      <c r="R53" s="6">
         <v>2.84</v>
       </c>
-      <c r="S53" s="6" t="n">
+      <c r="S53" s="6">
         <v>498</v>
       </c>
-      <c r="T53" s="6" t="n">
+      <c r="T53" s="6">
         <v>8.6</v>
       </c>
-      <c r="U53" s="6" t="n">
+      <c r="U53" s="6">
         <v>50</v>
       </c>
       <c r="V53" s="1" t="s">
@@ -5783,14 +6059,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="1">
         <v>20210713</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>20210830</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -5805,23 +6081,23 @@
       <c r="G54" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H54" s="9" t="n">
+      <c r="H54" s="9">
         <v>10000</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J54" s="9">
         <v>42800</v>
       </c>
-      <c r="K54" s="6" t="n">
-        <f aca="false">SequencingForm!$H54*SequencingForm!$J54</f>
+      <c r="K54" s="6">
+        <f>SequencingForm!$H54*SequencingForm!$J54</f>
         <v>428000000</v>
       </c>
-      <c r="L54" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M54" s="6" t="n">
+      <c r="L54" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M54" s="6">
         <v>2996000000</v>
       </c>
       <c r="N54" s="6" t="s">
@@ -5836,16 +6112,16 @@
       <c r="Q54" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="R54" s="6" t="n">
+      <c r="R54" s="6">
         <v>2.84</v>
       </c>
-      <c r="S54" s="6" t="n">
+      <c r="S54" s="6">
         <v>498</v>
       </c>
-      <c r="T54" s="6" t="n">
+      <c r="T54" s="6">
         <v>8.6</v>
       </c>
-      <c r="U54" s="6" t="n">
+      <c r="U54" s="6">
         <v>50</v>
       </c>
       <c r="V54" s="1" t="s">
@@ -5873,14 +6149,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>20210713</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>20210830</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5895,23 +6171,23 @@
       <c r="G55" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H55" s="9">
         <v>10000</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="9">
         <v>42800</v>
       </c>
-      <c r="K55" s="6" t="n">
-        <f aca="false">SequencingForm!$H55*SequencingForm!$J55</f>
+      <c r="K55" s="6">
+        <f>SequencingForm!$H55*SequencingForm!$J55</f>
         <v>428000000</v>
       </c>
-      <c r="L55" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M55" s="6" t="n">
+      <c r="L55" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M55" s="6">
         <v>2996000000</v>
       </c>
       <c r="N55" s="6" t="s">
@@ -5926,16 +6202,16 @@
       <c r="Q55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="R55" s="6" t="n">
+      <c r="R55" s="6">
         <v>2.84</v>
       </c>
-      <c r="S55" s="6" t="n">
+      <c r="S55" s="6">
         <v>498</v>
       </c>
-      <c r="T55" s="6" t="n">
+      <c r="T55" s="6">
         <v>8.6</v>
       </c>
-      <c r="U55" s="6" t="n">
+      <c r="U55" s="6">
         <v>50</v>
       </c>
       <c r="V55" s="1" t="s">
@@ -5963,14 +6239,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>20210623</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>20210830</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5985,23 +6261,23 @@
       <c r="G56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H56" s="9" t="n">
+      <c r="H56" s="9">
         <v>10000</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="9">
         <v>42800</v>
       </c>
-      <c r="K56" s="6" t="n">
-        <f aca="false">SequencingForm!$H56*SequencingForm!$J56</f>
+      <c r="K56" s="6">
+        <f>SequencingForm!$H56*SequencingForm!$J56</f>
         <v>428000000</v>
       </c>
-      <c r="L56" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M56" s="6" t="n">
+      <c r="L56" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M56" s="6">
         <v>2996000000</v>
       </c>
       <c r="N56" s="6" t="s">
@@ -6016,16 +6292,16 @@
       <c r="Q56" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="R56" s="6" t="n">
+      <c r="R56" s="6">
         <v>2.84</v>
       </c>
-      <c r="S56" s="6" t="n">
+      <c r="S56" s="6">
         <v>498</v>
       </c>
-      <c r="T56" s="6" t="n">
+      <c r="T56" s="6">
         <v>8.6</v>
       </c>
-      <c r="U56" s="6" t="n">
+      <c r="U56" s="6">
         <v>50</v>
       </c>
       <c r="V56" s="1" t="s">
@@ -6053,14 +6329,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="1">
         <v>20210623</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="1">
         <v>20210830</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -6075,23 +6351,23 @@
       <c r="G57" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H57" s="9" t="n">
+      <c r="H57" s="9">
         <v>10000</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J57" s="9">
         <v>42800</v>
       </c>
-      <c r="K57" s="6" t="n">
-        <f aca="false">SequencingForm!$H57*SequencingForm!$J57</f>
+      <c r="K57" s="6">
+        <f>SequencingForm!$H57*SequencingForm!$J57</f>
         <v>428000000</v>
       </c>
-      <c r="L57" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M57" s="6" t="n">
+      <c r="L57" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M57" s="6">
         <v>2996000000</v>
       </c>
       <c r="N57" s="6" t="s">
@@ -6106,16 +6382,16 @@
       <c r="Q57" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R57" s="6" t="n">
+      <c r="R57" s="6">
         <v>2.84</v>
       </c>
-      <c r="S57" s="6" t="n">
+      <c r="S57" s="6">
         <v>498</v>
       </c>
-      <c r="T57" s="6" t="n">
+      <c r="T57" s="6">
         <v>8.6</v>
       </c>
-      <c r="U57" s="6" t="n">
+      <c r="U57" s="6">
         <v>50</v>
       </c>
       <c r="V57" s="1" t="s">
@@ -6143,14 +6419,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>20210723</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="1">
         <v>20210830</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -6165,23 +6441,23 @@
       <c r="G58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H58" s="9" t="n">
+      <c r="H58" s="9">
         <v>10000</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J58" s="9">
         <v>42800</v>
       </c>
-      <c r="K58" s="6" t="n">
-        <f aca="false">SequencingForm!$H58*SequencingForm!$J58</f>
+      <c r="K58" s="6">
+        <f>SequencingForm!$H58*SequencingForm!$J58</f>
         <v>428000000</v>
       </c>
-      <c r="L58" s="7" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="M58" s="6" t="n">
+      <c r="L58" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M58" s="6">
         <v>2996000000</v>
       </c>
       <c r="N58" s="6" t="s">
@@ -6196,16 +6472,16 @@
       <c r="Q58" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R58" s="6" t="n">
+      <c r="R58" s="6">
         <v>2.84</v>
       </c>
-      <c r="S58" s="6" t="n">
+      <c r="S58" s="6">
         <v>498</v>
       </c>
-      <c r="T58" s="6" t="n">
+      <c r="T58" s="6">
         <v>8.6</v>
       </c>
-      <c r="U58" s="6" t="n">
+      <c r="U58" s="6">
         <v>50</v>
       </c>
       <c r="V58" s="1" t="s">
@@ -6233,14 +6509,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>20210408</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="1">
         <v>20211105</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -6253,23 +6529,23 @@
         <v>214</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="9" t="n">
+      <c r="H59" s="9">
         <v>8410</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="9" t="n">
+      <c r="J59" s="9">
         <v>28640</v>
       </c>
-      <c r="K59" s="6" t="n">
-        <f aca="false">SequencingForm!$H59*SequencingForm!$J59</f>
+      <c r="K59" s="6">
+        <f>SequencingForm!$H59*SequencingForm!$J59</f>
         <v>240862400</v>
       </c>
-      <c r="L59" s="7" t="n">
-        <v>0.0783540963167712</v>
-      </c>
-      <c r="M59" s="6" t="n">
+      <c r="L59" s="7">
+        <v>7.8354096316771205E-2</v>
+      </c>
+      <c r="M59" s="6">
         <v>3074024350</v>
       </c>
       <c r="N59" s="6" t="s">
@@ -6284,16 +6560,16 @@
       <c r="Q59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R59" s="6" t="n">
+      <c r="R59" s="6">
         <v>3.26</v>
       </c>
-      <c r="S59" s="6" t="n">
+      <c r="S59" s="6">
         <v>494</v>
       </c>
-      <c r="T59" s="6" t="n">
+      <c r="T59" s="6">
         <v>10</v>
       </c>
-      <c r="U59" s="6" t="n">
+      <c r="U59" s="6">
         <v>25</v>
       </c>
       <c r="V59" s="1" t="s">
@@ -6321,14 +6597,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>20210409</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="1">
         <v>20211105</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -6341,23 +6617,23 @@
         <v>216</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="9" t="n">
+      <c r="H60" s="9">
         <v>8464</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J60" s="9" t="n">
+      <c r="J60" s="9">
         <v>35280</v>
       </c>
-      <c r="K60" s="6" t="n">
-        <f aca="false">SequencingForm!$H60*SequencingForm!$J60</f>
+      <c r="K60" s="6">
+        <f>SequencingForm!$H60*SequencingForm!$J60</f>
         <v>298609920</v>
       </c>
-      <c r="L60" s="7" t="n">
-        <v>0.0971397380115092</v>
-      </c>
-      <c r="M60" s="6" t="n">
+      <c r="L60" s="7">
+        <v>9.71397380115092E-2</v>
+      </c>
+      <c r="M60" s="6">
         <v>3074024350</v>
       </c>
       <c r="N60" s="6" t="s">
@@ -6372,16 +6648,16 @@
       <c r="Q60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R60" s="6" t="n">
+      <c r="R60" s="6">
         <v>3.26</v>
       </c>
-      <c r="S60" s="6" t="n">
+      <c r="S60" s="6">
         <v>494</v>
       </c>
-      <c r="T60" s="6" t="n">
+      <c r="T60" s="6">
         <v>10</v>
       </c>
-      <c r="U60" s="6" t="n">
+      <c r="U60" s="6">
         <v>25</v>
       </c>
       <c r="V60" s="1" t="s">
@@ -6409,14 +6685,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="1">
         <v>20210707</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="1">
         <v>20211105</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -6431,23 +6707,23 @@
       <c r="G61" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H61" s="9" t="n">
+      <c r="H61" s="9">
         <v>6367</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="9" t="n">
+      <c r="J61" s="9">
         <v>43457</v>
       </c>
-      <c r="K61" s="6" t="n">
-        <f aca="false">SequencingForm!$H61*SequencingForm!$J61</f>
+      <c r="K61" s="6">
+        <f>SequencingForm!$H61*SequencingForm!$J61</f>
         <v>276690719</v>
       </c>
-      <c r="L61" s="7" t="n">
-        <v>0.0900092801802302</v>
-      </c>
-      <c r="M61" s="6" t="n">
+      <c r="L61" s="7">
+        <v>9.0009280180230203E-2</v>
+      </c>
+      <c r="M61" s="6">
         <v>3074024350</v>
       </c>
       <c r="N61" s="6" t="s">
@@ -6462,16 +6738,16 @@
       <c r="Q61" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="R61" s="6" t="n">
+      <c r="R61" s="6">
         <v>3.26</v>
       </c>
-      <c r="S61" s="6" t="n">
+      <c r="S61" s="6">
         <v>494</v>
       </c>
-      <c r="T61" s="6" t="n">
+      <c r="T61" s="6">
         <v>10</v>
       </c>
-      <c r="U61" s="6" t="n">
+      <c r="U61" s="6">
         <v>25</v>
       </c>
       <c r="V61" s="1" t="s">
@@ -6499,14 +6775,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="1">
         <v>20210707</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="1">
         <v>20211105</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -6521,23 +6797,23 @@
       <c r="G62" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H62" s="9" t="n">
+      <c r="H62" s="9">
         <v>3870</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J62" s="9" t="n">
+      <c r="J62" s="9">
         <v>8371</v>
       </c>
-      <c r="K62" s="6" t="n">
-        <f aca="false">SequencingForm!$H62*SequencingForm!$J62</f>
+      <c r="K62" s="6">
+        <f>SequencingForm!$H62*SequencingForm!$J62</f>
         <v>32395770</v>
       </c>
-      <c r="L62" s="7" t="n">
-        <v>0.0105385534763249</v>
-      </c>
-      <c r="M62" s="6" t="n">
+      <c r="L62" s="7">
+        <v>1.0538553476324901E-2</v>
+      </c>
+      <c r="M62" s="6">
         <v>3074024350</v>
       </c>
       <c r="N62" s="6" t="s">
@@ -6552,16 +6828,16 @@
       <c r="Q62" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="R62" s="6" t="n">
+      <c r="R62" s="6">
         <v>3.26</v>
       </c>
-      <c r="S62" s="6" t="n">
+      <c r="S62" s="6">
         <v>494</v>
       </c>
-      <c r="T62" s="6" t="n">
+      <c r="T62" s="6">
         <v>10</v>
       </c>
-      <c r="U62" s="6" t="n">
+      <c r="U62" s="6">
         <v>25</v>
       </c>
       <c r="V62" s="1" t="s">
@@ -6589,14 +6865,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="1">
         <v>20210713</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="1">
         <v>20211105</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -6611,23 +6887,23 @@
       <c r="G63" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H63" s="9" t="n">
+      <c r="H63" s="9">
         <v>11600</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J63" s="9" t="n">
+      <c r="J63" s="9">
         <v>58583</v>
       </c>
-      <c r="K63" s="6" t="n">
-        <f aca="false">SequencingForm!$H63*SequencingForm!$J63</f>
+      <c r="K63" s="6">
+        <f>SequencingForm!$H63*SequencingForm!$J63</f>
         <v>679562800</v>
       </c>
-      <c r="L63" s="7" t="n">
+      <c r="L63" s="7">
         <v>0.221066173402302</v>
       </c>
-      <c r="M63" s="6" t="n">
+      <c r="M63" s="6">
         <v>3074024350</v>
       </c>
       <c r="N63" s="6" t="s">
@@ -6642,16 +6918,16 @@
       <c r="Q63" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="R63" s="6" t="n">
+      <c r="R63" s="6">
         <v>3.26</v>
       </c>
-      <c r="S63" s="6" t="n">
+      <c r="S63" s="6">
         <v>494</v>
       </c>
-      <c r="T63" s="6" t="n">
+      <c r="T63" s="6">
         <v>10</v>
       </c>
-      <c r="U63" s="6" t="n">
+      <c r="U63" s="6">
         <v>25</v>
       </c>
       <c r="V63" s="1" t="s">
@@ -6679,14 +6955,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="1">
         <v>20210713</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="1">
         <v>20211105</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -6701,23 +6977,23 @@
       <c r="G64" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H64" s="9" t="n">
+      <c r="H64" s="9">
         <v>9287</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="9" t="n">
+      <c r="J64" s="9">
         <v>65607</v>
       </c>
-      <c r="K64" s="6" t="n">
-        <f aca="false">SequencingForm!$H64*SequencingForm!$J64</f>
+      <c r="K64" s="6">
+        <f>SequencingForm!$H64*SequencingForm!$J64</f>
         <v>609292209</v>
       </c>
-      <c r="L64" s="7" t="n">
+      <c r="L64" s="7">
         <v>0.198206695727703</v>
       </c>
-      <c r="M64" s="6" t="n">
+      <c r="M64" s="6">
         <v>3074024350</v>
       </c>
       <c r="N64" s="6" t="s">
@@ -6732,16 +7008,16 @@
       <c r="Q64" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="R64" s="6" t="n">
+      <c r="R64" s="6">
         <v>3.26</v>
       </c>
-      <c r="S64" s="6" t="n">
+      <c r="S64" s="6">
         <v>494</v>
       </c>
-      <c r="T64" s="6" t="n">
+      <c r="T64" s="6">
         <v>10</v>
       </c>
-      <c r="U64" s="6" t="n">
+      <c r="U64" s="6">
         <v>25</v>
       </c>
       <c r="V64" s="1" t="s">
@@ -6769,14 +7045,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="1">
         <v>20210723</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="1">
         <v>20211105</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -6791,23 +7067,23 @@
       <c r="G65" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="9" t="n">
+      <c r="H65" s="9">
         <v>14332</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="9">
         <v>65351</v>
       </c>
-      <c r="K65" s="6" t="n">
-        <f aca="false">SequencingForm!$H65*SequencingForm!$J65</f>
+      <c r="K65" s="6">
+        <f>SequencingForm!$H65*SequencingForm!$J65</f>
         <v>936610532</v>
       </c>
-      <c r="L65" s="7" t="n">
-        <v>0.304685462885159</v>
-      </c>
-      <c r="M65" s="6" t="n">
+      <c r="L65" s="7">
+        <v>0.30468546288515902</v>
+      </c>
+      <c r="M65" s="6">
         <v>3074024350</v>
       </c>
       <c r="N65" s="6" t="s">
@@ -6822,16 +7098,16 @@
       <c r="Q65" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R65" s="6" t="n">
+      <c r="R65" s="6">
         <v>3.26</v>
       </c>
-      <c r="S65" s="6" t="n">
+      <c r="S65" s="6">
         <v>494</v>
       </c>
-      <c r="T65" s="6" t="n">
+      <c r="T65" s="6">
         <v>10</v>
       </c>
-      <c r="U65" s="6" t="n">
+      <c r="U65" s="6">
         <v>25</v>
       </c>
       <c r="V65" s="1" t="s">
@@ -6859,14 +7135,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="1">
         <v>20210623</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="1">
         <v>20211105</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -6881,23 +7157,23 @@
       <c r="G66" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H66" s="9" t="n">
+      <c r="H66" s="9">
         <v>14491</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="9">
         <v>36812</v>
       </c>
-      <c r="K66" s="6" t="n">
-        <f aca="false">SequencingForm!$H66*SequencingForm!$J66</f>
+      <c r="K66" s="6">
+        <f>SequencingForm!$H66*SequencingForm!$J66</f>
         <v>533442692</v>
       </c>
-      <c r="L66" s="7" t="n">
-        <v>0.172942395424857</v>
-      </c>
-      <c r="M66" s="6" t="n">
+      <c r="L66" s="7">
+        <v>0.17294239542485701</v>
+      </c>
+      <c r="M66" s="6">
         <v>3084510832</v>
       </c>
       <c r="N66" s="6" t="s">
@@ -6912,16 +7188,16 @@
       <c r="Q66" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R66" s="6" t="n">
+      <c r="R66" s="6">
         <v>8.34</v>
       </c>
-      <c r="S66" s="6" t="n">
+      <c r="S66" s="6">
         <v>518</v>
       </c>
-      <c r="T66" s="6" t="n">
+      <c r="T66" s="6">
         <v>24</v>
       </c>
-      <c r="U66" s="6" t="n">
+      <c r="U66" s="6">
         <v>25</v>
       </c>
       <c r="V66" s="1" t="s">
@@ -6949,14 +7225,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="1">
         <v>20210623</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="1">
         <v>20211105</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -6971,23 +7247,23 @@
       <c r="G67" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H67" s="9" t="n">
+      <c r="H67" s="9">
         <v>7769</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J67" s="9">
         <v>58060</v>
       </c>
-      <c r="K67" s="6" t="n">
-        <f aca="false">SequencingForm!$H67*SequencingForm!$J67</f>
+      <c r="K67" s="6">
+        <f>SequencingForm!$H67*SequencingForm!$J67</f>
         <v>451068140</v>
       </c>
-      <c r="L67" s="7" t="n">
-        <v>0.146236523250439</v>
-      </c>
-      <c r="M67" s="6" t="n">
+      <c r="L67" s="7">
+        <v>0.14623652325043901</v>
+      </c>
+      <c r="M67" s="6">
         <v>3084510832</v>
       </c>
       <c r="N67" s="6" t="s">
@@ -7002,16 +7278,16 @@
       <c r="Q67" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="R67" s="6" t="n">
+      <c r="R67" s="6">
         <v>7.11</v>
       </c>
-      <c r="S67" s="6" t="n">
+      <c r="S67" s="6">
         <v>483</v>
       </c>
-      <c r="T67" s="6" t="n">
+      <c r="T67" s="6">
         <v>22</v>
       </c>
-      <c r="U67" s="6" t="n">
+      <c r="U67" s="6">
         <v>25</v>
       </c>
       <c r="V67" s="1" t="s">
@@ -7039,14 +7315,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="1">
         <v>20210826</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="1">
         <v>20211105</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -7059,23 +7335,23 @@
         <v>277</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="9" t="n">
+      <c r="H68" s="9">
         <v>10000</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="9">
         <v>70000</v>
       </c>
-      <c r="K68" s="6" t="n">
-        <f aca="false">SequencingForm!$H68*SequencingForm!$J68</f>
+      <c r="K68" s="6">
+        <f>SequencingForm!$H68*SequencingForm!$J68</f>
         <v>700000000</v>
       </c>
-      <c r="L68" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M68" s="6" t="n">
+      <c r="L68" s="7">
+        <v>0.22694036044156801</v>
+      </c>
+      <c r="M68" s="6">
         <v>3084510832</v>
       </c>
       <c r="N68" s="6" t="s">
@@ -7090,16 +7366,16 @@
       <c r="Q68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R68" s="6" t="n">
+      <c r="R68" s="6">
         <v>3.14</v>
       </c>
-      <c r="S68" s="6" t="n">
+      <c r="S68" s="6">
         <v>487</v>
       </c>
-      <c r="T68" s="6" t="n">
+      <c r="T68" s="6">
         <v>10</v>
       </c>
-      <c r="U68" s="6" t="n">
+      <c r="U68" s="6">
         <v>30</v>
       </c>
       <c r="V68" s="1" t="s">
@@ -7127,14 +7403,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="1">
         <v>20210924</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="1">
         <v>20211105</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -7147,23 +7423,23 @@
         <v>282</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="9" t="n">
+      <c r="H69" s="9">
         <v>10000</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J69" s="9">
         <v>70000</v>
       </c>
-      <c r="K69" s="6" t="n">
-        <f aca="false">SequencingForm!$H69*SequencingForm!$J69</f>
+      <c r="K69" s="6">
+        <f>SequencingForm!$H69*SequencingForm!$J69</f>
         <v>700000000</v>
       </c>
-      <c r="L69" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M69" s="6" t="n">
+      <c r="L69" s="7">
+        <v>0.22694036044156801</v>
+      </c>
+      <c r="M69" s="6">
         <v>3084510832</v>
       </c>
       <c r="N69" s="6" t="s">
@@ -7178,16 +7454,16 @@
       <c r="Q69" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="R69" s="6" t="n">
+      <c r="R69" s="6">
         <v>3.14</v>
       </c>
-      <c r="S69" s="6" t="n">
+      <c r="S69" s="6">
         <v>457</v>
       </c>
-      <c r="T69" s="6" t="n">
+      <c r="T69" s="6">
         <v>10</v>
       </c>
-      <c r="U69" s="6" t="n">
+      <c r="U69" s="6">
         <v>30</v>
       </c>
       <c r="V69" s="1" t="s">
@@ -7215,14 +7491,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="1">
         <v>20211001</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="1">
         <v>20211105</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -7235,23 +7511,23 @@
         <v>285</v>
       </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="9" t="n">
+      <c r="H70" s="9">
         <v>10000</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="9">
         <v>70000</v>
       </c>
-      <c r="K70" s="6" t="n">
-        <f aca="false">SequencingForm!$H70*SequencingForm!$J70</f>
+      <c r="K70" s="6">
+        <f>SequencingForm!$H70*SequencingForm!$J70</f>
         <v>700000000</v>
       </c>
-      <c r="L70" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M70" s="6" t="n">
+      <c r="L70" s="7">
+        <v>0.22694036044156801</v>
+      </c>
+      <c r="M70" s="6">
         <v>3084510832</v>
       </c>
       <c r="N70" s="6" t="s">
@@ -7266,16 +7542,16 @@
       <c r="Q70" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R70" s="6" t="n">
+      <c r="R70" s="6">
         <v>3.14</v>
       </c>
-      <c r="S70" s="6" t="n">
+      <c r="S70" s="6">
         <v>477</v>
       </c>
-      <c r="T70" s="6" t="n">
+      <c r="T70" s="6">
         <v>10</v>
       </c>
-      <c r="U70" s="6" t="n">
+      <c r="U70" s="6">
         <v>30</v>
       </c>
       <c r="V70" s="1" t="s">
@@ -7303,43 +7579,54 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>20211102</v>
+      <c r="B71" s="1">
+        <v>20190909</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J71" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K71" s="6" t="n">
-        <f aca="false">SequencingForm!$H71*SequencingForm!$J71</f>
-        <v>500000000</v>
-      </c>
-      <c r="L71" s="7" t="n">
-        <v>0.162100257458263</v>
-      </c>
-      <c r="M71" s="6" t="n">
-        <v>2500000000</v>
-      </c>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+      <c r="H71" s="9">
+        <v>6512</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J71" s="9">
+        <v>25000</v>
+      </c>
+      <c r="K71" s="6">
+        <f>SequencingForm!$H71*SequencingForm!$J71</f>
+        <v>162800000</v>
+      </c>
+      <c r="L71" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M71" s="6">
+        <v>2954800000</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -7351,48 +7638,61 @@
         <v>264</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>20211110</v>
+      <c r="B72" s="1">
+        <v>20190923</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J72" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K72" s="6" t="n">
-        <f aca="false">SequencingForm!$H72*SequencingForm!$J72</f>
-        <v>500000000</v>
-      </c>
-      <c r="L72" s="7" t="n">
-        <v>0.162100257458263</v>
-      </c>
-      <c r="M72" s="6" t="n">
-        <v>2500000000</v>
-      </c>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="9">
+        <v>12710</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J72" s="9">
+        <v>35000</v>
+      </c>
+      <c r="K72" s="6">
+        <f>SequencingForm!$H72*SequencingForm!$J72</f>
+        <v>444850000</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0.151</v>
+      </c>
+      <c r="M72" s="6">
+        <v>2954800000</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
@@ -7404,48 +7704,61 @@
         <v>264</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>20211111</v>
+      <c r="B73" s="1">
+        <v>20201119</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J73" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K73" s="6" t="n">
-        <f aca="false">SequencingForm!$H73*SequencingForm!$J73</f>
-        <v>500000000</v>
-      </c>
-      <c r="L73" s="7" t="n">
-        <v>0.162100257458263</v>
-      </c>
-      <c r="M73" s="6" t="n">
-        <v>2500000000</v>
-      </c>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="9">
+        <v>9886</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J73" s="9">
+        <v>25000</v>
+      </c>
+      <c r="K73" s="6">
+        <f>SequencingForm!$H73*SequencingForm!$J73</f>
+        <v>247150000</v>
+      </c>
+      <c r="L73" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M73" s="6">
+        <v>2954800000</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
@@ -7457,43 +7770,46 @@
         <v>264</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>20211208</v>
+      <c r="B74" s="1">
+        <v>20201203</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="9" t="n">
+      <c r="H74" s="9">
         <v>10000</v>
       </c>
-      <c r="J74" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K74" s="6" t="n">
-        <f aca="false">SequencingForm!$H74*SequencingForm!$J74</f>
-        <v>500000000</v>
-      </c>
-      <c r="L74" s="7" t="n">
-        <v>0.162100257458263</v>
-      </c>
-      <c r="M74" s="6" t="n">
-        <v>2500000000</v>
+      <c r="I74" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J74" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K74" s="6">
+        <f>SequencingForm!$H74*SequencingForm!$J74</f>
+        <v>700000000</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M74" s="6">
+        <v>2954800000</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
@@ -7510,43 +7826,46 @@
         <v>264</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>20211213</v>
+      <c r="B75" s="1">
+        <v>20211111</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="9" t="n">
+      <c r="H75" s="9">
         <v>10000</v>
       </c>
-      <c r="J75" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K75" s="6" t="n">
-        <f aca="false">SequencingForm!$H75*SequencingForm!$J75</f>
-        <v>500000000</v>
-      </c>
-      <c r="L75" s="7" t="n">
-        <v>0.162100257458263</v>
-      </c>
-      <c r="M75" s="6" t="n">
-        <v>2500000000</v>
+      <c r="I75" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J75" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K75" s="6">
+        <f>SequencingForm!$H75*SequencingForm!$J75</f>
+        <v>700000000</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M75" s="6">
+        <v>2954800000</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -7563,56 +7882,51 @@
         <v>264</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>20190909</v>
+      <c r="B76" s="1">
+        <v>20211210</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="9" t="n">
-        <v>6512</v>
-      </c>
-      <c r="J76" s="9" t="n">
-        <v>25000</v>
-      </c>
-      <c r="K76" s="6" t="n">
-        <f aca="false">SequencingForm!$H76*SequencingForm!$J76</f>
-        <v>162800000</v>
-      </c>
-      <c r="L76" s="7" t="n">
-        <v>0.0527798438284103</v>
-      </c>
-      <c r="M76" s="6" t="n">
+      <c r="H76" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J76" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K76" s="6">
+        <f>SequencingForm!$H76*SequencingForm!$J76</f>
+        <v>700000000</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="M76" s="6">
         <v>2954800000</v>
       </c>
-      <c r="N76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O76" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="P76" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -7624,121 +7938,98 @@
         <v>264</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>20190923</v>
+      <c r="B77" s="1">
+        <v>20211011</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" s="9" t="n">
-        <v>12710</v>
-      </c>
-      <c r="J77" s="9" t="n">
-        <v>35000</v>
-      </c>
-      <c r="K77" s="6" t="n">
-        <f aca="false">SequencingForm!$H77*SequencingForm!$J77</f>
-        <v>444850000</v>
-      </c>
-      <c r="L77" s="7" t="n">
-        <v>0.144220599060616</v>
-      </c>
-      <c r="M77" s="6" t="n">
-        <v>2954800000</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="O77" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J77" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K77" s="6">
+        <f>SequencingForm!$H77*SequencingForm!$J77</f>
+        <v>700000000</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M77" s="6">
+        <v>2800000000</v>
+      </c>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
-      <c r="W77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z77" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>20201119</v>
+      <c r="B78" s="1">
+        <v>20211102</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="9" t="n">
-        <v>9886</v>
-      </c>
-      <c r="J78" s="9" t="n">
-        <v>25000</v>
-      </c>
-      <c r="K78" s="6" t="n">
-        <f aca="false">SequencingForm!$H78*SequencingForm!$J78</f>
-        <v>247150000</v>
-      </c>
-      <c r="L78" s="7" t="n">
-        <v>0.0801261572616192</v>
-      </c>
-      <c r="M78" s="6" t="n">
-        <v>2954800000</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J78" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K78" s="6">
+        <f>SequencingForm!$H78*SequencingForm!$J78</f>
+        <v>700000000</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M78" s="6">
+        <v>2800000000</v>
+      </c>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -7750,43 +8041,46 @@
         <v>264</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>20201203</v>
+      <c r="B79" s="1">
+        <v>20211111</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="9" t="n">
+      <c r="H79" s="9">
         <v>10000</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="I79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J79" s="9">
         <v>70000</v>
       </c>
-      <c r="K79" s="6" t="n">
-        <f aca="false">SequencingForm!$H79*SequencingForm!$J79</f>
+      <c r="K79" s="6">
+        <f>SequencingForm!$H79*SequencingForm!$J79</f>
         <v>700000000</v>
       </c>
-      <c r="L79" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M79" s="6" t="n">
-        <v>2954800000</v>
+      <c r="L79" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M79" s="6">
+        <v>2800000000</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -7803,43 +8097,46 @@
         <v>264</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>20211111</v>
+      <c r="B80" s="1">
+        <v>20211208</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="9" t="n">
+      <c r="H80" s="9">
         <v>10000</v>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="I80" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J80" s="9">
         <v>70000</v>
       </c>
-      <c r="K80" s="6" t="n">
-        <f aca="false">SequencingForm!$H80*SequencingForm!$J80</f>
+      <c r="K80" s="6">
+        <f>SequencingForm!$H79*SequencingForm!$J80</f>
         <v>700000000</v>
       </c>
-      <c r="L80" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M80" s="6" t="n">
-        <v>2954800000</v>
+      <c r="L80" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M80" s="6">
+        <v>2800000000</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -7856,43 +8153,46 @@
         <v>264</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="n">
-        <v>20211210</v>
+      <c r="B81" s="1">
+        <v>20211213</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="9" t="n">
+      <c r="H81" s="9">
         <v>10000</v>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="I81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J81" s="9">
         <v>70000</v>
       </c>
-      <c r="K81" s="6" t="n">
-        <f aca="false">SequencingForm!$H81*SequencingForm!$J81</f>
+      <c r="K81" s="6">
+        <f>SequencingForm!$H80*SequencingForm!$J81</f>
         <v>700000000</v>
       </c>
-      <c r="L81" s="7" t="n">
-        <v>0.226940360441568</v>
-      </c>
-      <c r="M81" s="6" t="n">
-        <v>2954800000</v>
+      <c r="L81" s="7">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="M81" s="6">
+        <v>2700000000</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -7909,57 +8209,101 @@
         <v>264</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="n">
-        <v>20211210</v>
+      <c r="B82" s="1">
+        <v>20211001</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H82" s="9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="9" t="n">
-        <v>70000</v>
-      </c>
-      <c r="K82" s="6" t="n">
-        <f aca="false">SequencingForm!$H82*SequencingForm!$J82</f>
-        <v>700000000</v>
-      </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="7"/>
-      <c r="AH82" s="8"/>
-      <c r="AI82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K83" s="10"/>
-      <c r="M83" s="6"/>
+        <v>284</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="9">
+        <v>15000</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J82" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K82" s="6">
+        <v>300000000</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M82" s="6">
+        <v>2700000000</v>
+      </c>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="W82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20210924</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="9">
+        <v>15000</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J83" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K83" s="6">
+        <v>300000000</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M83" s="6">
+        <v>2700000000</v>
+      </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -7968,16 +8312,125 @@
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20220120</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H84" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J84" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K84" s="6">
+        <f>SequencingForm!$H84*SequencingForm!$J84</f>
+        <v>700000000</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="M84" s="6">
+        <v>2700000000</v>
+      </c>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20220211</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H85" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J85" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K85" s="6">
+        <f>SequencingForm!$H85*SequencingForm!$J85</f>
+        <v>700000000</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="M85" s="6">
+        <v>2700000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>20220216</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H86" s="9">
+        <v>10000</v>
+      </c>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L89" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A7E76A-63AF-416D-8C64-B8BE86C1B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59451B66-53AA-4FC6-858C-7A235314C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SequencingForm" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="338">
   <si>
     <t>SQ_List</t>
   </si>
@@ -907,9 +910,6 @@
     <t>76649_V11</t>
   </si>
   <si>
-    <t>Lane_1</t>
-  </si>
-  <si>
     <t>76647_V11</t>
   </si>
   <si>
@@ -955,20 +955,123 @@
     <t>76661_V5</t>
   </si>
   <si>
-    <t>76662_V5</t>
+    <t>STARR063</t>
+  </si>
+  <si>
+    <t>STARR_071</t>
+  </si>
+  <si>
+    <t>STARR_069</t>
+  </si>
+  <si>
+    <t>STARR_073</t>
+  </si>
+  <si>
+    <t>STARR_072</t>
+  </si>
+  <si>
+    <t>STARR_075</t>
+  </si>
+  <si>
+    <t>STARR_077</t>
+  </si>
+  <si>
+    <t>STARR_077_FZ</t>
+  </si>
+  <si>
+    <t>STARR_077_LS</t>
+  </si>
+  <si>
+    <t>STARR_079</t>
+  </si>
+  <si>
+    <t>SI-TT-D4</t>
+  </si>
+  <si>
+    <t>GCAGTATAGG</t>
+  </si>
+  <si>
+    <t>GTGCACGGAA</t>
+  </si>
+  <si>
+    <t>SI-TT-H3</t>
+  </si>
+  <si>
+    <t>CCCGTTCTCG</t>
+  </si>
+  <si>
+    <t>CCAATCCGTC</t>
+  </si>
+  <si>
+    <t>SI-TT-B5</t>
+  </si>
+  <si>
+    <t>TCGGCTCTAC</t>
+  </si>
+  <si>
+    <t>AGACCATCGG</t>
+  </si>
+  <si>
+    <t>SI-TT-D5</t>
+  </si>
+  <si>
+    <t>TGGTTCGGGT</t>
+  </si>
+  <si>
+    <t>CTCCTGCCAC</t>
+  </si>
+  <si>
+    <t>SI-TT-H2</t>
+  </si>
+  <si>
+    <t>TAGCATAGTG</t>
+  </si>
+  <si>
+    <t>GACAGAGCCG</t>
+  </si>
+  <si>
+    <t>SI-TT-H4</t>
+  </si>
+  <si>
+    <t>AGTTTCCTGG</t>
+  </si>
+  <si>
+    <t>CTGTGTGGCA</t>
+  </si>
+  <si>
+    <t>SI-TT-H6</t>
+  </si>
+  <si>
+    <t>CCTATCCTCG</t>
+  </si>
+  <si>
+    <t>GTTAGTATTC</t>
+  </si>
+  <si>
+    <t>P20220004</t>
+  </si>
+  <si>
+    <t>P20220005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -979,6 +1082,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1003,9 +1112,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,13 +1122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1032,6 +1141,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,11 +1173,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC86" totalsRowShown="0">
-  <autoFilter ref="A1:AC86" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:AC70">
-    <sortCondition ref="A1:A77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC95" totalsRowShown="0">
+  <autoFilter ref="A1:AC95" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AC76">
+    <sortCondition ref="E1:E86"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SQ_List"/>
@@ -1390,13 +1524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ89"/>
+  <dimension ref="A1:AMJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,10 +3721,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>20190909</v>
+        <v>20190829</v>
       </c>
       <c r="C26" s="1">
         <v>20191121</v>
@@ -3599,36 +3733,36 @@
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="9">
         <v>10000</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J26" s="9">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="K26" s="6">
-        <f>SequencingForm!$H26*SequencingForm!$J26</f>
-        <v>100000000</v>
+        <f>SequencingForm!$H27*SequencingForm!$J27</f>
+        <v>435700000</v>
       </c>
       <c r="L26" s="7">
-        <v>4.2713138561421497E-2</v>
+        <v>0.19999920000320001</v>
       </c>
       <c r="M26" s="6">
-        <v>2341200000</v>
+        <v>2500010000</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>36</v>
@@ -3638,7 +3772,7 @@
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="T26" s="6">
         <v>10</v>
@@ -3668,18 +3802,18 @@
         <v>110</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>20190829</v>
       </c>
       <c r="C27" s="1">
-        <v>20191121</v>
+        <v>20210716</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>65</v>
@@ -3688,27 +3822,27 @@
         <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="9">
-        <v>10000</v>
+        <v>8714</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="J27" s="9">
         <v>50000</v>
       </c>
       <c r="K27" s="6">
-        <f>SequencingForm!$H27*SequencingForm!$J27</f>
-        <v>500000000</v>
+        <f>SequencingForm!$H49*SequencingForm!$J49</f>
+        <v>260220000</v>
       </c>
       <c r="L27" s="7">
-        <v>0.19999920000320001</v>
+        <v>0.14561338426626799</v>
       </c>
       <c r="M27" s="6">
-        <v>2500010000</v>
+        <v>2992170000</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>116</v>
@@ -3722,47 +3856,49 @@
       <c r="Q27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="6"/>
+      <c r="R27" s="6">
+        <v>3</v>
+      </c>
       <c r="S27" s="6">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="T27" s="6">
         <v>10</v>
       </c>
       <c r="U27" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC27" s="1">
-        <v>2</v>
+        <v>210</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>20190905</v>
+        <v>20190923</v>
       </c>
       <c r="C28" s="1">
         <v>20191121</v>
@@ -3771,10 +3907,10 @@
         <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="9">
@@ -3787,8 +3923,8 @@
         <v>50000</v>
       </c>
       <c r="K28" s="6">
-        <f>SequencingForm!$H28*SequencingForm!$J28</f>
-        <v>500000000</v>
+        <f>SequencingForm!$H30*SequencingForm!$J30</f>
+        <v>100000000</v>
       </c>
       <c r="L28" s="7">
         <v>0.19999920000320001</v>
@@ -3797,10 +3933,10 @@
         <v>2500010000</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>36</v>
@@ -3810,7 +3946,7 @@
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="T28" s="6">
         <v>10</v>
@@ -3845,48 +3981,45 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1">
         <v>20190909</v>
       </c>
-      <c r="C29" s="1">
-        <v>20191121</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="9">
-        <v>10000</v>
+        <v>6512</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="J29" s="9">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="K29" s="6">
-        <f>SequencingForm!$H29*SequencingForm!$J29</f>
-        <v>500000000</v>
+        <f>SequencingForm!$H71*SequencingForm!$J71</f>
+        <v>298609920</v>
       </c>
       <c r="L29" s="7">
-        <v>0.19999920000320001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M29" s="6">
-        <v>2500010000</v>
+        <v>2954800000</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>36</v>
@@ -3895,46 +4028,27 @@
         <v>36</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6">
-        <v>510</v>
-      </c>
-      <c r="T29" s="6">
-        <v>10</v>
-      </c>
-      <c r="U29" s="6">
-        <v>40</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
       <c r="W29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>2</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
-        <v>20190923</v>
+        <v>20190909</v>
       </c>
       <c r="C30" s="1">
         <v>20191121</v>
@@ -3943,36 +4057,36 @@
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="9">
         <v>10000</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J30" s="9">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="K30" s="6">
-        <f>SequencingForm!$H30*SequencingForm!$J30</f>
+        <f>SequencingForm!$H26*SequencingForm!$J26</f>
         <v>500000000</v>
       </c>
       <c r="L30" s="7">
-        <v>0.19999920000320001</v>
+        <v>4.2713138561421497E-2</v>
       </c>
       <c r="M30" s="6">
-        <v>2500010000</v>
+        <v>2341200000</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>36</v>
@@ -3982,7 +4096,7 @@
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="T30" s="6">
         <v>10</v>
@@ -4012,15 +4126,15 @@
         <v>110</v>
       </c>
       <c r="AC30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>20191018</v>
+        <v>20190909</v>
       </c>
       <c r="C31" s="1">
         <v>20191121</v>
@@ -4029,10 +4143,10 @@
         <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="9">
@@ -4042,23 +4156,23 @@
         <v>115</v>
       </c>
       <c r="J31" s="9">
-        <v>50001</v>
+        <v>50000</v>
       </c>
       <c r="K31" s="6">
-        <f>SequencingForm!$H31*SequencingForm!$J31</f>
-        <v>500010000</v>
+        <f>SequencingForm!$H29*SequencingForm!$J29</f>
+        <v>162800000</v>
       </c>
       <c r="L31" s="7">
-        <v>0.20000319998720001</v>
+        <v>0.19999920000320001</v>
       </c>
       <c r="M31" s="6">
         <v>2500010000</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>36</v>
@@ -4068,7 +4182,7 @@
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="T31" s="6">
         <v>10</v>
@@ -4373,50 +4487,48 @@
     </row>
     <row r="35" spans="1:29" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
-        <v>20200211</v>
+        <v>20190905</v>
       </c>
       <c r="C35" s="1">
-        <v>20210126</v>
+        <v>20191121</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>151</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="9">
         <v>10000</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J35" s="9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="K35" s="6">
-        <f>SequencingForm!$H35*SequencingForm!$J35</f>
-        <v>750000000</v>
+        <f>SequencingForm!$H28*SequencingForm!$J28</f>
+        <v>500000000</v>
       </c>
       <c r="L35" s="7">
-        <v>0.25</v>
+        <v>0.19999920000320001</v>
       </c>
       <c r="M35" s="6">
-        <v>3000000000</v>
+        <v>2500010000</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>36</v>
@@ -4424,41 +4536,39 @@
       <c r="Q35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="6">
-        <v>2.0299999999999998</v>
-      </c>
+      <c r="R35" s="6"/>
       <c r="S35" s="6">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="T35" s="6">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="U35" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -4553,50 +4663,48 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>20201119</v>
+        <v>20191018</v>
       </c>
       <c r="C37" s="1">
-        <v>20210126</v>
+        <v>20191121</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="9">
         <v>10000</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="J37" s="9">
-        <v>75000000</v>
+        <v>50001</v>
       </c>
       <c r="K37" s="6">
-        <f>SequencingForm!$H37*SequencingForm!$J37</f>
-        <v>750000000000</v>
+        <f>SequencingForm!$H31*SequencingForm!$J31</f>
+        <v>500000000</v>
       </c>
       <c r="L37" s="7">
-        <v>0.25</v>
+        <v>0.20000319998720001</v>
       </c>
       <c r="M37" s="6">
-        <v>3000000000</v>
+        <v>2500010000</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>36</v>
@@ -4604,49 +4712,47 @@
       <c r="Q37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="6">
-        <v>52</v>
-      </c>
+      <c r="R37" s="6"/>
       <c r="S37" s="6">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="T37" s="6">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="U37" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
-        <v>20201203</v>
+        <v>20200211</v>
       </c>
       <c r="C38" s="1">
         <v>20210126</v>
@@ -4655,13 +4761,13 @@
         <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H38" s="9">
         <v>10000</v>
@@ -4670,11 +4776,11 @@
         <v>152</v>
       </c>
       <c r="J38" s="9">
-        <v>75000000</v>
+        <v>75000</v>
       </c>
       <c r="K38" s="6">
-        <f>SequencingForm!$H38*SequencingForm!$J38</f>
-        <v>750000000000</v>
+        <f>SequencingForm!$H35*SequencingForm!$J35</f>
+        <v>500000000</v>
       </c>
       <c r="L38" s="7">
         <v>0.25</v>
@@ -4683,10 +4789,10 @@
         <v>3000000000</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>36</v>
@@ -4695,10 +4801,10 @@
         <v>36</v>
       </c>
       <c r="R38" s="6">
-        <v>7.55</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="S38" s="6">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="T38" s="6">
         <v>2.5</v>
@@ -5527,13 +5633,13 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1">
         <v>20201119</v>
       </c>
       <c r="C48" s="1">
-        <v>20210716</v>
+        <v>20210126</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>65</v>
@@ -5548,23 +5654,23 @@
         <v>167</v>
       </c>
       <c r="H48" s="9">
-        <v>8674</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="J48" s="9">
-        <v>30000</v>
+        <v>75000000</v>
       </c>
       <c r="K48" s="6">
-        <f>SequencingForm!$H48*SequencingForm!$J48</f>
-        <v>260220000</v>
+        <f>SequencingForm!$H37*SequencingForm!$J37</f>
+        <v>500010000</v>
       </c>
       <c r="L48" s="7">
-        <v>8.6966983827790501E-2</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="6">
-        <v>2992170000</v>
+        <v>3000000000</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>168</v>
@@ -5579,13 +5685,13 @@
         <v>36</v>
       </c>
       <c r="R48" s="6">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="S48" s="6">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="T48" s="6">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="U48" s="6">
         <v>50</v>
@@ -5603,24 +5709,24 @@
         <v>155</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>20190829</v>
+        <v>20201119</v>
       </c>
       <c r="C49" s="1">
         <v>20210716</v>
@@ -5629,36 +5735,38 @@
         <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="H49" s="9">
-        <v>8714</v>
+        <v>8674</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>208</v>
       </c>
       <c r="J49" s="9">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="K49" s="6">
-        <f>SequencingForm!$H49*SequencingForm!$J49</f>
-        <v>435700000</v>
+        <f>SequencingForm!$H48*SequencingForm!$J48</f>
+        <v>750000000000</v>
       </c>
       <c r="L49" s="7">
-        <v>0.14561338426626799</v>
+        <v>8.6966983827790501E-2</v>
       </c>
       <c r="M49" s="6">
         <v>2992170000</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>36</v>
@@ -5793,48 +5901,47 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
-        <v>20210409</v>
-      </c>
-      <c r="C51" s="1">
-        <v>20210716</v>
+        <v>20190923</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="H51" s="9">
-        <v>10000</v>
+        <v>12710</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="J51" s="9">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="K51" s="6">
-        <f>SequencingForm!$H51*SequencingForm!$J51</f>
-        <v>700000000</v>
+        <f>SequencingForm!$H72*SequencingForm!$J72</f>
+        <v>428000000</v>
       </c>
       <c r="L51" s="7">
-        <v>0.23394392698275801</v>
+        <v>0.151</v>
       </c>
       <c r="M51" s="6">
-        <v>2992170000</v>
+        <v>2954800000</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>36</v>
@@ -5842,42 +5949,21 @@
       <c r="Q51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="6">
-        <v>3</v>
-      </c>
-      <c r="S51" s="6">
-        <v>448</v>
-      </c>
-      <c r="T51" s="6">
-        <v>10</v>
-      </c>
-      <c r="U51" s="6">
-        <v>50</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
       <c r="W51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="Y51" s="1" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC51" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -6151,65 +6237,65 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
-        <v>20210713</v>
+        <v>20201203</v>
       </c>
       <c r="C55" s="1">
-        <v>20210830</v>
+        <v>20210126</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="H55" s="9">
         <v>10000</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="J55" s="9">
-        <v>42800</v>
+        <v>75000000</v>
       </c>
       <c r="K55" s="6">
-        <f>SequencingForm!$H55*SequencingForm!$J55</f>
-        <v>428000000</v>
+        <f>SequencingForm!$H38*SequencingForm!$J38</f>
+        <v>750000000</v>
       </c>
       <c r="L55" s="7">
-        <v>0.14299999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="M55" s="6">
-        <v>2996000000</v>
+        <v>3000000000</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="R55" s="6">
-        <v>2.84</v>
+        <v>7.55</v>
       </c>
       <c r="S55" s="6">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="T55" s="6">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="U55" s="6">
         <v>50</v>
@@ -6227,13 +6313,13 @@
         <v>155</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>140</v>
@@ -6599,48 +6685,47 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1">
-        <v>20210409</v>
-      </c>
-      <c r="C60" s="1">
-        <v>20211105</v>
+        <v>20201119</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G60" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="H60" s="9">
-        <v>8464</v>
+        <v>9886</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="J60" s="9">
-        <v>35280</v>
+        <v>25000</v>
       </c>
       <c r="K60" s="6">
-        <f>SequencingForm!$H60*SequencingForm!$J60</f>
-        <v>298609920</v>
+        <f>SequencingForm!$H73*SequencingForm!$J73</f>
+        <v>609292209</v>
       </c>
       <c r="L60" s="7">
-        <v>9.71397380115092E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M60" s="6">
-        <v>3074024350</v>
+        <v>2954800000</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>36</v>
@@ -6648,42 +6733,21 @@
       <c r="Q60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R60" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="S60" s="6">
-        <v>494</v>
-      </c>
-      <c r="T60" s="6">
-        <v>10</v>
-      </c>
-      <c r="U60" s="6">
-        <v>25</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
       <c r="W60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X60" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="Y60" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -6957,68 +7021,66 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1">
-        <v>20210713</v>
+        <v>20210409</v>
       </c>
       <c r="C64" s="1">
-        <v>20211105</v>
+        <v>20210716</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G64" s="5"/>
       <c r="H64" s="9">
-        <v>9287</v>
+        <v>10000</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="J64" s="9">
-        <v>65607</v>
+        <v>70000</v>
       </c>
       <c r="K64" s="6">
-        <f>SequencingForm!$H64*SequencingForm!$J64</f>
-        <v>609292209</v>
+        <f>SequencingForm!$H51*SequencingForm!$J51</f>
+        <v>444850000</v>
       </c>
       <c r="L64" s="7">
-        <v>0.198206695727703</v>
+        <v>0.23394392698275801</v>
       </c>
       <c r="M64" s="6">
-        <v>3074024350</v>
+        <v>2992170000</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="R64" s="6">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="S64" s="6">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="T64" s="6">
         <v>10</v>
       </c>
       <c r="U64" s="6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>96</v>
@@ -7030,19 +7092,19 @@
         <v>136</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
@@ -7581,45 +7643,48 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1">
-        <v>20190909</v>
+        <v>20210409</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20211105</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="9">
-        <v>6512</v>
+        <v>8464</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="J71" s="9">
-        <v>25000</v>
+        <v>35280</v>
       </c>
       <c r="K71" s="6">
-        <f>SequencingForm!$H71*SequencingForm!$J71</f>
-        <v>162800000</v>
+        <f>SequencingForm!$H60*SequencingForm!$J60</f>
+        <v>247150000</v>
       </c>
       <c r="L71" s="7">
-        <v>5.5E-2</v>
+        <v>9.71397380115092E-2</v>
       </c>
       <c r="M71" s="6">
-        <v>2954800000</v>
+        <v>3074024350</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>36</v>
@@ -7627,206 +7692,294 @@
       <c r="Q71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
+      <c r="R71" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="S71" s="6">
+        <v>494</v>
+      </c>
+      <c r="T71" s="6">
+        <v>10</v>
+      </c>
+      <c r="U71" s="6">
+        <v>25</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W71" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X71" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y71" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1">
-        <v>20190923</v>
+        <v>20210713</v>
+      </c>
+      <c r="C72" s="1">
+        <v>20210830</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="H72" s="9">
-        <v>12710</v>
+        <v>10000</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="J72" s="9">
-        <v>35000</v>
+        <v>42800</v>
       </c>
       <c r="K72" s="6">
-        <f>SequencingForm!$H72*SequencingForm!$J72</f>
-        <v>444850000</v>
+        <f>SequencingForm!$H55*SequencingForm!$J55</f>
+        <v>750000000000</v>
       </c>
       <c r="L72" s="7">
-        <v>0.151</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M72" s="6">
-        <v>2954800000</v>
+        <v>2996000000</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="R72" s="6">
+        <v>2.84</v>
+      </c>
+      <c r="S72" s="6">
+        <v>498</v>
+      </c>
+      <c r="T72" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="U72" s="6">
+        <v>50</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W72" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X72" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y72" s="1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1">
-        <v>20201119</v>
+        <v>20210713</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20211105</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="H73" s="9">
-        <v>9886</v>
+        <v>9287</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="J73" s="9">
-        <v>25000</v>
+        <v>65607</v>
       </c>
       <c r="K73" s="6">
-        <f>SequencingForm!$H73*SequencingForm!$J73</f>
-        <v>247150000</v>
+        <f>SequencingForm!$H64*SequencingForm!$J64</f>
+        <v>700000000</v>
       </c>
       <c r="L73" s="7">
-        <v>8.4000000000000005E-2</v>
+        <v>0.198206695727703</v>
       </c>
       <c r="M73" s="6">
-        <v>2954800000</v>
+        <v>3074024350</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="R73" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="S73" s="6">
+        <v>494</v>
+      </c>
+      <c r="T73" s="6">
+        <v>10</v>
+      </c>
+      <c r="U73" s="6">
+        <v>25</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W73" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X73" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y73" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>20201203</v>
+        <v>20211028</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="9">
+      <c r="H74" s="10">
         <v>10000</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J74" s="9">
+        <v>300</v>
+      </c>
+      <c r="J74" s="11">
         <v>70000</v>
       </c>
       <c r="K74" s="6">
-        <f>SequencingForm!$H74*SequencingForm!$J74</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L74" s="7">
-        <v>0.22700000000000001</v>
+      <c r="L74" s="12">
+        <v>0.22694036044156773</v>
       </c>
       <c r="M74" s="6">
         <v>2954800000</v>
       </c>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
+      <c r="N74" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="R74" s="6">
+        <v>5.24</v>
+      </c>
+      <c r="S74" s="6">
+        <v>454</v>
+      </c>
+      <c r="T74" s="6">
+        <v>20</v>
+      </c>
+      <c r="U74" s="6">
+        <v>20</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W74" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X74" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y74" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z74" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
@@ -7842,47 +7995,66 @@
         <v>65</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="9">
+      <c r="H75" s="10">
         <v>10000</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J75" s="9">
+        <v>300</v>
+      </c>
+      <c r="J75" s="11">
         <v>70000</v>
       </c>
       <c r="K75" s="6">
-        <f>SequencingForm!$H75*SequencingForm!$J75</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L75" s="7">
-        <v>0.22700000000000001</v>
+      <c r="L75" s="12">
+        <v>0.22694036044156773</v>
       </c>
       <c r="M75" s="6">
         <v>2954800000</v>
       </c>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
+      <c r="N75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="R75" s="6">
+        <v>5.24</v>
+      </c>
+      <c r="S75" s="6">
+        <v>454</v>
+      </c>
+      <c r="T75" s="6">
+        <v>20</v>
+      </c>
+      <c r="U75" s="6">
+        <v>20</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W75" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X75" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y75" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z75" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
@@ -7898,47 +8070,66 @@
         <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="9">
+      <c r="H76" s="10">
         <v>10000</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J76" s="9">
+        <v>300</v>
+      </c>
+      <c r="J76" s="11">
         <v>70000</v>
       </c>
       <c r="K76" s="6">
-        <f>SequencingForm!$H76*SequencingForm!$J76</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L76" s="7">
-        <v>0.22700000000000001</v>
+      <c r="L76" s="12">
+        <v>0.22694036044156773</v>
       </c>
       <c r="M76" s="6">
         <v>2954800000</v>
       </c>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
+      <c r="N76" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="R76" s="6">
+        <v>5.24</v>
+      </c>
+      <c r="S76" s="6">
+        <v>454</v>
+      </c>
+      <c r="T76" s="6">
+        <v>20</v>
+      </c>
+      <c r="U76" s="6">
+        <v>20</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W76" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X76" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y76" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z76" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
@@ -7954,39 +8145,67 @@
         <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="9">
+      <c r="H77" s="10">
         <v>10000</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J77" s="9">
+        <v>301</v>
+      </c>
+      <c r="J77" s="11">
         <v>70000</v>
       </c>
       <c r="K77" s="6">
-        <f>SequencingForm!$H77*SequencingForm!$J77</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="12">
         <v>0.25</v>
       </c>
       <c r="M77" s="6">
         <v>2800000000</v>
       </c>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
+      <c r="N77" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="R77" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="S77" s="6">
+        <v>461</v>
+      </c>
+      <c r="T77" s="6">
+        <v>10</v>
+      </c>
+      <c r="U77" s="6">
+        <v>30</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
@@ -8007,41 +8226,60 @@
         <v>289</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="9">
+      <c r="H78" s="10">
         <v>10000</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J78" s="9">
+        <v>301</v>
+      </c>
+      <c r="J78" s="11">
         <v>70000</v>
       </c>
       <c r="K78" s="6">
-        <f>SequencingForm!$H78*SequencingForm!$J78</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="12">
         <v>0.25</v>
       </c>
       <c r="M78" s="6">
         <v>2800000000</v>
       </c>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
+      <c r="N78" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="R78" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="S78" s="6">
+        <v>461</v>
+      </c>
+      <c r="T78" s="6">
+        <v>10</v>
+      </c>
+      <c r="U78" s="6">
+        <v>30</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W78" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X78" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y78" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z78" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
@@ -8057,47 +8295,66 @@
         <v>159</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="9">
+      <c r="H79" s="10">
         <v>10000</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J79" s="9">
+        <v>301</v>
+      </c>
+      <c r="J79" s="11">
         <v>70000</v>
       </c>
       <c r="K79" s="6">
-        <f>SequencingForm!$H79*SequencingForm!$J79</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="12">
         <v>0.25</v>
       </c>
       <c r="M79" s="6">
         <v>2800000000</v>
       </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
+      <c r="N79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="R79" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="S79" s="6">
+        <v>461</v>
+      </c>
+      <c r="T79" s="6">
+        <v>10</v>
+      </c>
+      <c r="U79" s="6">
+        <v>30</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W79" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X79" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y79" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z79" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
@@ -8107,53 +8364,72 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>20211208</v>
+        <v>20211209</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="9">
+      <c r="H80" s="10">
         <v>10000</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J80" s="9">
+        <v>301</v>
+      </c>
+      <c r="J80" s="11">
         <v>70000</v>
       </c>
       <c r="K80" s="6">
-        <f>SequencingForm!$H79*SequencingForm!$J80</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="12">
         <v>0.25</v>
       </c>
       <c r="M80" s="6">
         <v>2800000000</v>
       </c>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
+      <c r="N80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R80" s="6">
+        <v>2.83</v>
+      </c>
+      <c r="S80" s="6">
+        <v>461</v>
+      </c>
+      <c r="T80" s="6">
+        <v>10</v>
+      </c>
+      <c r="U80" s="6">
+        <v>30</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W80" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X80" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y80" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
@@ -8169,47 +8445,66 @@
         <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="9">
+      <c r="H81" s="10">
         <v>10000</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J81" s="9">
+        <v>302</v>
+      </c>
+      <c r="J81" s="11">
         <v>70000</v>
       </c>
       <c r="K81" s="6">
-        <f>SequencingForm!$H80*SequencingForm!$J81</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L81" s="7">
-        <v>0.25925925925925924</v>
+      <c r="L81" s="12">
+        <v>0.25925925925925902</v>
       </c>
       <c r="M81" s="6">
         <v>2700000000</v>
       </c>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
+      <c r="N81" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="R81" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="S81" s="6">
+        <v>459</v>
+      </c>
+      <c r="T81" s="6">
+        <v>10</v>
+      </c>
+      <c r="U81" s="6">
+        <v>30</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W81" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X81" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y81" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
@@ -8231,40 +8526,60 @@
         <v>284</v>
       </c>
       <c r="G82" s="5"/>
-      <c r="H82" s="9">
+      <c r="H82" s="10">
         <v>15000</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J82" s="9">
+        <v>302</v>
+      </c>
+      <c r="J82" s="11">
         <v>20000</v>
       </c>
       <c r="K82" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>300000000</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="11">
         <v>2700000000</v>
       </c>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
+      <c r="N82" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q82" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="R82" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="S82" s="6">
+        <v>459</v>
+      </c>
+      <c r="T82" s="6">
+        <v>10</v>
+      </c>
+      <c r="U82" s="6">
+        <v>30</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W82" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X82" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y82" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="Z82" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
@@ -8286,32 +8601,61 @@
         <v>281</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="9">
+      <c r="H83" s="10">
         <v>15000</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J83" s="9">
+        <v>302</v>
+      </c>
+      <c r="J83" s="11">
         <v>20000</v>
       </c>
       <c r="K83" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>300000000</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="13">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83" s="11">
         <v>2700000000</v>
       </c>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
+      <c r="N83" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="R83" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="S83" s="6">
+        <v>459</v>
+      </c>
+      <c r="T83" s="6">
+        <v>10</v>
+      </c>
+      <c r="U83" s="6">
+        <v>30</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
@@ -8326,38 +8670,66 @@
         <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H84" s="9">
+        <v>303</v>
+      </c>
+      <c r="H84" s="10">
         <v>10000</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J84" s="9">
+        <v>302</v>
+      </c>
+      <c r="J84" s="11">
         <v>70000</v>
       </c>
       <c r="K84" s="6">
-        <f>SequencingForm!$H84*SequencingForm!$J84</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="13">
         <v>0.25925925925925924</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84" s="11">
         <v>2700000000</v>
       </c>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
+      <c r="N84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R84" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="S84" s="6">
+        <v>459</v>
+      </c>
+      <c r="T84" s="6">
+        <v>10</v>
+      </c>
+      <c r="U84" s="6">
+        <v>30</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
@@ -8372,29 +8744,65 @@
         <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H85" s="9">
+        <v>304</v>
+      </c>
+      <c r="H85" s="10">
         <v>10000</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J85" s="9">
+        <v>302</v>
+      </c>
+      <c r="J85" s="11">
         <v>70000</v>
       </c>
       <c r="K85" s="6">
-        <f>SequencingForm!$H85*SequencingForm!$J85</f>
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="13">
         <v>0.25925925925925924</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="11">
         <v>2700000000</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="R85" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="S85" s="1">
+        <v>459</v>
+      </c>
+      <c r="T85" s="1">
+        <v>10</v>
+      </c>
+      <c r="U85" s="1">
+        <v>30</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -8402,10 +8810,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>20220216</v>
+        <v>20220304</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>306</v>
@@ -8413,21 +8821,514 @@
       <c r="F86" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86" s="10">
         <v>10000</v>
       </c>
-      <c r="L86" s="7"/>
+      <c r="I86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J86" s="11">
+        <v>70000</v>
+      </c>
+      <c r="K86" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="L86" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M86" s="11">
+        <v>2800000000</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="T86" s="1">
+        <v>10</v>
+      </c>
+      <c r="U86" s="1">
+        <v>30</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L87" s="7"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>20220311</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H87" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J87" s="11">
+        <v>70000</v>
+      </c>
+      <c r="K87" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="L87" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M87" s="11">
+        <v>2800000000</v>
+      </c>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="T87" s="1">
+        <v>10</v>
+      </c>
+      <c r="U87" s="1">
+        <v>30</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L88" s="7"/>
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>20220318</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H88" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J88" s="11">
+        <v>70000</v>
+      </c>
+      <c r="K88" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="L88" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M88" s="11">
+        <v>2800000000</v>
+      </c>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="T88" s="1">
+        <v>10</v>
+      </c>
+      <c r="U88" s="1">
+        <v>30</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="L89" s="7"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>20220325</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H89" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J89" s="11">
+        <v>70000</v>
+      </c>
+      <c r="K89" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>700000000</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M89" s="11">
+        <v>2800000000</v>
+      </c>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="T89" s="1">
+        <v>10</v>
+      </c>
+      <c r="U89" s="1">
+        <v>30</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>20220407</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H90" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J90" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K90" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="L90" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M90" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="T90" s="1">
+        <v>10</v>
+      </c>
+      <c r="U90" s="1">
+        <v>30</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>20220428</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H91" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J91" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K91" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M91" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="T91" s="1">
+        <v>10</v>
+      </c>
+      <c r="U91" s="1">
+        <v>30</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20220428</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H92" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J92" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K92" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="L92" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M92" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="T92" s="1">
+        <v>10</v>
+      </c>
+      <c r="U92" s="1">
+        <v>30</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>20220428</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H93" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J93" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K93" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M93" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="T93" s="1">
+        <v>10</v>
+      </c>
+      <c r="U93" s="1">
+        <v>30</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>20220505</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H94" s="10">
+        <v>10000</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J94" s="11">
+        <v>60000</v>
+      </c>
+      <c r="K94" s="6">
+        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
+        <v>600000000</v>
+      </c>
+      <c r="L94" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M94" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="T94" s="1">
+        <v>10</v>
+      </c>
+      <c r="U94" s="1">
+        <v>30</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\ExperimentSummaryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59451B66-53AA-4FC6-858C-7A235314C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE23B1-9437-44CC-B0C0-F4CA07284670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SequencingForm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="370">
   <si>
     <t>SQ_List</t>
   </si>
@@ -919,9 +916,6 @@
     <t>76658_V11</t>
   </si>
   <si>
-    <t>Lane_2</t>
-  </si>
-  <si>
     <t>STARR_059</t>
   </si>
   <si>
@@ -1052,12 +1046,114 @@
   </si>
   <si>
     <t>P20220005</t>
+  </si>
+  <si>
+    <t>SI_TT_H12</t>
+  </si>
+  <si>
+    <t>TGATGATTCA</t>
+  </si>
+  <si>
+    <t>SI-TT-A1</t>
+  </si>
+  <si>
+    <t>GTAACATGCG</t>
+  </si>
+  <si>
+    <t>SI-TT-A2</t>
+  </si>
+  <si>
+    <t>GTGGATCAAA</t>
+  </si>
+  <si>
+    <t>SI-TT-A3</t>
+  </si>
+  <si>
+    <t>CACTACGAAA</t>
+  </si>
+  <si>
+    <t>SI-TT-A4</t>
+  </si>
+  <si>
+    <t>CTCTAGCGAG</t>
+  </si>
+  <si>
+    <t>SI-TT-A5</t>
+  </si>
+  <si>
+    <t>GTAGCCCTGT</t>
+  </si>
+  <si>
+    <t>SI-TT-A7</t>
+  </si>
+  <si>
+    <t>TCCCAAGGGT</t>
+  </si>
+  <si>
+    <t>SI-TT-A8</t>
+  </si>
+  <si>
+    <t>CGAAGTATAC</t>
+  </si>
+  <si>
+    <t>CGACTCCTAC</t>
+  </si>
+  <si>
+    <t>AGGTAACACT</t>
+  </si>
+  <si>
+    <t>CAGGGTTGGC</t>
+  </si>
+  <si>
+    <t>ATCAGTCTAA</t>
+  </si>
+  <si>
+    <t>GATGAAGATA</t>
+  </si>
+  <si>
+    <t>ATAGATGCTC</t>
+  </si>
+  <si>
+    <t>AAAGGTAGTA</t>
+  </si>
+  <si>
+    <t>CTCCAAGTTC</t>
+  </si>
+  <si>
+    <t>20220616_L1_cbcl</t>
+  </si>
+  <si>
+    <t>20220616_L1_fastq_dual</t>
+  </si>
+  <si>
+    <t>20220616_L1_fastq_single</t>
+  </si>
+  <si>
+    <t>20220616_L1_Counts</t>
+  </si>
+  <si>
+    <t>20220620_20220002_fastq</t>
+  </si>
+  <si>
+    <t>20220620_20220003_fastq</t>
+  </si>
+  <si>
+    <t>20220620_20220004_fastq</t>
+  </si>
+  <si>
+    <t>20220620_20220005_fastq</t>
+  </si>
+  <si>
+    <t>20220620_Counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1114,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,9 +1230,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,10 +1242,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1259,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1173,24 +1276,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC95" totalsRowShown="0">
   <autoFilter ref="A1:AC95" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AC76">
-    <sortCondition ref="E1:E86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC94">
+    <sortCondition ref="A1:A94"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SQ_List"/>
@@ -1204,7 +1294,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Library_ID"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reads/Cell"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Reads/Sample"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Target %"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Target %" dataDxfId="0"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sum"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="I7_Index ID"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="I7_Index_Sequence"/>
@@ -1527,10 +1617,10 @@
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1636,7 @@
     <col min="9" max="9" width="21.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="14" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1606,7 +1696,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1697,7 +1787,7 @@
         <f>SequencingForm!$H2*SequencingForm!$J2</f>
         <v>40000000</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="12">
         <v>0.22222222222222199</v>
       </c>
       <c r="M2" s="6">
@@ -1737,13 +1827,13 @@
       <c r="Y2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1782,7 +1872,7 @@
         <f>SequencingForm!$H3*SequencingForm!$J3</f>
         <v>40000000</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="12">
         <v>0.22222222222222199</v>
       </c>
       <c r="M3" s="6">
@@ -1822,13 +1912,13 @@
       <c r="Y3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1867,7 +1957,7 @@
         <f>SequencingForm!$H4*SequencingForm!$J4</f>
         <v>40000000</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="12">
         <v>0.22222222222222199</v>
       </c>
       <c r="M4" s="6">
@@ -1907,13 +1997,13 @@
       <c r="Y4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1952,7 +2042,7 @@
         <f>SequencingForm!$H5*SequencingForm!$J5</f>
         <v>40000000</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="12">
         <v>0.22222222222222199</v>
       </c>
       <c r="M5" s="6">
@@ -1992,13 +2082,13 @@
       <c r="Y5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AA5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AC5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2037,7 +2127,7 @@
         <f>SequencingForm!$H6*SequencingForm!$J6</f>
         <v>20000000</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="12">
         <v>0.11111111111111099</v>
       </c>
       <c r="M6" s="6">
@@ -2077,13 +2167,13 @@
       <c r="Y6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2109,20 +2199,20 @@
       <c r="G7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>10000</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>3000</v>
       </c>
       <c r="K7" s="6">
         <f>SequencingForm!$H7*SequencingForm!$J7</f>
         <v>30000000</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M7" s="6">
@@ -2171,7 +2261,7 @@
       <c r="AB7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AC7" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2197,20 +2287,20 @@
       <c r="G8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>10000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>3000</v>
       </c>
       <c r="K8" s="6">
         <f>SequencingForm!$H8*SequencingForm!$J8</f>
         <v>30000000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M8" s="6">
@@ -2259,7 +2349,7 @@
       <c r="AB8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC8" s="8" t="s">
+      <c r="AC8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2285,20 +2375,20 @@
       <c r="G9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>10000</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>3000</v>
       </c>
       <c r="K9" s="6">
         <f>SequencingForm!$H9*SequencingForm!$J9</f>
         <v>30000000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M9" s="6">
@@ -2347,7 +2437,7 @@
       <c r="AB9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AC9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2373,20 +2463,20 @@
       <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>10000</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>3000</v>
       </c>
       <c r="K10" s="6">
         <f>SequencingForm!$H10*SequencingForm!$J10</f>
         <v>30000000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M10" s="6">
@@ -2435,7 +2525,7 @@
       <c r="AB10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC10" s="8" t="s">
+      <c r="AC10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2461,20 +2551,20 @@
       <c r="G11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>10000</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>3000</v>
       </c>
       <c r="K11" s="6">
         <f>SequencingForm!$H11*SequencingForm!$J11</f>
         <v>30000000</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M11" s="6">
@@ -2523,7 +2613,7 @@
       <c r="AB11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AC11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2549,20 +2639,20 @@
       <c r="G12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>10000</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>3000</v>
       </c>
       <c r="K12" s="6">
         <f>SequencingForm!$H12*SequencingForm!$J12</f>
         <v>30000000</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="12">
         <v>0.16666666666666699</v>
       </c>
       <c r="M12" s="6">
@@ -2611,7 +2701,7 @@
       <c r="AB12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AC12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2637,17 +2727,17 @@
       <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>10000</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>50000</v>
       </c>
       <c r="K13" s="6">
         <f>SequencingForm!$H13*SequencingForm!$J13</f>
         <v>500000000</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="12">
         <v>0.222221728396159</v>
       </c>
       <c r="M13" s="6">
@@ -2720,17 +2810,17 @@
       <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>10000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>50000</v>
       </c>
       <c r="K14" s="6">
         <f>SequencingForm!$H14*SequencingForm!$J14</f>
         <v>500000000</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="12">
         <v>0.222221728396159</v>
       </c>
       <c r="M14" s="6">
@@ -2803,17 +2893,17 @@
       <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>10000</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>50000</v>
       </c>
       <c r="K15" s="6">
         <f>SequencingForm!$H15*SequencingForm!$J15</f>
         <v>500000000</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="12">
         <v>0.222221728396159</v>
       </c>
       <c r="M15" s="6">
@@ -2886,17 +2976,17 @@
       <c r="G16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>10000</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>50000</v>
       </c>
       <c r="K16" s="6">
         <f>SequencingForm!$H16*SequencingForm!$J16</f>
         <v>500000000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="12">
         <v>0.222221728396159</v>
       </c>
       <c r="M16" s="6">
@@ -2969,17 +3059,17 @@
       <c r="G17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>5000</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>50001</v>
       </c>
       <c r="K17" s="6">
         <f>SequencingForm!$H17*SequencingForm!$J17</f>
         <v>250005000</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="12">
         <v>0.11111308641536401</v>
       </c>
       <c r="M17" s="6">
@@ -3052,17 +3142,17 @@
       <c r="G18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>10000</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>100000</v>
       </c>
       <c r="K18" s="6">
         <f>SequencingForm!$H18*SequencingForm!$J18</f>
         <v>1000000000</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="12">
         <v>0.37735849056603799</v>
       </c>
       <c r="M18" s="6">
@@ -3135,17 +3225,17 @@
       <c r="G19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>10000</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>50000</v>
       </c>
       <c r="K19" s="6">
         <f>SequencingForm!$H19*SequencingForm!$J19</f>
         <v>500000000</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="12">
         <v>0.18867924528301899</v>
       </c>
       <c r="M19" s="6">
@@ -3218,17 +3308,17 @@
       <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>10000</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>115000</v>
       </c>
       <c r="K20" s="6">
         <f>SequencingForm!$H20*SequencingForm!$J20</f>
         <v>1150000000</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="12">
         <v>0.43396226415094302</v>
       </c>
       <c r="M20" s="6">
@@ -3301,20 +3391,20 @@
       <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>10000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>50000</v>
       </c>
       <c r="K21" s="6">
         <f>SequencingForm!$H21*SequencingForm!$J21</f>
         <v>500000000</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="12">
         <v>0.21356569280710699</v>
       </c>
       <c r="M21" s="6">
@@ -3389,20 +3479,20 @@
       <c r="G22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>10000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>50000</v>
       </c>
       <c r="K22" s="6">
         <f>SequencingForm!$H22*SequencingForm!$J22</f>
         <v>500000000</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="12">
         <v>0.21356569280710699</v>
       </c>
       <c r="M22" s="6">
@@ -3477,20 +3567,20 @@
       <c r="G23" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>10000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>50000</v>
       </c>
       <c r="K23" s="6">
         <f>SequencingForm!$H23*SequencingForm!$J23</f>
         <v>500000000</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="12">
         <v>0.21356569280710699</v>
       </c>
       <c r="M23" s="6">
@@ -3565,20 +3655,20 @@
       <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>10000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>50000</v>
       </c>
       <c r="K24" s="6">
         <f>SequencingForm!$H24*SequencingForm!$J24</f>
         <v>500000000</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="12">
         <v>0.21356569280710699</v>
       </c>
       <c r="M24" s="6">
@@ -3653,20 +3743,20 @@
       <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>4824</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>50000</v>
       </c>
       <c r="K25" s="6">
         <f>SequencingForm!$H25*SequencingForm!$J25</f>
         <v>241200000</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="12">
         <v>0.10302409021014899</v>
       </c>
       <c r="M25" s="6">
@@ -3721,10 +3811,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>20190829</v>
+        <v>20190909</v>
       </c>
       <c r="C26" s="1">
         <v>20191121</v>
@@ -3733,36 +3823,36 @@
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>10000</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="9">
-        <v>50000</v>
+        <v>108</v>
+      </c>
+      <c r="J26" s="8">
+        <v>10000</v>
       </c>
       <c r="K26" s="6">
-        <f>SequencingForm!$H27*SequencingForm!$J27</f>
-        <v>435700000</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0.19999920000320001</v>
+        <f>SequencingForm!$H26*SequencingForm!$J26</f>
+        <v>100000000</v>
+      </c>
+      <c r="L26" s="12">
+        <v>4.2713138561421497E-2</v>
       </c>
       <c r="M26" s="6">
-        <v>2500010000</v>
+        <v>2341200000</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>36</v>
@@ -3772,7 +3862,7 @@
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="T26" s="6">
         <v>10</v>
@@ -3802,18 +3892,18 @@
         <v>110</v>
       </c>
       <c r="AC26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>20190829</v>
       </c>
       <c r="C27" s="1">
-        <v>20210716</v>
+        <v>20191121</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>65</v>
@@ -3822,27 +3912,27 @@
         <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="9">
-        <v>8714</v>
+      <c r="H27" s="8">
+        <v>10000</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="9">
+        <v>115</v>
+      </c>
+      <c r="J27" s="8">
         <v>50000</v>
       </c>
       <c r="K27" s="6">
-        <f>SequencingForm!$H49*SequencingForm!$J49</f>
-        <v>260220000</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0.14561338426626799</v>
+        <f>SequencingForm!$H27*SequencingForm!$J27</f>
+        <v>500000000</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0.19999920000320001</v>
       </c>
       <c r="M27" s="6">
-        <v>2992170000</v>
+        <v>2500010000</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>116</v>
@@ -3856,49 +3946,47 @@
       <c r="Q27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="6">
-        <v>3</v>
-      </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="6">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="T27" s="6">
         <v>10</v>
       </c>
       <c r="U27" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>211</v>
+        <v>110</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>20190923</v>
+        <v>20190905</v>
       </c>
       <c r="C28" s="1">
         <v>20191121</v>
@@ -3907,36 +3995,36 @@
         <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <v>10000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>50000</v>
       </c>
       <c r="K28" s="6">
-        <f>SequencingForm!$H30*SequencingForm!$J30</f>
-        <v>100000000</v>
-      </c>
-      <c r="L28" s="7">
+        <f>SequencingForm!$H28*SequencingForm!$J28</f>
+        <v>500000000</v>
+      </c>
+      <c r="L28" s="12">
         <v>0.19999920000320001</v>
       </c>
       <c r="M28" s="6">
         <v>2500010000</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>36</v>
@@ -3946,7 +4034,7 @@
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="T28" s="6">
         <v>10</v>
@@ -3981,45 +4069,48 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>20190909</v>
       </c>
+      <c r="C29" s="1">
+        <v>20191121</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="9">
-        <v>6512</v>
+      <c r="H29" s="8">
+        <v>10000</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J29" s="9">
-        <v>25000</v>
+        <v>115</v>
+      </c>
+      <c r="J29" s="8">
+        <v>50000</v>
       </c>
       <c r="K29" s="6">
-        <f>SequencingForm!$H71*SequencingForm!$J71</f>
-        <v>298609920</v>
-      </c>
-      <c r="L29" s="7">
-        <v>5.5E-2</v>
+        <f>SequencingForm!$H29*SequencingForm!$J29</f>
+        <v>500000000</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.19999920000320001</v>
       </c>
       <c r="M29" s="6">
-        <v>2954800000</v>
+        <v>2500010000</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>36</v>
@@ -4028,27 +4119,46 @@
         <v>36</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="S29" s="6">
+        <v>510</v>
+      </c>
+      <c r="T29" s="6">
+        <v>10</v>
+      </c>
+      <c r="U29" s="6">
+        <v>40</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W29" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>20190909</v>
+        <v>20190923</v>
       </c>
       <c r="C30" s="1">
         <v>20191121</v>
@@ -4057,36 +4167,36 @@
         <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <v>10000</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="9">
-        <v>10000</v>
+        <v>115</v>
+      </c>
+      <c r="J30" s="8">
+        <v>50000</v>
       </c>
       <c r="K30" s="6">
-        <f>SequencingForm!$H26*SequencingForm!$J26</f>
+        <f>SequencingForm!$H30*SequencingForm!$J30</f>
         <v>500000000</v>
       </c>
-      <c r="L30" s="7">
-        <v>4.2713138561421497E-2</v>
+      <c r="L30" s="12">
+        <v>0.19999920000320001</v>
       </c>
       <c r="M30" s="6">
-        <v>2341200000</v>
+        <v>2500010000</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>36</v>
@@ -4096,7 +4206,7 @@
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="T30" s="6">
         <v>10</v>
@@ -4126,15 +4236,15 @@
         <v>110</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>20190909</v>
+        <v>20191018</v>
       </c>
       <c r="C31" s="1">
         <v>20191121</v>
@@ -4143,36 +4253,36 @@
         <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <v>10000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J31" s="9">
-        <v>50000</v>
+      <c r="J31" s="8">
+        <v>50001</v>
       </c>
       <c r="K31" s="6">
-        <f>SequencingForm!$H29*SequencingForm!$J29</f>
-        <v>162800000</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0.19999920000320001</v>
+        <f>SequencingForm!$H31*SequencingForm!$J31</f>
+        <v>500010000</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.20000319998720001</v>
       </c>
       <c r="M31" s="6">
         <v>2500010000</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>36</v>
@@ -4182,7 +4292,7 @@
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="T31" s="6">
         <v>10</v>
@@ -4237,20 +4347,20 @@
       <c r="G32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>10000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>90000000</v>
       </c>
       <c r="K32" s="6">
         <f>SequencingForm!$H32*SequencingForm!$J32</f>
         <v>900000000000</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="12">
         <v>0.33333333333333298</v>
       </c>
       <c r="M32" s="6">
@@ -4327,20 +4437,20 @@
       <c r="G33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>10000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>90000000</v>
       </c>
       <c r="K33" s="6">
         <f>SequencingForm!$H33*SequencingForm!$J33</f>
         <v>900000000000</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="12">
         <v>0.33333333333333298</v>
       </c>
       <c r="M33" s="6">
@@ -4417,20 +4527,20 @@
       <c r="G34" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="8">
         <v>10000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>90000000</v>
       </c>
       <c r="K34" s="6">
         <f>SequencingForm!$H34*SequencingForm!$J34</f>
         <v>900000000000</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="12">
         <v>0.33333333333333298</v>
       </c>
       <c r="M34" s="6">
@@ -4487,48 +4597,50 @@
     </row>
     <row r="35" spans="1:29" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>20190905</v>
+        <v>20200211</v>
       </c>
       <c r="C35" s="1">
-        <v>20191121</v>
+        <v>20210126</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="9">
+        <v>150</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="8">
         <v>10000</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" s="9">
-        <v>50000</v>
+        <v>152</v>
+      </c>
+      <c r="J35" s="8">
+        <v>75000</v>
       </c>
       <c r="K35" s="6">
-        <f>SequencingForm!$H28*SequencingForm!$J28</f>
-        <v>500000000</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0.19999920000320001</v>
+        <f>SequencingForm!$H35*SequencingForm!$J35</f>
+        <v>750000000</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.25</v>
       </c>
       <c r="M35" s="6">
-        <v>2500010000</v>
+        <v>3000000000</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>36</v>
@@ -4536,39 +4648,41 @@
       <c r="Q35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="6"/>
+      <c r="R35" s="6">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="S35" s="6">
-        <v>504</v>
+        <v>328</v>
       </c>
       <c r="T35" s="6">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="U35" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
@@ -4593,20 +4707,20 @@
       <c r="G36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>10000</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>75000</v>
       </c>
       <c r="K36" s="6">
         <f>SequencingForm!$H36*SequencingForm!$J36</f>
         <v>750000000</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="12">
         <v>0.25</v>
       </c>
       <c r="M36" s="6">
@@ -4663,48 +4777,50 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>20191018</v>
+        <v>20201119</v>
       </c>
       <c r="C37" s="1">
-        <v>20191121</v>
+        <v>20210126</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="9">
+        <v>166</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="8">
         <v>10000</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="9">
-        <v>50001</v>
+        <v>152</v>
+      </c>
+      <c r="J37" s="8">
+        <v>75000000</v>
       </c>
       <c r="K37" s="6">
-        <f>SequencingForm!$H31*SequencingForm!$J31</f>
-        <v>500000000</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0.20000319998720001</v>
+        <f>SequencingForm!$H37*SequencingForm!$J37</f>
+        <v>750000000000</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0.25</v>
       </c>
       <c r="M37" s="6">
-        <v>2500010000</v>
+        <v>3000000000</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>36</v>
@@ -4712,47 +4828,49 @@
       <c r="Q37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R37" s="6"/>
+      <c r="R37" s="6">
+        <v>52</v>
+      </c>
       <c r="S37" s="6">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="T37" s="6">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="U37" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>20200211</v>
+        <v>20201203</v>
       </c>
       <c r="C38" s="1">
         <v>20210126</v>
@@ -4761,38 +4879,38 @@
         <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="9">
+        <v>171</v>
+      </c>
+      <c r="H38" s="8">
         <v>10000</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J38" s="9">
-        <v>75000</v>
+      <c r="J38" s="8">
+        <v>75000000</v>
       </c>
       <c r="K38" s="6">
-        <f>SequencingForm!$H35*SequencingForm!$J35</f>
-        <v>500000000</v>
-      </c>
-      <c r="L38" s="7">
+        <f>SequencingForm!$H38*SequencingForm!$J38</f>
+        <v>750000000000</v>
+      </c>
+      <c r="L38" s="12">
         <v>0.25</v>
       </c>
       <c r="M38" s="6">
         <v>3000000000</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>36</v>
@@ -4801,10 +4919,10 @@
         <v>36</v>
       </c>
       <c r="R38" s="6">
-        <v>2.0299999999999998</v>
+        <v>7.55</v>
       </c>
       <c r="S38" s="6">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="T38" s="6">
         <v>2.5</v>
@@ -4857,20 +4975,20 @@
         <v>175</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>10000</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>70000</v>
       </c>
       <c r="K39" s="6">
         <f>SequencingForm!$H39*SequencingForm!$J39</f>
         <v>700000000</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="12">
         <v>0.233333333333333</v>
       </c>
       <c r="M39" s="6">
@@ -4945,20 +5063,20 @@
         <v>184</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>10000</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>70000</v>
       </c>
       <c r="K40" s="6">
         <f>SequencingForm!$H40*SequencingForm!$J40</f>
         <v>700000000</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="12">
         <v>0.233333333333333</v>
       </c>
       <c r="M40" s="6">
@@ -5033,20 +5151,20 @@
         <v>188</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>10000</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>70000</v>
       </c>
       <c r="K41" s="6">
         <f>SequencingForm!$H41*SequencingForm!$J41</f>
         <v>700000000</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="12">
         <v>0.233333333333333</v>
       </c>
       <c r="M41" s="6">
@@ -5121,20 +5239,20 @@
         <v>192</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>10000</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="8">
         <v>70000</v>
       </c>
       <c r="K42" s="6">
         <f>SequencingForm!$H42*SequencingForm!$J42</f>
         <v>700000000</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="12">
         <v>0.233333333333333</v>
       </c>
       <c r="M42" s="6">
@@ -5209,20 +5327,20 @@
         <v>175</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>10000</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="8">
         <v>5000</v>
       </c>
       <c r="K43" s="6">
         <f>SequencingForm!$H43*SequencingForm!$J43</f>
         <v>50000000</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="12">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="M43" s="6">
@@ -5297,20 +5415,20 @@
         <v>184</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>10000</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="8">
         <v>5000</v>
       </c>
       <c r="K44" s="6">
         <f>SequencingForm!$H44*SequencingForm!$J44</f>
         <v>50000000</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="12">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="M44" s="6">
@@ -5385,20 +5503,20 @@
         <v>188</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>10000</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="8">
         <v>5000</v>
       </c>
       <c r="K45" s="6">
         <f>SequencingForm!$H45*SequencingForm!$J45</f>
         <v>50000000</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="12">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="M45" s="6">
@@ -5473,20 +5591,20 @@
         <v>192</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>10000</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="8">
         <v>5000</v>
       </c>
       <c r="K46" s="6">
         <f>SequencingForm!$H46*SequencingForm!$J46</f>
         <v>50000000</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="12">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="M46" s="6">
@@ -5563,20 +5681,20 @@
       <c r="G47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>17925</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="8">
         <v>50000</v>
       </c>
       <c r="K47" s="6">
         <f>SequencingForm!$H47*SequencingForm!$J47</f>
         <v>896250000</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="12">
         <v>0.29953177794042402</v>
       </c>
       <c r="M47" s="6">
@@ -5633,13 +5751,13 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>20201119</v>
       </c>
       <c r="C48" s="1">
-        <v>20210126</v>
+        <v>20210716</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>65</v>
@@ -5653,24 +5771,24 @@
       <c r="G48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="9">
-        <v>10000</v>
+      <c r="H48" s="8">
+        <v>8674</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="9">
-        <v>75000000</v>
+        <v>208</v>
+      </c>
+      <c r="J48" s="8">
+        <v>30000</v>
       </c>
       <c r="K48" s="6">
-        <f>SequencingForm!$H37*SequencingForm!$J37</f>
-        <v>500010000</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0.25</v>
+        <f>SequencingForm!$H48*SequencingForm!$J48</f>
+        <v>260220000</v>
+      </c>
+      <c r="L48" s="12">
+        <v>8.6966983827790501E-2</v>
       </c>
       <c r="M48" s="6">
-        <v>3000000000</v>
+        <v>2992170000</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>168</v>
@@ -5685,13 +5803,13 @@
         <v>36</v>
       </c>
       <c r="R48" s="6">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="S48" s="6">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="T48" s="6">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="U48" s="6">
         <v>50</v>
@@ -5709,24 +5827,24 @@
         <v>155</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>20201119</v>
+        <v>20190829</v>
       </c>
       <c r="C49" s="1">
         <v>20210716</v>
@@ -5735,38 +5853,36 @@
         <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="9">
-        <v>8674</v>
+        <v>212</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="8">
+        <v>8714</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J49" s="9">
-        <v>30000</v>
+      <c r="J49" s="8">
+        <v>50000</v>
       </c>
       <c r="K49" s="6">
-        <f>SequencingForm!$H48*SequencingForm!$J48</f>
-        <v>750000000000</v>
-      </c>
-      <c r="L49" s="7">
-        <v>8.6966983827790501E-2</v>
+        <f>SequencingForm!$H49*SequencingForm!$J49</f>
+        <v>435700000</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0.14561338426626799</v>
       </c>
       <c r="M49" s="6">
         <v>2992170000</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>36</v>
@@ -5831,20 +5947,20 @@
         <v>214</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>10000</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="8">
         <v>70000</v>
       </c>
       <c r="K50" s="6">
         <f>SequencingForm!$H50*SequencingForm!$J50</f>
         <v>700000000</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="12">
         <v>0.23394392698275801</v>
       </c>
       <c r="M50" s="6">
@@ -5901,47 +6017,48 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>20190923</v>
+        <v>20210409</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20210716</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="9">
-        <v>12710</v>
+        <v>216</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="8">
+        <v>10000</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J51" s="9">
-        <v>35000</v>
+        <v>208</v>
+      </c>
+      <c r="J51" s="8">
+        <v>70000</v>
       </c>
       <c r="K51" s="6">
-        <f>SequencingForm!$H72*SequencingForm!$J72</f>
-        <v>428000000</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0.151</v>
+        <f>SequencingForm!$H51*SequencingForm!$J51</f>
+        <v>700000000</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0.23394392698275801</v>
       </c>
       <c r="M51" s="6">
-        <v>2954800000</v>
+        <v>2992170000</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>36</v>
@@ -5949,21 +6066,42 @@
       <c r="Q51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+      <c r="R51" s="6">
+        <v>3</v>
+      </c>
+      <c r="S51" s="6">
+        <v>448</v>
+      </c>
+      <c r="T51" s="6">
+        <v>10</v>
+      </c>
+      <c r="U51" s="6">
+        <v>50</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W51" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X51" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y51" s="1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -5987,20 +6125,20 @@
       <c r="G52" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="8">
         <v>10000</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="8">
         <v>42800</v>
       </c>
       <c r="K52" s="6">
         <f>SequencingForm!$H52*SequencingForm!$J52</f>
         <v>428000000</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M52" s="6">
@@ -6077,20 +6215,20 @@
       <c r="G53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>10000</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="8">
         <v>42800</v>
       </c>
       <c r="K53" s="6">
         <f>SequencingForm!$H53*SequencingForm!$J53</f>
         <v>428000000</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M53" s="6">
@@ -6167,20 +6305,20 @@
       <c r="G54" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>10000</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="8">
         <v>42800</v>
       </c>
       <c r="K54" s="6">
         <f>SequencingForm!$H54*SequencingForm!$J54</f>
         <v>428000000</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M54" s="6">
@@ -6237,65 +6375,65 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>20201203</v>
+        <v>20210713</v>
       </c>
       <c r="C55" s="1">
-        <v>20210126</v>
+        <v>20210830</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="9">
+        <v>241</v>
+      </c>
+      <c r="H55" s="8">
         <v>10000</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J55" s="9">
-        <v>75000000</v>
+        <v>220</v>
+      </c>
+      <c r="J55" s="8">
+        <v>42800</v>
       </c>
       <c r="K55" s="6">
-        <f>SequencingForm!$H38*SequencingForm!$J38</f>
-        <v>750000000</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0.25</v>
+        <f>SequencingForm!$H55*SequencingForm!$J55</f>
+        <v>428000000</v>
+      </c>
+      <c r="L55" s="12">
+        <v>0.14299999999999999</v>
       </c>
       <c r="M55" s="6">
-        <v>3000000000</v>
+        <v>2996000000</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="R55" s="6">
-        <v>7.55</v>
+        <v>2.84</v>
       </c>
       <c r="S55" s="6">
-        <v>317</v>
+        <v>498</v>
       </c>
       <c r="T55" s="6">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="U55" s="6">
         <v>50</v>
@@ -6313,13 +6451,13 @@
         <v>155</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>140</v>
@@ -6347,20 +6485,20 @@
       <c r="G56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>10000</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="8">
         <v>42800</v>
       </c>
       <c r="K56" s="6">
         <f>SequencingForm!$H56*SequencingForm!$J56</f>
         <v>428000000</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M56" s="6">
@@ -6437,20 +6575,20 @@
       <c r="G57" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>10000</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="8">
         <v>42800</v>
       </c>
       <c r="K57" s="6">
         <f>SequencingForm!$H57*SequencingForm!$J57</f>
         <v>428000000</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M57" s="6">
@@ -6527,20 +6665,20 @@
       <c r="G58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>10000</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="8">
         <v>42800</v>
       </c>
       <c r="K58" s="6">
         <f>SequencingForm!$H58*SequencingForm!$J58</f>
         <v>428000000</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="12">
         <v>0.14299999999999999</v>
       </c>
       <c r="M58" s="6">
@@ -6615,20 +6753,20 @@
         <v>214</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="9">
+      <c r="H59" s="8">
         <v>8410</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="8">
         <v>28640</v>
       </c>
       <c r="K59" s="6">
         <f>SequencingForm!$H59*SequencingForm!$J59</f>
         <v>240862400</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="12">
         <v>7.8354096316771205E-2</v>
       </c>
       <c r="M59" s="6">
@@ -6685,47 +6823,48 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>20201119</v>
+        <v>20210409</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20211105</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H60" s="9">
-        <v>9886</v>
+        <v>216</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="8">
+        <v>8464</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J60" s="9">
-        <v>25000</v>
+        <v>263</v>
+      </c>
+      <c r="J60" s="8">
+        <v>35280</v>
       </c>
       <c r="K60" s="6">
-        <f>SequencingForm!$H73*SequencingForm!$J73</f>
-        <v>609292209</v>
-      </c>
-      <c r="L60" s="7">
-        <v>8.4000000000000005E-2</v>
+        <f>SequencingForm!$H60*SequencingForm!$J60</f>
+        <v>298609920</v>
+      </c>
+      <c r="L60" s="12">
+        <v>9.71397380115092E-2</v>
       </c>
       <c r="M60" s="6">
-        <v>2954800000</v>
+        <v>3074024350</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>36</v>
@@ -6733,21 +6872,42 @@
       <c r="Q60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
+      <c r="R60" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="S60" s="6">
+        <v>494</v>
+      </c>
+      <c r="T60" s="6">
+        <v>10</v>
+      </c>
+      <c r="U60" s="6">
+        <v>25</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="W60" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="X60" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y60" s="1" t="s">
         <v>264</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -6771,20 +6931,20 @@
       <c r="G61" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="8">
         <v>6367</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="8">
         <v>43457</v>
       </c>
       <c r="K61" s="6">
         <f>SequencingForm!$H61*SequencingForm!$J61</f>
         <v>276690719</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="12">
         <v>9.0009280180230203E-2</v>
       </c>
       <c r="M61" s="6">
@@ -6861,20 +7021,20 @@
       <c r="G62" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="8">
         <v>3870</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="8">
         <v>8371</v>
       </c>
       <c r="K62" s="6">
         <f>SequencingForm!$H62*SequencingForm!$J62</f>
         <v>32395770</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="12">
         <v>1.0538553476324901E-2</v>
       </c>
       <c r="M62" s="6">
@@ -6951,20 +7111,20 @@
       <c r="G63" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="8">
         <v>11600</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="8">
         <v>58583</v>
       </c>
       <c r="K63" s="6">
         <f>SequencingForm!$H63*SequencingForm!$J63</f>
         <v>679562800</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="12">
         <v>0.221066173402302</v>
       </c>
       <c r="M63" s="6">
@@ -7021,66 +7181,68 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>20210409</v>
+        <v>20210713</v>
       </c>
       <c r="C64" s="1">
-        <v>20210716</v>
+        <v>20211105</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="9">
-        <v>10000</v>
+        <v>240</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H64" s="8">
+        <v>9287</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J64" s="9">
-        <v>70000</v>
+        <v>263</v>
+      </c>
+      <c r="J64" s="8">
+        <v>65607</v>
       </c>
       <c r="K64" s="6">
-        <f>SequencingForm!$H51*SequencingForm!$J51</f>
-        <v>444850000</v>
-      </c>
-      <c r="L64" s="7">
-        <v>0.23394392698275801</v>
+        <f>SequencingForm!$H64*SequencingForm!$J64</f>
+        <v>609292209</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0.198206695727703</v>
       </c>
       <c r="M64" s="6">
-        <v>2992170000</v>
+        <v>3074024350</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="R64" s="6">
-        <v>3</v>
+        <v>3.26</v>
       </c>
       <c r="S64" s="6">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="T64" s="6">
         <v>10</v>
       </c>
       <c r="U64" s="6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>96</v>
@@ -7092,19 +7254,19 @@
         <v>136</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
@@ -7129,20 +7291,20 @@
       <c r="G65" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="8">
         <v>14332</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="8">
         <v>65351</v>
       </c>
       <c r="K65" s="6">
         <f>SequencingForm!$H65*SequencingForm!$J65</f>
         <v>936610532</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="12">
         <v>0.30468546288515902</v>
       </c>
       <c r="M65" s="6">
@@ -7219,20 +7381,20 @@
       <c r="G66" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="8">
         <v>14491</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="8">
         <v>36812</v>
       </c>
       <c r="K66" s="6">
         <f>SequencingForm!$H66*SequencingForm!$J66</f>
         <v>533442692</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="12">
         <v>0.17294239542485701</v>
       </c>
       <c r="M66" s="6">
@@ -7309,20 +7471,20 @@
       <c r="G67" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>7769</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="8">
         <v>58060</v>
       </c>
       <c r="K67" s="6">
         <f>SequencingForm!$H67*SequencingForm!$J67</f>
         <v>451068140</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="12">
         <v>0.14623652325043901</v>
       </c>
       <c r="M67" s="6">
@@ -7397,20 +7559,20 @@
         <v>277</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="9">
+      <c r="H68" s="8">
         <v>10000</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="8">
         <v>70000</v>
       </c>
       <c r="K68" s="6">
         <f>SequencingForm!$H68*SequencingForm!$J68</f>
         <v>700000000</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="12">
         <v>0.22694036044156801</v>
       </c>
       <c r="M68" s="6">
@@ -7485,20 +7647,20 @@
         <v>282</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>10000</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="8">
         <v>70000</v>
       </c>
       <c r="K69" s="6">
         <f>SequencingForm!$H69*SequencingForm!$J69</f>
         <v>700000000</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="12">
         <v>0.22694036044156801</v>
       </c>
       <c r="M69" s="6">
@@ -7573,20 +7735,20 @@
         <v>285</v>
       </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="9">
+      <c r="H70" s="8">
         <v>10000</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="8">
         <v>70000</v>
       </c>
       <c r="K70" s="6">
         <f>SequencingForm!$H70*SequencingForm!$J70</f>
         <v>700000000</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="12">
         <v>0.22694036044156801</v>
       </c>
       <c r="M70" s="6">
@@ -7643,48 +7805,48 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>20210409</v>
+        <v>20190909</v>
       </c>
       <c r="C71" s="1">
-        <v>20211105</v>
+        <v>20220616</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="9">
-        <v>8464</v>
+      <c r="H71" s="8">
+        <v>6512</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J71" s="9">
-        <v>35280</v>
+        <v>299</v>
+      </c>
+      <c r="J71" s="8">
+        <v>25000</v>
       </c>
       <c r="K71" s="6">
-        <f>SequencingForm!$H60*SequencingForm!$J60</f>
-        <v>247150000</v>
-      </c>
-      <c r="L71" s="7">
-        <v>9.71397380115092E-2</v>
+        <f>SequencingForm!$H71*SequencingForm!$J71</f>
+        <v>162800000</v>
+      </c>
+      <c r="L71" s="12">
+        <v>5.5E-2</v>
       </c>
       <c r="M71" s="6">
-        <v>3074024350</v>
+        <v>2954800000</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>36</v>
@@ -7692,17 +7854,13 @@
       <c r="Q71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R71" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="S71" s="6">
-        <v>494</v>
-      </c>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
       <c r="T71" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U71" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V71" s="1" t="s">
         <v>96</v>
@@ -7717,82 +7875,78 @@
         <v>264</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>20210713</v>
+        <v>20190923</v>
       </c>
       <c r="C72" s="1">
-        <v>20210830</v>
+        <v>20220616</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H72" s="9">
-        <v>10000</v>
+        <v>167</v>
+      </c>
+      <c r="H72" s="8">
+        <v>12710</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J72" s="9">
-        <v>42800</v>
+        <v>299</v>
+      </c>
+      <c r="J72" s="8">
+        <v>35000</v>
       </c>
       <c r="K72" s="6">
-        <f>SequencingForm!$H55*SequencingForm!$J55</f>
-        <v>750000000000</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0.14299999999999999</v>
+        <f>SequencingForm!$H72*SequencingForm!$J72</f>
+        <v>444850000</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0.151</v>
       </c>
       <c r="M72" s="6">
-        <v>2996000000</v>
+        <v>2954800000</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="R72" s="6">
-        <v>2.84</v>
-      </c>
-      <c r="S72" s="6">
-        <v>498</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
       <c r="T72" s="6">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="U72" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V72" s="1" t="s">
         <v>96</v>
@@ -7804,85 +7958,81 @@
         <v>136</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>226</v>
+        <v>364</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>20210713</v>
+        <v>20201119</v>
       </c>
       <c r="C73" s="1">
-        <v>20211105</v>
+        <v>20220616</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H73" s="9">
-        <v>9287</v>
+        <v>171</v>
+      </c>
+      <c r="H73" s="8">
+        <v>9886</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J73" s="9">
-        <v>65607</v>
+        <v>299</v>
+      </c>
+      <c r="J73" s="8">
+        <v>25000</v>
       </c>
       <c r="K73" s="6">
-        <f>SequencingForm!$H64*SequencingForm!$J64</f>
-        <v>700000000</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0.198206695727703</v>
+        <f>SequencingForm!$H73*SequencingForm!$J73</f>
+        <v>247150000</v>
+      </c>
+      <c r="L73" s="12">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M73" s="6">
-        <v>3074024350</v>
+        <v>2954800000</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="R73" s="6">
-        <v>3.26</v>
-      </c>
-      <c r="S73" s="6">
-        <v>494</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
       <c r="T73" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U73" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>96</v>
@@ -7897,16 +8047,16 @@
         <v>264</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
@@ -7916,46 +8066,48 @@
       <c r="B74" s="1">
         <v>20211028</v>
       </c>
+      <c r="C74" s="1">
+        <v>20220616</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>10000</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J74" s="11">
+        <v>299</v>
+      </c>
+      <c r="J74" s="10">
         <v>70000</v>
       </c>
       <c r="K74" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L74" s="12">
-        <v>0.22694036044156773</v>
+      <c r="L74" s="13">
+        <v>0.23690266684716393</v>
       </c>
       <c r="M74" s="6">
         <v>2954800000</v>
       </c>
       <c r="N74" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="O74" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="P74" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q74" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="R74" s="6">
         <v>5.24</v>
@@ -7981,8 +8133,18 @@
       <c r="Y74" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="Z74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -7991,31 +8153,33 @@
       <c r="B75" s="1">
         <v>20211111</v>
       </c>
+      <c r="C75" s="1">
+        <v>20220616</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>10000</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J75" s="11">
+        <v>299</v>
+      </c>
+      <c r="J75" s="10">
         <v>70000</v>
       </c>
       <c r="K75" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L75" s="12">
-        <v>0.22694036044156773</v>
+      <c r="L75" s="13">
+        <v>0.23690266684716393</v>
       </c>
       <c r="M75" s="6">
         <v>2954800000</v>
@@ -8024,13 +8188,13 @@
         <v>248</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="P75" s="6" t="s">
         <v>248</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="R75" s="6">
         <v>5.24</v>
@@ -8056,8 +8220,18 @@
       <c r="Y75" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
+      <c r="Z75" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -8066,46 +8240,48 @@
       <c r="B76" s="1">
         <v>20211210</v>
       </c>
+      <c r="C76" s="1">
+        <v>20220616</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>10000</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J76" s="11">
+        <v>299</v>
+      </c>
+      <c r="J76" s="10">
         <v>70000</v>
       </c>
       <c r="K76" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L76" s="12">
-        <v>0.22694036044156773</v>
+      <c r="L76" s="13">
+        <v>0.23690266684716393</v>
       </c>
       <c r="M76" s="6">
         <v>2954800000</v>
       </c>
       <c r="N76" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="O76" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="P76" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q76" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="P76" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q76" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="R76" s="6">
         <v>5.24</v>
@@ -8131,8 +8307,18 @@
       <c r="Y76" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
+      <c r="Z76" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -8141,46 +8327,48 @@
       <c r="B77" s="1">
         <v>20211011</v>
       </c>
+      <c r="C77" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>10000</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J77" s="11">
+        <v>300</v>
+      </c>
+      <c r="J77" s="10">
         <v>70000</v>
       </c>
       <c r="K77" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="13">
         <v>0.25</v>
       </c>
       <c r="M77" s="6">
         <v>2800000000</v>
       </c>
       <c r="N77" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="O77" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="O77" s="6" t="s">
+      <c r="P77" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q77" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="R77" s="6">
         <v>2.83</v>
@@ -8206,8 +8394,15 @@
       <c r="Y77" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
+      <c r="AA77" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -8216,6 +8411,9 @@
       <c r="B78" s="1">
         <v>20211102</v>
       </c>
+      <c r="C78" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>159</v>
       </c>
@@ -8226,36 +8424,35 @@
         <v>289</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>10000</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J78" s="11">
+        <v>300</v>
+      </c>
+      <c r="J78" s="10">
         <v>70000</v>
       </c>
       <c r="K78" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="13">
         <v>0.25</v>
       </c>
       <c r="M78" s="6">
         <v>2800000000</v>
       </c>
       <c r="N78" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O78" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="O78" s="6" t="s">
+      <c r="P78" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q78" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="P78" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q78" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="R78" s="6">
         <v>2.83</v>
@@ -8281,8 +8478,15 @@
       <c r="Y78" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="AA78" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -8291,6 +8495,9 @@
       <c r="B79" s="1">
         <v>20211111</v>
       </c>
+      <c r="C79" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>159</v>
       </c>
@@ -8301,20 +8508,19 @@
         <v>290</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>10000</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J79" s="11">
+        <v>300</v>
+      </c>
+      <c r="J79" s="10">
         <v>70000</v>
       </c>
       <c r="K79" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="13">
         <v>0.25</v>
       </c>
       <c r="M79" s="6">
@@ -8356,8 +8562,15 @@
       <c r="Y79" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="AA79" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -8366,6 +8579,9 @@
       <c r="B80" s="1">
         <v>20211209</v>
       </c>
+      <c r="C80" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>159</v>
       </c>
@@ -8376,36 +8592,35 @@
         <v>291</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>10000</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J80" s="11">
+        <v>300</v>
+      </c>
+      <c r="J80" s="10">
         <v>70000</v>
       </c>
       <c r="K80" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L80" s="12">
+      <c r="L80" s="13">
         <v>0.25</v>
       </c>
       <c r="M80" s="6">
         <v>2800000000</v>
       </c>
       <c r="N80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="O80" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="O80" s="6" t="s">
+      <c r="P80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q80" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="R80" s="6">
         <v>2.83</v>
@@ -8431,8 +8646,15 @@
       <c r="Y80" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="AA80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -8441,6 +8663,9 @@
       <c r="B81" s="1">
         <v>20211213</v>
       </c>
+      <c r="C81" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>159</v>
       </c>
@@ -8451,36 +8676,35 @@
         <v>292</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>10000</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J81" s="11">
+        <v>301</v>
+      </c>
+      <c r="J81" s="10">
         <v>70000</v>
       </c>
       <c r="K81" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L81" s="12">
-        <v>0.25925925925925902</v>
+      <c r="L81" s="13">
+        <v>0.25925925925925924</v>
       </c>
       <c r="M81" s="6">
         <v>2700000000</v>
       </c>
       <c r="N81" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O81" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="O81" s="6" t="s">
+      <c r="P81" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q81" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="R81" s="6">
         <v>2.78</v>
@@ -8506,8 +8730,15 @@
       <c r="Y81" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="AA81" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
@@ -8516,6 +8747,9 @@
       <c r="B82" s="1">
         <v>20211001</v>
       </c>
+      <c r="C82" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>159</v>
       </c>
@@ -8526,35 +8760,34 @@
         <v>284</v>
       </c>
       <c r="G82" s="5"/>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>15000</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J82" s="11">
+        <v>301</v>
+      </c>
+      <c r="J82" s="10">
         <v>20000</v>
       </c>
       <c r="K82" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>300000000</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="14">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="10">
         <v>2700000000</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="10" t="s">
         <v>288</v>
       </c>
       <c r="R82" s="6">
@@ -8581,8 +8814,15 @@
       <c r="Y82" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
+      <c r="AA82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
@@ -8591,6 +8831,9 @@
       <c r="B83" s="1">
         <v>20210924</v>
       </c>
+      <c r="C83" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>159</v>
       </c>
@@ -8601,23 +8844,22 @@
         <v>281</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>15000</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J83" s="11">
+        <v>301</v>
+      </c>
+      <c r="J83" s="10">
         <v>20000</v>
       </c>
       <c r="K83" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>300000000</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L83" s="14">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M83" s="10">
         <v>2700000000</v>
       </c>
       <c r="N83" s="6" t="s">
@@ -8656,8 +8898,15 @@
       <c r="Y83" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
+      <c r="AA83" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
@@ -8666,32 +8915,34 @@
       <c r="B84" s="1">
         <v>20220120</v>
       </c>
+      <c r="C84" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" s="10">
+        <v>302</v>
+      </c>
+      <c r="H84" s="9">
         <v>10000</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J84" s="11">
+        <v>301</v>
+      </c>
+      <c r="J84" s="10">
         <v>70000</v>
       </c>
       <c r="K84" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="14">
         <v>0.25925925925925924</v>
       </c>
-      <c r="M84" s="11">
+      <c r="M84" s="10">
         <v>2700000000</v>
       </c>
       <c r="N84" s="6" t="s">
@@ -8730,8 +8981,15 @@
       <c r="Y84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
+      <c r="AA84" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
@@ -8740,45 +8998,47 @@
       <c r="B85" s="1">
         <v>20220211</v>
       </c>
+      <c r="C85" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H85" s="10">
+        <v>303</v>
+      </c>
+      <c r="H85" s="9">
         <v>10000</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J85" s="11">
+        <v>301</v>
+      </c>
+      <c r="J85" s="10">
         <v>70000</v>
       </c>
       <c r="K85" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="14">
         <v>0.25925925925925924</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M85" s="10">
         <v>2700000000</v>
       </c>
       <c r="N85" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O85" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="P85" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q85" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="P85" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q85" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="R85" s="1">
         <v>2.78</v>
@@ -8803,6 +9063,15 @@
       </c>
       <c r="Y85" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
@@ -8812,38 +9081,54 @@
       <c r="B86" s="1">
         <v>20220304</v>
       </c>
+      <c r="C86" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H86" s="10">
+        <v>305</v>
+      </c>
+      <c r="H86" s="9">
         <v>10000</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J86" s="11">
+        <v>335</v>
+      </c>
+      <c r="J86" s="10">
         <v>70000</v>
       </c>
       <c r="K86" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="14">
         <v>0.25</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86" s="10">
         <v>2800000000</v>
       </c>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
+      <c r="N86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="R86" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="S86" s="1">
+        <v>493</v>
+      </c>
       <c r="T86" s="1">
         <v>10</v>
       </c>
@@ -8861,6 +9146,15 @@
       </c>
       <c r="Y86" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
@@ -8870,38 +9164,54 @@
       <c r="B87" s="1">
         <v>20220311</v>
       </c>
+      <c r="C87" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H87" s="10">
+        <v>306</v>
+      </c>
+      <c r="H87" s="9">
         <v>10000</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J87" s="11">
+        <v>335</v>
+      </c>
+      <c r="J87" s="10">
         <v>70000</v>
       </c>
       <c r="K87" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="14">
         <v>0.25</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87" s="10">
         <v>2800000000</v>
       </c>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="N87" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="R87" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="S87" s="1">
+        <v>493</v>
+      </c>
       <c r="T87" s="1">
         <v>10</v>
       </c>
@@ -8919,6 +9229,15 @@
       </c>
       <c r="Y87" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
@@ -8928,38 +9247,54 @@
       <c r="B88" s="1">
         <v>20220318</v>
       </c>
+      <c r="C88" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H88" s="10">
+        <v>307</v>
+      </c>
+      <c r="H88" s="9">
         <v>10000</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J88" s="11">
+        <v>335</v>
+      </c>
+      <c r="J88" s="10">
         <v>70000</v>
       </c>
       <c r="K88" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="14">
         <v>0.25</v>
       </c>
-      <c r="M88" s="11">
+      <c r="M88" s="10">
         <v>2800000000</v>
       </c>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
+      <c r="N88" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="R88" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="S88" s="1">
+        <v>493</v>
+      </c>
       <c r="T88" s="1">
         <v>10</v>
       </c>
@@ -8977,6 +9312,15 @@
       </c>
       <c r="Y88" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
@@ -8986,38 +9330,54 @@
       <c r="B89" s="1">
         <v>20220325</v>
       </c>
+      <c r="C89" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H89" s="10">
+        <v>308</v>
+      </c>
+      <c r="H89" s="9">
         <v>10000</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J89" s="11">
+        <v>335</v>
+      </c>
+      <c r="J89" s="10">
         <v>70000</v>
       </c>
       <c r="K89" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>700000000</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="14">
         <v>0.25</v>
       </c>
-      <c r="M89" s="11">
+      <c r="M89" s="10">
         <v>2800000000</v>
       </c>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
+      <c r="N89" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="R89" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="S89" s="1">
+        <v>493</v>
+      </c>
       <c r="T89" s="1">
         <v>10</v>
       </c>
@@ -9035,6 +9395,15 @@
       </c>
       <c r="Y89" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
@@ -9044,38 +9413,54 @@
       <c r="B90" s="1">
         <v>20220407</v>
       </c>
+      <c r="C90" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H90" s="10">
+        <v>309</v>
+      </c>
+      <c r="H90" s="9">
         <v>10000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J90" s="11">
+        <v>336</v>
+      </c>
+      <c r="J90" s="10">
         <v>60000</v>
       </c>
       <c r="K90" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>600000000</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="14">
         <v>0.2</v>
       </c>
-      <c r="M90" s="11">
+      <c r="M90" s="10">
         <v>3000000000</v>
       </c>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
+      <c r="N90" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="R90" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="S90" s="1">
+        <v>492</v>
+      </c>
       <c r="T90" s="1">
         <v>10</v>
       </c>
@@ -9093,6 +9478,15 @@
       </c>
       <c r="Y90" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
@@ -9102,38 +9496,54 @@
       <c r="B91" s="1">
         <v>20220428</v>
       </c>
+      <c r="C91" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H91" s="10">
+        <v>310</v>
+      </c>
+      <c r="H91" s="9">
         <v>10000</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J91" s="11">
+        <v>336</v>
+      </c>
+      <c r="J91" s="10">
         <v>60000</v>
       </c>
       <c r="K91" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>600000000</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L91" s="14">
         <v>0.2</v>
       </c>
-      <c r="M91" s="11">
+      <c r="M91" s="10">
         <v>3000000000</v>
       </c>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
+      <c r="N91" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="R91" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="S91" s="1">
+        <v>492</v>
+      </c>
       <c r="T91" s="1">
         <v>10</v>
       </c>
@@ -9151,6 +9561,15 @@
       </c>
       <c r="Y91" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
@@ -9160,38 +9579,54 @@
       <c r="B92" s="1">
         <v>20220428</v>
       </c>
+      <c r="C92" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H92" s="10">
+        <v>311</v>
+      </c>
+      <c r="H92" s="9">
         <v>10000</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J92" s="11">
+        <v>336</v>
+      </c>
+      <c r="J92" s="10">
         <v>60000</v>
       </c>
       <c r="K92" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>600000000</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="14">
         <v>0.2</v>
       </c>
-      <c r="M92" s="11">
+      <c r="M92" s="10">
         <v>3000000000</v>
       </c>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
+      <c r="N92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="R92" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="S92" s="1">
+        <v>492</v>
+      </c>
       <c r="T92" s="1">
         <v>10</v>
       </c>
@@ -9209,6 +9644,15 @@
       </c>
       <c r="Y92" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
@@ -9218,38 +9662,54 @@
       <c r="B93" s="1">
         <v>20220428</v>
       </c>
+      <c r="C93" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H93" s="10">
+        <v>312</v>
+      </c>
+      <c r="H93" s="9">
         <v>10000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J93" s="11">
+        <v>336</v>
+      </c>
+      <c r="J93" s="10">
         <v>60000</v>
       </c>
       <c r="K93" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>600000000</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="14">
         <v>0.2</v>
       </c>
-      <c r="M93" s="11">
+      <c r="M93" s="10">
         <v>3000000000</v>
       </c>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
+      <c r="N93" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="R93" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="S93" s="1">
+        <v>492</v>
+      </c>
       <c r="T93" s="1">
         <v>10</v>
       </c>
@@ -9267,6 +9727,15 @@
       </c>
       <c r="Y93" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
@@ -9276,38 +9745,54 @@
       <c r="B94" s="1">
         <v>20220505</v>
       </c>
+      <c r="C94" s="1">
+        <v>20220620</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H94" s="10">
+        <v>313</v>
+      </c>
+      <c r="H94" s="9">
         <v>10000</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J94" s="11">
+        <v>336</v>
+      </c>
+      <c r="J94" s="10">
         <v>60000</v>
       </c>
       <c r="K94" s="6">
-        <f>[1]!Table713252612235173[[#This Row],[Cell Numbers]]*[1]!Table713252612235173[[#This Row],[Reads/Cell]]</f>
         <v>600000000</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="14">
         <v>0.2</v>
       </c>
-      <c r="M94" s="11">
+      <c r="M94" s="10">
         <v>3000000000</v>
       </c>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
+      <c r="N94" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="R94" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="S94" s="1">
+        <v>492</v>
+      </c>
       <c r="T94" s="1">
         <v>10</v>
       </c>
@@ -9325,6 +9810,15 @@
       </c>
       <c r="Y94" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1332,11 +1332,11 @@
   <dimension ref="A1:AC94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="25" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
-      <selection pane="bottomRight" activeCell="L101" activeCellId="0" sqref="L101"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1353,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="41.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -379,28 +379,28 @@
     <t xml:space="preserve">STARR_031</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-GA-C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_028</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI-GA-E7</t>
   </si>
   <si>
     <t xml:space="preserve">CACGCCTT, GTATATAG, TCTCGGGC, AGGATACA</t>
   </si>
   <si>
-    <t xml:space="preserve">STARR_028</t>
+    <t xml:space="preserve">STARR_026</t>
   </si>
   <si>
     <t xml:space="preserve">SI-GA-F7</t>
   </si>
   <si>
     <t xml:space="preserve">CGTGCAGA, AACAAGAT, TCGCTTCG, GTATGCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI-GA-C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTGAGAA, AGATCTGG, TCGATACT, CACCGCTC</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_032</t>
@@ -1329,13 +1329,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC94"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="25" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
       <selection pane="bottomRight" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -5682,10 +5682,10 @@
         <v>2992170000</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P50" s="8" t="s">
         <v>36</v>
@@ -5770,10 +5770,10 @@
         <v>2992170000</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>36</v>
@@ -6488,10 +6488,10 @@
         <v>3074024350</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P59" s="8" t="s">
         <v>36</v>
@@ -6576,10 +6576,10 @@
         <v>3074024350</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P60" s="8" t="s">
         <v>36</v>
@@ -7518,7 +7518,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -9536,6 +9536,8 @@
         <v>140</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="370">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1332,11 +1332,11 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
-      <selection pane="bottomRight" activeCell="F105" activeCellId="0" sqref="F105"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="C85" activeCellId="0" sqref="C77:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5039,7 +5039,7 @@
         <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="11" t="n">
@@ -5127,7 +5127,7 @@
         <v>199</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="11" t="n">
@@ -5215,7 +5215,7 @@
         <v>202</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="11" t="n">
@@ -5303,7 +5303,7 @@
         <v>205</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="11" t="n">
@@ -8789,7 +8789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>20220304</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -8862,6 +8862,9 @@
       <c r="Y86" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z86" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA86" s="1" t="s">
         <v>338</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>20220311</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>65</v>
@@ -8945,6 +8948,9 @@
       <c r="Y87" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z87" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA87" s="1" t="s">
         <v>338</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -8963,7 +8969,7 @@
         <v>20220318</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>65</v>
@@ -9028,6 +9034,9 @@
       <c r="Y88" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z88" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA88" s="1" t="s">
         <v>338</v>
       </c>
@@ -9038,7 +9047,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
@@ -9046,7 +9055,7 @@
         <v>20220325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>65</v>
@@ -9111,6 +9120,9 @@
       <c r="Y89" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z89" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA89" s="1" t="s">
         <v>338</v>
       </c>
@@ -9121,7 +9133,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -9129,7 +9141,7 @@
         <v>20220407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>65</v>
@@ -9194,6 +9206,9 @@
       <c r="Y90" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z90" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA90" s="1" t="s">
         <v>356</v>
       </c>
@@ -9204,7 +9219,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -9212,7 +9227,7 @@
         <v>20220428</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>65</v>
@@ -9277,6 +9292,9 @@
       <c r="Y91" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z91" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA91" s="1" t="s">
         <v>356</v>
       </c>
@@ -9287,7 +9305,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -9295,7 +9313,7 @@
         <v>20220428</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>65</v>
@@ -9360,6 +9378,9 @@
       <c r="Y92" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z92" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA92" s="1" t="s">
         <v>356</v>
       </c>
@@ -9370,7 +9391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -9378,7 +9399,7 @@
         <v>20220428</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>65</v>
@@ -9443,6 +9464,9 @@
       <c r="Y93" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="Z93" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="AA93" s="1" t="s">
         <v>356</v>
       </c>
@@ -9453,7 +9477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -9461,7 +9485,7 @@
         <v>20220505</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>20220620</v>
+        <v>20220616</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>65</v>
@@ -9525,6 +9549,9 @@
       </c>
       <c r="Y94" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="AA94" s="1" t="s">
         <v>356</v>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="390">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -393,6 +393,9 @@
     <t xml:space="preserve">20191121_NovaSeq_Counts</t>
   </si>
   <si>
+    <t xml:space="preserve">ND_Old_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_026h</t>
   </si>
   <si>
@@ -684,6 +687,9 @@
     <t xml:space="preserve">TGACCAAT</t>
   </si>
   <si>
+    <t xml:space="preserve">Norton_2nd</t>
+  </si>
+  <si>
     <t xml:space="preserve">P070720211</t>
   </si>
   <si>
@@ -694,6 +700,9 @@
   </si>
   <si>
     <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_041_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">STARR024</t>
@@ -1433,11 +1442,11 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="X30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="Z59" activeCellId="0" sqref="Z59"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3290,7 +3299,7 @@
         <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>85</v>
@@ -3639,10 +3648,10 @@
         <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="14" t="n">
@@ -3665,10 +3674,10 @@
         <v>2341200000</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>36</v>
@@ -3725,17 +3734,17 @@
         <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>50000</v>
@@ -3751,10 +3760,10 @@
         <v>2500010000</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>36</v>
@@ -3811,17 +3820,17 @@
         <v>65</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>50000</v>
@@ -3837,10 +3846,10 @@
         <v>2500010000</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>36</v>
@@ -3897,17 +3906,17 @@
         <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29" s="14" t="n">
         <v>50000</v>
@@ -3923,10 +3932,10 @@
         <v>2500010000</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>36</v>
@@ -3983,17 +3992,17 @@
         <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J30" s="14" t="n">
         <v>50000</v>
@@ -4009,10 +4018,10 @@
         <v>2500010000</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>36</v>
@@ -4069,17 +4078,17 @@
         <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J31" s="14" t="n">
         <v>50001</v>
@@ -4095,10 +4104,10 @@
         <v>2500010000</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>36</v>
@@ -4155,19 +4164,19 @@
         <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H32" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J32" s="14" t="n">
         <v>90000000</v>
@@ -4183,10 +4192,10 @@
         <v>2700000000</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>36</v>
@@ -4210,25 +4219,25 @@
         <v>96</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,19 +4254,19 @@
         <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H33" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J33" s="14" t="n">
         <v>90000000</v>
@@ -4273,10 +4282,10 @@
         <v>2700000000</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>36</v>
@@ -4300,25 +4309,25 @@
         <v>96</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,19 +4344,19 @@
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J34" s="14" t="n">
         <v>90000000</v>
@@ -4363,10 +4372,10 @@
         <v>2700000000</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>36</v>
@@ -4390,25 +4399,25 @@
         <v>96</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4425,19 +4434,19 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J35" s="14" t="n">
         <v>75000</v>
@@ -4453,10 +4462,10 @@
         <v>3000000000</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>36</v>
@@ -4480,25 +4489,25 @@
         <v>96</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,22 +4521,22 @@
         <v>20210126</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H36" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J36" s="14" t="n">
         <v>75000</v>
@@ -4543,16 +4552,16 @@
         <v>3000000000</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="Q36" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R36" s="4" t="n">
         <v>30.3</v>
@@ -4570,25 +4579,25 @@
         <v>96</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,19 +4614,19 @@
         <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H37" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J37" s="14" t="n">
         <v>75000000</v>
@@ -4633,10 +4642,10 @@
         <v>3000000000</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>36</v>
@@ -4660,25 +4669,25 @@
         <v>96</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,19 +4704,19 @@
         <v>65</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H38" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>75000000</v>
@@ -4723,10 +4732,10 @@
         <v>3000000000</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>36</v>
@@ -4750,25 +4759,25 @@
         <v>96</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,20 +4791,20 @@
         <v>20210716</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J39" s="14" t="n">
         <v>70000</v>
@@ -4811,16 +4820,16 @@
         <v>3000000000</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="Q39" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>3</v>
@@ -4838,25 +4847,25 @@
         <v>96</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,20 +4879,20 @@
         <v>20210716</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J40" s="14" t="n">
         <v>70000</v>
@@ -4899,16 +4908,16 @@
         <v>3000000000</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="Q40" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>3</v>
@@ -4926,25 +4935,25 @@
         <v>96</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,20 +4967,20 @@
         <v>20210716</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J41" s="14" t="n">
         <v>70000</v>
@@ -4987,16 +4996,16 @@
         <v>3000000000</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="Q41" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>3</v>
@@ -5014,25 +5023,25 @@
         <v>96</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,20 +5055,20 @@
         <v>20210716</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J42" s="14" t="n">
         <v>70000</v>
@@ -5075,16 +5084,16 @@
         <v>3000000000</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="Q42" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>3</v>
@@ -5102,25 +5111,25 @@
         <v>96</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,20 +5143,20 @@
         <v>20210716</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J43" s="14" t="n">
         <v>5000</v>
@@ -5163,10 +5172,10 @@
         <v>3000000000</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>36</v>
@@ -5190,25 +5199,25 @@
         <v>96</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,20 +5231,20 @@
         <v>20210716</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J44" s="14" t="n">
         <v>5000</v>
@@ -5251,10 +5260,10 @@
         <v>3000000000</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>36</v>
@@ -5278,25 +5287,25 @@
         <v>96</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5310,20 +5319,20 @@
         <v>20210716</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J45" s="14" t="n">
         <v>5000</v>
@@ -5339,10 +5348,10 @@
         <v>3000000000</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>36</v>
@@ -5366,25 +5375,25 @@
         <v>96</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,20 +5407,20 @@
         <v>20210716</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J46" s="14" t="n">
         <v>5000</v>
@@ -5427,10 +5436,10 @@
         <v>3000000000</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>36</v>
@@ -5454,25 +5463,25 @@
         <v>96</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,19 +5498,19 @@
         <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H47" s="14" t="n">
         <v>17925</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J47" s="14" t="n">
         <v>50000</v>
@@ -5517,10 +5526,10 @@
         <v>2992170000</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>36</v>
@@ -5544,25 +5553,25 @@
         <v>96</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,19 +5588,19 @@
         <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H48" s="14" t="n">
         <v>8674</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J48" s="14" t="n">
         <v>30000</v>
@@ -5607,10 +5616,10 @@
         <v>2992170000</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>36</v>
@@ -5634,25 +5643,25 @@
         <v>96</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,17 +5678,17 @@
         <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="14" t="n">
         <v>8714</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J49" s="14" t="n">
         <v>50000</v>
@@ -5695,10 +5704,10 @@
         <v>2992170000</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>36</v>
@@ -5722,25 +5731,25 @@
         <v>96</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5754,20 +5763,20 @@
         <v>20210716</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J50" s="14" t="n">
         <v>70000</v>
@@ -5783,10 +5792,10 @@
         <v>2992170000</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>36</v>
@@ -5810,25 +5819,25 @@
         <v>96</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,17 +5854,17 @@
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J51" s="14" t="n">
         <v>70000</v>
@@ -5871,10 +5880,10 @@
         <v>2992170000</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>36</v>
@@ -5898,28 +5907,28 @@
         <v>96</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
@@ -5930,22 +5939,22 @@
         <v>20210830</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H52" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J52" s="14" t="n">
         <v>42800</v>
@@ -5961,16 +5970,16 @@
         <v>2996000000</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R52" s="4" t="n">
         <v>2.84</v>
@@ -5988,25 +5997,25 @@
         <v>96</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,22 +6029,22 @@
         <v>20210830</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H53" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J53" s="14" t="n">
         <v>42800</v>
@@ -6051,16 +6060,16 @@
         <v>2996000000</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R53" s="4" t="n">
         <v>2.84</v>
@@ -6078,25 +6087,25 @@
         <v>96</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,22 +6119,22 @@
         <v>20210830</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H54" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J54" s="14" t="n">
         <v>42800</v>
@@ -6141,16 +6150,16 @@
         <v>2996000000</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="R54" s="4" t="n">
         <v>2.84</v>
@@ -6168,25 +6177,25 @@
         <v>96</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,19 +6212,19 @@
         <v>65</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H55" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J55" s="14" t="n">
         <v>42800</v>
@@ -6231,16 +6240,16 @@
         <v>2996000000</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R55" s="4" t="n">
         <v>2.84</v>
@@ -6258,25 +6267,25 @@
         <v>96</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,22 +6299,22 @@
         <v>20210830</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H56" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J56" s="14" t="n">
         <v>42800</v>
@@ -6321,16 +6330,16 @@
         <v>2996000000</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R56" s="4" t="n">
         <v>2.84</v>
@@ -6348,25 +6357,25 @@
         <v>96</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6380,22 +6389,22 @@
         <v>20210830</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H57" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J57" s="14" t="n">
         <v>42800</v>
@@ -6411,16 +6420,16 @@
         <v>2996000000</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R57" s="4" t="n">
         <v>2.84</v>
@@ -6438,25 +6447,25 @@
         <v>96</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,22 +6479,22 @@
         <v>20210830</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H58" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J58" s="14" t="n">
         <v>42800</v>
@@ -6501,16 +6510,16 @@
         <v>2996000000</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="R58" s="4" t="n">
         <v>2.84</v>
@@ -6528,25 +6537,25 @@
         <v>96</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,20 +6569,20 @@
         <v>20211105</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="14" t="n">
         <v>8410</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J59" s="14" t="n">
         <v>28640</v>
@@ -6589,10 +6598,10 @@
         <v>3074024350</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>36</v>
@@ -6616,25 +6625,25 @@
         <v>96</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,17 +6660,17 @@
         <v>65</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="14" t="n">
         <v>8464</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J60" s="14" t="n">
         <v>35280</v>
@@ -6677,10 +6686,10 @@
         <v>3074024350</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>36</v>
@@ -6704,25 +6713,25 @@
         <v>96</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6736,22 +6745,22 @@
         <v>20211105</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H61" s="14" t="n">
         <v>6367</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J61" s="14" t="n">
         <v>43457</v>
@@ -6767,16 +6776,16 @@
         <v>3074024350</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R61" s="4" t="n">
         <v>3.26</v>
@@ -6794,25 +6803,25 @@
         <v>96</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,22 +6835,22 @@
         <v>20211105</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H62" s="14" t="n">
         <v>3870</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J62" s="14" t="n">
         <v>8371</v>
@@ -6857,16 +6866,16 @@
         <v>3074024350</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R62" s="4" t="n">
         <v>3.26</v>
@@ -6884,25 +6893,25 @@
         <v>96</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,22 +6925,22 @@
         <v>20211105</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H63" s="14" t="n">
         <v>11600</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J63" s="14" t="n">
         <v>58583</v>
@@ -6947,16 +6956,16 @@
         <v>3074024350</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="R63" s="4" t="n">
         <v>3.26</v>
@@ -6974,25 +6983,25 @@
         <v>96</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,19 +7018,19 @@
         <v>65</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H64" s="14" t="n">
         <v>9287</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J64" s="14" t="n">
         <v>65607</v>
@@ -7037,16 +7046,16 @@
         <v>3074024350</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R64" s="4" t="n">
         <v>3.26</v>
@@ -7064,25 +7073,25 @@
         <v>96</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,22 +7105,22 @@
         <v>20211105</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H65" s="14" t="n">
         <v>14332</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J65" s="14" t="n">
         <v>65351</v>
@@ -7127,16 +7136,16 @@
         <v>3074024350</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="R65" s="4" t="n">
         <v>3.26</v>
@@ -7154,25 +7163,25 @@
         <v>96</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7186,22 +7195,22 @@
         <v>20211105</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H66" s="14" t="n">
         <v>14491</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J66" s="14" t="n">
         <v>36812</v>
@@ -7217,16 +7226,16 @@
         <v>3084510832</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R66" s="4" t="n">
         <v>8.34</v>
@@ -7244,25 +7253,25 @@
         <v>96</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,22 +7285,22 @@
         <v>20211105</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H67" s="14" t="n">
         <v>7769</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J67" s="14" t="n">
         <v>58060</v>
@@ -7307,16 +7316,16 @@
         <v>3084510832</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R67" s="4" t="n">
         <v>7.11</v>
@@ -7334,25 +7343,25 @@
         <v>96</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,20 +7375,20 @@
         <v>20211105</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J68" s="14" t="n">
         <v>70000</v>
@@ -7395,10 +7404,10 @@
         <v>3084510832</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P68" s="4" t="s">
         <v>36</v>
@@ -7422,25 +7431,25 @@
         <v>96</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,20 +7463,20 @@
         <v>20211105</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J69" s="14" t="n">
         <v>70000</v>
@@ -7483,16 +7492,16 @@
         <v>3084510832</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P69" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="Q69" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R69" s="4" t="n">
         <v>3.14</v>
@@ -7510,25 +7519,25 @@
         <v>96</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y69" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7542,20 +7551,20 @@
         <v>20211105</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J70" s="14" t="n">
         <v>70000</v>
@@ -7571,16 +7580,16 @@
         <v>3084510832</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R70" s="4" t="n">
         <v>3.14</v>
@@ -7598,25 +7607,25 @@
         <v>96</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,17 +7642,17 @@
         <v>65</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="14" t="n">
         <v>6512</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J71" s="14" t="n">
         <v>25000</v>
@@ -7659,10 +7668,10 @@
         <v>2954800000</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>36</v>
@@ -7682,25 +7691,25 @@
         <v>96</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,19 +7726,19 @@
         <v>65</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H72" s="14" t="n">
         <v>12710</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J72" s="14" t="n">
         <v>35000</v>
@@ -7745,10 +7754,10 @@
         <v>2954800000</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P72" s="4" t="s">
         <v>36</v>
@@ -7768,25 +7777,25 @@
         <v>96</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,19 +7812,19 @@
         <v>65</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H73" s="14" t="n">
         <v>9886</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J73" s="14" t="n">
         <v>25000</v>
@@ -7831,10 +7840,10 @@
         <v>2954800000</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P73" s="4" t="s">
         <v>36</v>
@@ -7854,25 +7863,25 @@
         <v>96</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,17 +7898,17 @@
         <v>65</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J74" s="14" t="n">
         <v>70000</v>
@@ -7914,16 +7923,16 @@
         <v>2954800000</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R74" s="4" t="n">
         <v>5.24</v>
@@ -7941,25 +7950,25 @@
         <v>96</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7976,17 +7985,17 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J75" s="14" t="n">
         <v>70000</v>
@@ -8001,16 +8010,16 @@
         <v>2954800000</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R75" s="4" t="n">
         <v>5.24</v>
@@ -8028,25 +8037,25 @@
         <v>96</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,17 +8072,17 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J76" s="14" t="n">
         <v>70000</v>
@@ -8088,16 +8097,16 @@
         <v>2954800000</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R76" s="4" t="n">
         <v>5.24</v>
@@ -8115,25 +8124,25 @@
         <v>96</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,20 +8156,20 @@
         <v>20220620</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J77" s="14" t="n">
         <v>70000</v>
@@ -8175,16 +8184,16 @@
         <v>2800000000</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R77" s="4" t="n">
         <v>2.83</v>
@@ -8202,22 +8211,22 @@
         <v>96</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8231,20 +8240,20 @@
         <v>20220620</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J78" s="14" t="n">
         <v>70000</v>
@@ -8259,16 +8268,16 @@
         <v>2800000000</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="R78" s="4" t="n">
         <v>2.83</v>
@@ -8286,22 +8295,22 @@
         <v>96</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8315,20 +8324,20 @@
         <v>20220620</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J79" s="14" t="n">
         <v>70000</v>
@@ -8343,16 +8352,16 @@
         <v>2800000000</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R79" s="4" t="n">
         <v>2.83</v>
@@ -8370,22 +8379,22 @@
         <v>96</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,20 +8408,20 @@
         <v>20220620</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J80" s="14" t="n">
         <v>70000</v>
@@ -8427,16 +8436,16 @@
         <v>2800000000</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="R80" s="4" t="n">
         <v>2.83</v>
@@ -8454,22 +8463,22 @@
         <v>96</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,20 +8492,20 @@
         <v>20220620</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J81" s="14" t="n">
         <v>70000</v>
@@ -8511,16 +8520,16 @@
         <v>2700000000</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="R81" s="4" t="n">
         <v>2.78</v>
@@ -8538,22 +8547,22 @@
         <v>96</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,20 +8576,20 @@
         <v>20220620</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="14" t="n">
         <v>15000</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J82" s="14" t="n">
         <v>20000</v>
@@ -8595,16 +8604,16 @@
         <v>2700000000</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q82" s="14" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R82" s="4" t="n">
         <v>2.78</v>
@@ -8622,22 +8631,22 @@
         <v>96</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y82" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8651,20 +8660,20 @@
         <v>20220620</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="14" t="n">
         <v>15000</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J83" s="14" t="n">
         <v>20000</v>
@@ -8679,16 +8688,16 @@
         <v>2700000000</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P83" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="Q83" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R83" s="4" t="n">
         <v>2.78</v>
@@ -8706,22 +8715,22 @@
         <v>96</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,19 +8744,19 @@
         <v>20220620</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H84" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J84" s="14" t="n">
         <v>70000</v>
@@ -8762,16 +8771,16 @@
         <v>2700000000</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O84" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P84" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="Q84" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R84" s="4" t="n">
         <v>2.78</v>
@@ -8789,22 +8798,22 @@
         <v>96</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y84" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,19 +8827,19 @@
         <v>20220620</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H85" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J85" s="14" t="n">
         <v>70000</v>
@@ -8845,16 +8854,16 @@
         <v>2700000000</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="R85" s="2" t="n">
         <v>2.78</v>
@@ -8872,22 +8881,22 @@
         <v>96</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA85" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8904,16 +8913,16 @@
         <v>65</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H86" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J86" s="14" t="n">
         <v>70000</v>
@@ -8928,16 +8937,16 @@
         <v>2800000000</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="R86" s="2" t="n">
         <v>3.06</v>
@@ -8955,25 +8964,25 @@
         <v>96</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y86" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8990,16 +8999,16 @@
         <v>65</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H87" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J87" s="14" t="n">
         <v>70000</v>
@@ -9014,16 +9023,16 @@
         <v>2800000000</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R87" s="2" t="n">
         <v>3.06</v>
@@ -9041,25 +9050,25 @@
         <v>96</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA87" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9076,16 +9085,16 @@
         <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H88" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J88" s="14" t="n">
         <v>70000</v>
@@ -9100,16 +9109,16 @@
         <v>2800000000</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="R88" s="2" t="n">
         <v>3.06</v>
@@ -9127,25 +9136,25 @@
         <v>96</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,16 +9171,16 @@
         <v>65</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H89" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J89" s="14" t="n">
         <v>70000</v>
@@ -9186,16 +9195,16 @@
         <v>2800000000</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="R89" s="2" t="n">
         <v>3.06</v>
@@ -9213,25 +9222,25 @@
         <v>96</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z89" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA89" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9248,16 +9257,16 @@
         <v>65</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H90" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J90" s="14" t="n">
         <v>60000</v>
@@ -9272,16 +9281,16 @@
         <v>3000000000</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="R90" s="2" t="n">
         <v>3.21</v>
@@ -9299,25 +9308,25 @@
         <v>96</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z90" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA90" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9334,16 +9343,16 @@
         <v>65</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H91" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J91" s="14" t="n">
         <v>60000</v>
@@ -9358,16 +9367,16 @@
         <v>3000000000</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="R91" s="2" t="n">
         <v>3.21</v>
@@ -9385,25 +9394,25 @@
         <v>96</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA91" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,16 +9429,16 @@
         <v>65</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H92" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J92" s="14" t="n">
         <v>60000</v>
@@ -9444,16 +9453,16 @@
         <v>3000000000</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O92" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P92" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="P92" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="Q92" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R92" s="2" t="n">
         <v>3.21</v>
@@ -9471,25 +9480,25 @@
         <v>96</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z92" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA92" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,16 +9515,16 @@
         <v>65</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H93" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J93" s="14" t="n">
         <v>60000</v>
@@ -9530,16 +9539,16 @@
         <v>3000000000</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="R93" s="2" t="n">
         <v>3.21</v>
@@ -9557,25 +9566,25 @@
         <v>96</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z93" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA93" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,16 +9601,16 @@
         <v>65</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H94" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J94" s="14" t="n">
         <v>60000</v>
@@ -9616,16 +9625,16 @@
         <v>3000000000</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="R94" s="2" t="n">
         <v>3.21</v>
@@ -9643,25 +9652,25 @@
         <v>96</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z94" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA94" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,19 +9681,19 @@
         <v>20220216</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H95" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J95" s="14" t="n">
         <v>60000</v>
@@ -9708,13 +9717,13 @@
         <v>96</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9725,19 +9734,19 @@
         <v>20220405</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H96" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J96" s="14" t="n">
         <v>60000</v>
@@ -9761,13 +9770,13 @@
         <v>96</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,19 +9787,19 @@
         <v>20220503</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H97" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J97" s="14" t="n">
         <v>60000</v>
@@ -9814,13 +9823,13 @@
         <v>96</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9831,19 +9840,19 @@
         <v>20220517</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H98" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J98" s="14" t="n">
         <v>60000</v>
@@ -9867,13 +9876,13 @@
         <v>96</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9884,19 +9893,19 @@
         <v>20220607</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H99" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J99" s="14" t="n">
         <v>60000</v>
@@ -9920,13 +9929,13 @@
         <v>96</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y99" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9940,16 +9949,16 @@
         <v>65</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H100" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J100" s="14" t="n">
         <v>60000</v>
@@ -9973,13 +9982,13 @@
         <v>96</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y100" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,16 +10002,16 @@
         <v>65</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H101" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J101" s="14" t="n">
         <v>60000</v>
@@ -10026,13 +10035,13 @@
         <v>96</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10046,16 +10055,16 @@
         <v>65</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H102" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J102" s="14" t="n">
         <v>60000</v>
@@ -10079,13 +10088,13 @@
         <v>96</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y102" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10099,16 +10108,16 @@
         <v>65</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H103" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J103" s="14" t="n">
         <v>60000</v>
@@ -10132,13 +10141,13 @@
         <v>96</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,16 +10161,16 @@
         <v>65</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H104" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J104" s="14" t="n">
         <v>60000</v>
@@ -10185,13 +10194,13 @@
         <v>96</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,19 +10211,19 @@
         <v>20211213</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>19146</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J105" s="4" t="n">
         <v>59480</v>
@@ -10238,13 +10247,13 @@
         <v>96</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10255,19 +10264,19 @@
         <v>20211102</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H106" s="3" t="n">
         <v>16834</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J106" s="4" t="n">
         <v>53138</v>
@@ -10291,13 +10300,13 @@
         <v>96</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10308,19 +10317,19 @@
         <v>20211111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H107" s="3" t="n">
         <v>13672</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J107" s="4" t="n">
         <v>36016</v>
@@ -10344,13 +10353,13 @@
         <v>96</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y107" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,19 +10370,19 @@
         <v>20211011</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H108" s="3" t="n">
         <v>18171</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J108" s="4" t="n">
         <v>55879</v>
@@ -10397,13 +10406,13 @@
         <v>96</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y108" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10414,19 +10423,19 @@
         <v>20220120</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H109" s="3" t="n">
         <v>14606</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J109" s="4" t="n">
         <v>38939</v>
@@ -10450,13 +10459,13 @@
         <v>96</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,19 +10476,19 @@
         <v>20220211</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H110" s="3" t="n">
         <v>11091</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J110" s="4" t="n">
         <v>26561</v>
@@ -10503,13 +10512,13 @@
         <v>96</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10520,19 +10529,19 @@
         <v>20211209</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H111" s="3" t="n">
         <v>13505</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J111" s="4" t="n">
         <v>42605</v>
@@ -10556,13 +10565,13 @@
         <v>96</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10576,16 +10585,16 @@
         <v>65</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H112" s="3" t="n">
         <v>9511</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J112" s="4" t="n">
         <v>39816</v>
@@ -10609,13 +10618,13 @@
         <v>96</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y112" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10629,16 +10638,16 @@
         <v>65</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H113" s="3" t="n">
         <v>8650</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J113" s="4" t="n">
         <v>13418</v>
@@ -10662,13 +10671,13 @@
         <v>96</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y113" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10682,16 +10691,16 @@
         <v>65</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H114" s="3" t="n">
         <v>13939</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J114" s="4" t="n">
         <v>47723</v>
@@ -10715,13 +10724,13 @@
         <v>96</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10735,16 +10744,16 @@
         <v>65</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H115" s="3" t="n">
         <v>12639</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J115" s="4" t="n">
         <v>25339</v>
@@ -10768,13 +10777,13 @@
         <v>96</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10788,16 +10797,16 @@
         <v>65</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H116" s="3" t="n">
         <v>12248</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J116" s="4" t="n">
         <v>40941</v>
@@ -10821,13 +10830,13 @@
         <v>96</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y116" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10841,16 +10850,16 @@
         <v>65</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>13151</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J117" s="4" t="n">
         <v>50211</v>
@@ -10874,13 +10883,13 @@
         <v>96</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y117" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10894,16 +10903,16 @@
         <v>65</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H118" s="3" t="n">
         <v>13279</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J118" s="4" t="n">
         <v>45518</v>
@@ -10927,13 +10936,13 @@
         <v>96</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y118" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,16 +10956,16 @@
         <v>65</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H119" s="3" t="n">
         <v>19468</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J119" s="4" t="n">
         <v>57622</v>
@@ -10980,13 +10989,13 @@
         <v>96</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y119" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11000,16 +11009,16 @@
         <v>65</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H120" s="3" t="n">
         <v>17131</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J120" s="4" t="n">
         <v>57147</v>
@@ -11033,13 +11042,13 @@
         <v>96</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="417">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1185,9 +1185,27 @@
     <t xml:space="preserve">P20220006</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-H7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCTCGAGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCGAACACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SequencingFiles_4</t>
   </si>
   <si>
+    <t xml:space="preserve">20220715_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_L6_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_Counts</t>
+  </si>
+  <si>
     <t xml:space="preserve">76664_V5</t>
   </si>
   <si>
@@ -1197,31 +1215,94 @@
     <t xml:space="preserve">76661_V11</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATTGAGGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACTTACCTG</t>
+  </si>
+  <si>
     <t xml:space="preserve">76662_V11</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTCTCGATGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGCCCGACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_080</t>
   </si>
   <si>
     <t xml:space="preserve">P20220007</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCCGATGGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAGACGATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_L7_fastq</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_081</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAATCCCGAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACTACTCGG</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_082</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGGCTTGTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACAACATTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_083</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGTTGGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGAGAACGT</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_085</t>
   </si>
   <si>
     <t xml:space="preserve">P20220008</t>
   </si>
   <si>
+    <t xml:space="preserve">STARR_085_Bar</t>
+  </si>
+  <si>
     <t xml:space="preserve">P20220009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_077_10</t>
   </si>
   <si>
     <t xml:space="preserve">P20220010</t>
@@ -1398,8 +1479,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC126" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:AC126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table713252612235173" displayName="Table713252612235173" ref="A1:AC128" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:AC128"/>
   <tableColumns count="29">
     <tableColumn id="1" name="SQ_List"/>
     <tableColumn id="2" name="Sample_Date"/>
@@ -1439,17 +1520,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z77" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="F52" activeCellId="0" sqref="F52"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="AD120" activeCellId="0" sqref="AD120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.89"/>
@@ -1478,8 +1559,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="25.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="32.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="32.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="32.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="32.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="32.22"/>
@@ -1577,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1662,7 +1743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -1747,7 +1828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -1832,7 +1913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -1917,7 +1998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -2002,7 +2083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2090,7 +2171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2178,7 +2259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2266,7 +2347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -2354,7 +2435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -2442,7 +2523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -2530,7 +2611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -2613,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
@@ -2696,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -2779,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -2862,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
@@ -2945,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
@@ -3028,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
@@ -3111,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
@@ -3194,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
@@ -3282,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
@@ -3370,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
@@ -3458,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
@@ -3546,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
@@ -3634,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
@@ -3720,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
@@ -3806,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
@@ -3892,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
@@ -3978,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
@@ -4064,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
@@ -4150,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
@@ -4240,7 +4321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
@@ -4330,7 +4411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
@@ -4510,7 +4591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
@@ -4600,7 +4681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
@@ -4690,7 +4771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
@@ -4780,7 +4861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
@@ -4868,7 +4949,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
@@ -4956,7 +5037,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
@@ -5044,7 +5125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
@@ -5132,7 +5213,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
@@ -5220,7 +5301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
@@ -5308,7 +5389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
@@ -5396,7 +5477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
@@ -5484,7 +5565,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
@@ -5574,7 +5655,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
@@ -5664,7 +5745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
@@ -5752,7 +5833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
@@ -5840,7 +5921,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
@@ -6018,7 +6099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
@@ -6108,7 +6189,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
@@ -6198,7 +6279,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
@@ -6288,7 +6369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
@@ -6378,7 +6459,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
@@ -6468,7 +6549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
@@ -6558,7 +6639,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
@@ -6646,7 +6727,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
@@ -6734,7 +6815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
@@ -6824,7 +6905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
@@ -6914,7 +6995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
@@ -7004,7 +7085,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
@@ -7094,7 +7175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
@@ -7184,7 +7265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
@@ -7274,7 +7355,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
@@ -7364,7 +7445,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
@@ -7452,7 +7533,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
@@ -7540,7 +7621,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
@@ -7628,7 +7709,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
@@ -7712,7 +7793,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
@@ -7798,7 +7879,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
@@ -7884,7 +7965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
@@ -7971,7 +8052,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
@@ -8058,7 +8139,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
@@ -8145,7 +8226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
@@ -8229,7 +8310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
@@ -8313,7 +8394,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
@@ -8397,7 +8478,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
@@ -8481,7 +8562,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
@@ -8565,7 +8646,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
@@ -8649,7 +8730,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
@@ -8733,7 +8814,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
@@ -8816,7 +8897,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
@@ -8899,7 +8980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
@@ -8985,7 +9066,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
@@ -9071,7 +9152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
@@ -9157,7 +9238,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
@@ -9243,7 +9324,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
@@ -9329,7 +9410,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
@@ -9415,7 +9496,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
@@ -9501,7 +9582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
@@ -9587,7 +9668,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
@@ -9673,13 +9754,16 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>20220216</v>
       </c>
+      <c r="C95" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D95" s="2" t="s">
         <v>160</v>
       </c>
@@ -9707,6 +9791,24 @@
       <c r="M95" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N95" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S95" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="T95" s="2" t="n">
         <v>10</v>
       </c>
@@ -9723,24 +9825,39 @@
         <v>137</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>20220405</v>
       </c>
+      <c r="C96" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H96" s="14" t="n">
         <v>10000</v>
@@ -9760,6 +9877,24 @@
       <c r="M96" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N96" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S96" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="T96" s="2" t="n">
         <v>10</v>
       </c>
@@ -9776,24 +9911,39 @@
         <v>137</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>20220503</v>
       </c>
+      <c r="C97" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D97" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H97" s="14" t="n">
         <v>10000</v>
@@ -9813,6 +9963,24 @@
       <c r="M97" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N97" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S97" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="T97" s="2" t="n">
         <v>10</v>
       </c>
@@ -9829,24 +9997,39 @@
         <v>137</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA97" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>20220517</v>
       </c>
+      <c r="C98" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D98" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H98" s="14" t="n">
         <v>10000</v>
@@ -9866,6 +10049,24 @@
       <c r="M98" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N98" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S98" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="T98" s="2" t="n">
         <v>10</v>
       </c>
@@ -9882,24 +10083,39 @@
         <v>137</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z98" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA98" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC98" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>20220607</v>
       </c>
+      <c r="C99" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D99" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H99" s="14" t="n">
         <v>10000</v>
@@ -9919,6 +10135,24 @@
       <c r="M99" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N99" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S99" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="T99" s="2" t="n">
         <v>10</v>
       </c>
@@ -9935,30 +10169,45 @@
         <v>137</v>
       </c>
       <c r="Y99" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z99" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA99" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC99" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>20220517</v>
       </c>
+      <c r="C100" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D100" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H100" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J100" s="14" t="n">
         <v>60000</v>
@@ -9972,6 +10221,24 @@
       <c r="M100" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N100" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S100" s="2" t="n">
+        <v>520</v>
+      </c>
       <c r="T100" s="2" t="n">
         <v>10</v>
       </c>
@@ -9988,30 +10255,45 @@
         <v>137</v>
       </c>
       <c r="Y100" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z100" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA100" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC100" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>20220531</v>
       </c>
+      <c r="C101" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D101" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H101" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J101" s="14" t="n">
         <v>60000</v>
@@ -10025,6 +10307,24 @@
       <c r="M101" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N101" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S101" s="2" t="n">
+        <v>520</v>
+      </c>
       <c r="T101" s="2" t="n">
         <v>10</v>
       </c>
@@ -10041,30 +10341,45 @@
         <v>137</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z101" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA101" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC101" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>20220607</v>
       </c>
+      <c r="C102" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D102" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="H102" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J102" s="14" t="n">
         <v>60000</v>
@@ -10078,6 +10393,24 @@
       <c r="M102" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S102" s="2" t="n">
+        <v>520</v>
+      </c>
       <c r="T102" s="2" t="n">
         <v>10</v>
       </c>
@@ -10094,30 +10427,45 @@
         <v>137</v>
       </c>
       <c r="Y102" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA102" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC102" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>20220608</v>
       </c>
+      <c r="C103" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D103" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="H103" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J103" s="14" t="n">
         <v>60000</v>
@@ -10131,6 +10479,24 @@
       <c r="M103" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N103" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S103" s="2" t="n">
+        <v>520</v>
+      </c>
       <c r="T103" s="2" t="n">
         <v>10</v>
       </c>
@@ -10147,30 +10513,45 @@
         <v>137</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z103" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA103" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC103" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>20220622</v>
       </c>
+      <c r="C104" s="2" t="n">
+        <v>20220715</v>
+      </c>
       <c r="D104" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="H104" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J104" s="14" t="n">
         <v>60000</v>
@@ -10184,6 +10565,24 @@
       <c r="M104" s="14" t="n">
         <v>3000000000</v>
       </c>
+      <c r="N104" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S104" s="2" t="n">
+        <v>520</v>
+      </c>
       <c r="T104" s="2" t="n">
         <v>10</v>
       </c>
@@ -10200,10 +10599,22 @@
         <v>137</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="Z104" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA104" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC104" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
@@ -10223,7 +10634,7 @@
         <v>19146</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="J105" s="4" t="n">
         <v>59480</v>
@@ -10232,10 +10643,16 @@
         <v>1138804080</v>
       </c>
       <c r="L105" s="5" t="n">
-        <v>0.450879391491933</v>
+        <v>0.3892</v>
       </c>
       <c r="M105" s="4" t="n">
-        <v>2525739924</v>
+        <v>2925739924</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S105" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T105" s="2" t="n">
         <v>10</v>
@@ -10253,10 +10670,16 @@
         <v>137</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
@@ -10276,7 +10699,7 @@
         <v>16834</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="J106" s="4" t="n">
         <v>53138</v>
@@ -10285,10 +10708,16 @@
         <v>894525092</v>
       </c>
       <c r="L106" s="5" t="n">
-        <v>0.354163579353549</v>
+        <v>0.3057</v>
       </c>
       <c r="M106" s="4" t="n">
-        <v>2525739924</v>
+        <v>2925739924</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S106" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T106" s="2" t="n">
         <v>10</v>
@@ -10306,10 +10735,16 @@
         <v>137</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
@@ -10329,7 +10764,7 @@
         <v>13672</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="J107" s="4" t="n">
         <v>36016</v>
@@ -10338,10 +10773,16 @@
         <v>492410752</v>
       </c>
       <c r="L107" s="5" t="n">
-        <v>0.194957029154519</v>
+        <v>0.1683</v>
       </c>
       <c r="M107" s="4" t="n">
-        <v>2525739924</v>
+        <v>2925739924</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S107" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T107" s="2" t="n">
         <v>10</v>
@@ -10359,42 +10800,54 @@
         <v>137</v>
       </c>
       <c r="Y107" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC107" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>20211011</v>
+        <v>20220622</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>18171</v>
+        <v>10000</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="J108" s="4" t="n">
-        <v>55879</v>
+        <v>40000</v>
       </c>
       <c r="K108" s="4" t="n">
-        <v>1015377309</v>
+        <v>400000000</v>
       </c>
       <c r="L108" s="5" t="n">
-        <v>0.413749192679518</v>
+        <v>0.1367</v>
       </c>
       <c r="M108" s="4" t="n">
-        <v>2454088919</v>
+        <v>2925739924</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S108" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T108" s="2" t="n">
         <v>10</v>
@@ -10412,42 +10865,54 @@
         <v>137</v>
       </c>
       <c r="Y108" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB108" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC108" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>20220120</v>
+        <v>20211011</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>14606</v>
+        <v>18171</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>38939</v>
+        <v>55879</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>568743034</v>
+        <v>1015377309</v>
       </c>
       <c r="L109" s="5" t="n">
-        <v>0.23175323012817</v>
+        <v>0.3437</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>2454088919</v>
+        <v>2954088919</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S109" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T109" s="2" t="n">
         <v>10</v>
@@ -10465,42 +10930,54 @@
         <v>137</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC109" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>20220211</v>
+        <v>20220120</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>11091</v>
+        <v>14606</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>26561</v>
+        <v>38939</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>294588051</v>
+        <v>568743034</v>
       </c>
       <c r="L110" s="5" t="n">
-        <v>0.120039681007174</v>
+        <v>0.1925</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>2454088919</v>
+        <v>2954088919</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S110" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T110" s="2" t="n">
         <v>10</v>
@@ -10518,42 +10995,54 @@
         <v>137</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC110" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>20211209</v>
+        <v>20220211</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>13505</v>
+        <v>11091</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>42605</v>
+        <v>26561</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>575380525</v>
+        <v>294588051</v>
       </c>
       <c r="L111" s="5" t="n">
-        <v>0.234457896185138</v>
+        <v>0.0997</v>
       </c>
       <c r="M111" s="4" t="n">
-        <v>2454088919</v>
+        <v>2954088919</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S111" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T111" s="2" t="n">
         <v>10</v>
@@ -10571,42 +11060,54 @@
         <v>137</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC111" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>20211210</v>
+        <v>20211209</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>9511</v>
+        <v>13505</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="J112" s="4" t="n">
-        <v>39816</v>
+        <v>42605</v>
       </c>
       <c r="K112" s="4" t="n">
-        <v>378689976</v>
+        <v>575380525</v>
       </c>
       <c r="L112" s="5" t="n">
-        <v>0.14333477998051</v>
+        <v>0.1948</v>
       </c>
       <c r="M112" s="4" t="n">
-        <v>2641996423</v>
+        <v>2954088919</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S112" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T112" s="2" t="n">
         <v>10</v>
@@ -10624,42 +11125,54 @@
         <v>137</v>
       </c>
       <c r="Y112" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>20220311</v>
+        <v>20220616</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>8650</v>
+        <v>10000</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>13418</v>
+        <v>50000</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>116065700</v>
+        <v>500000000</v>
       </c>
       <c r="L113" s="5" t="n">
-        <v>0.0439310587211949</v>
+        <v>0.1693</v>
       </c>
       <c r="M113" s="4" t="n">
-        <v>2641996423</v>
+        <v>2954088919</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S113" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="T113" s="2" t="n">
         <v>10</v>
@@ -10677,43 +11190,55 @@
         <v>137</v>
       </c>
       <c r="Y113" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>20211111</v>
+        <v>20211210</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>13939</v>
+        <v>9511</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>47723</v>
+        <v>39816</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>665210897</v>
+        <v>378689976</v>
       </c>
       <c r="L114" s="5" t="n">
-        <v>0.251783420752951</v>
+        <v>0.14333477998051</v>
       </c>
       <c r="M114" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="R114" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S114" s="2" t="n">
+        <v>470</v>
+      </c>
       <c r="T114" s="2" t="n">
         <v>10</v>
       </c>
@@ -10730,43 +11255,55 @@
         <v>137</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB114" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC114" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>20220325</v>
+        <v>20220311</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>12639</v>
+        <v>8650</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="J115" s="4" t="n">
-        <v>25339</v>
+        <v>13418</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>320259621</v>
+        <v>116065700</v>
       </c>
       <c r="L115" s="5" t="n">
-        <v>0.121218794322342</v>
+        <v>0.0439310587211949</v>
       </c>
       <c r="M115" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="R115" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S115" s="2" t="n">
+        <v>470</v>
+      </c>
       <c r="T115" s="2" t="n">
         <v>10</v>
       </c>
@@ -10783,43 +11320,55 @@
         <v>137</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB115" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC115" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>20220428</v>
+        <v>20211111</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>12248</v>
+        <v>13939</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>40941</v>
+        <v>47723</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>501445368</v>
+        <v>665210897</v>
       </c>
       <c r="L116" s="5" t="n">
-        <v>0.189797898148025</v>
+        <v>0.251783420752951</v>
       </c>
       <c r="M116" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="R116" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S116" s="2" t="n">
+        <v>470</v>
+      </c>
       <c r="T116" s="2" t="n">
         <v>10</v>
       </c>
@@ -10836,43 +11385,55 @@
         <v>137</v>
       </c>
       <c r="Y116" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB116" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC116" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>20220505</v>
+        <v>20220325</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>13151</v>
+        <v>12639</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>50211</v>
+        <v>25339</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>660324861</v>
+        <v>320259621</v>
       </c>
       <c r="L117" s="5" t="n">
-        <v>0.249934048074977</v>
+        <v>0.121218794322342</v>
       </c>
       <c r="M117" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="R117" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S117" s="2" t="n">
+        <v>470</v>
+      </c>
       <c r="T117" s="2" t="n">
         <v>10</v>
       </c>
@@ -10889,42 +11450,54 @@
         <v>137</v>
       </c>
       <c r="Y117" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB117" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC117" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>20220304</v>
+        <v>20220428</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>13279</v>
+        <v>12248</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>45518</v>
+        <v>40941</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>604433522</v>
+        <v>501445368</v>
       </c>
       <c r="L118" s="5" t="n">
-        <v>0.223433630117804</v>
+        <v>0.189797898148025</v>
       </c>
       <c r="M118" s="4" t="n">
-        <v>2705203875</v>
+        <v>2641996423</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S118" s="2" t="n">
+        <v>470</v>
       </c>
       <c r="T118" s="2" t="n">
         <v>10</v>
@@ -10942,42 +11515,54 @@
         <v>137</v>
       </c>
       <c r="Y118" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB118" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC118" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>20220318</v>
+        <v>20220505</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>19468</v>
+        <v>13151</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>57622</v>
+        <v>50211</v>
       </c>
       <c r="K119" s="4" t="n">
-        <v>1121785096</v>
+        <v>660324861</v>
       </c>
       <c r="L119" s="5" t="n">
-        <v>0.414676729679015</v>
+        <v>0.249934048074977</v>
       </c>
       <c r="M119" s="4" t="n">
-        <v>2705203875</v>
+        <v>2641996423</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S119" s="2" t="n">
+        <v>470</v>
       </c>
       <c r="T119" s="2" t="n">
         <v>10</v>
@@ -10995,43 +11580,55 @@
         <v>137</v>
       </c>
       <c r="Y119" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>378</v>
+      </c>
+      <c r="AB119" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC119" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>20220407</v>
+        <v>20220304</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>17131</v>
+        <v>13279</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>57147</v>
+        <v>45518</v>
       </c>
       <c r="K120" s="4" t="n">
-        <v>978985257</v>
+        <v>604433522</v>
       </c>
       <c r="L120" s="5" t="n">
-        <v>0.361889640203181</v>
+        <v>0.223433630117804</v>
       </c>
       <c r="M120" s="4" t="n">
         <v>2705203875</v>
       </c>
+      <c r="R120" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S120" s="2" t="n">
+        <v>480</v>
+      </c>
       <c r="T120" s="2" t="n">
         <v>10</v>
       </c>
@@ -11048,11 +11645,147 @@
         <v>137</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="AB120" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC120" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>20220318</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>19468</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J121" s="4" t="n">
+        <v>57622</v>
+      </c>
+      <c r="K121" s="4" t="n">
+        <v>1121785096</v>
+      </c>
+      <c r="L121" s="5" t="n">
+        <v>0.414676729679015</v>
+      </c>
+      <c r="M121" s="4" t="n">
+        <v>2705203875</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S121" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="T121" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U121" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y121" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB121" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>20220407</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>17131</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J122" s="4" t="n">
+        <v>57147</v>
+      </c>
+      <c r="K122" s="4" t="n">
+        <v>978985257</v>
+      </c>
+      <c r="L122" s="5" t="n">
+        <v>0.361889640203181</v>
+      </c>
+      <c r="M122" s="4" t="n">
+        <v>2705203875</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S122" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="T122" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U122" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y122" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB122" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="421">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1296,6 +1296,15 @@
     <t xml:space="preserve">P20220008</t>
   </si>
   <si>
+    <t xml:space="preserve">index2_workflow_b(i5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220716_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220716_fastq</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_085_Bar</t>
   </si>
   <si>
@@ -1309,6 +1318,9 @@
   </si>
   <si>
     <t xml:space="preserve">P20220011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-H12</t>
   </si>
 </sst>
 </file>
@@ -1523,11 +1535,11 @@
   <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="AD120" activeCellId="0" sqref="AD120"/>
+      <selection pane="bottomRight" activeCell="E96" activeCellId="0" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10621,6 +10633,9 @@
       <c r="B105" s="1" t="n">
         <v>20211213</v>
       </c>
+      <c r="C105" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>160</v>
       </c>
@@ -10648,6 +10663,18 @@
       <c r="M105" s="4" t="n">
         <v>2925739924</v>
       </c>
+      <c r="N105" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="R105" s="2" t="n">
         <v>3.2</v>
       </c>
@@ -10671,6 +10698,12 @@
       </c>
       <c r="Y105" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z105" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA105" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB105" s="1" t="s">
         <v>381</v>
@@ -10686,6 +10719,9 @@
       <c r="B106" s="1" t="n">
         <v>20211102</v>
       </c>
+      <c r="C106" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D106" s="2" t="s">
         <v>160</v>
       </c>
@@ -10713,6 +10749,18 @@
       <c r="M106" s="4" t="n">
         <v>2925739924</v>
       </c>
+      <c r="N106" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="R106" s="2" t="n">
         <v>3.2</v>
       </c>
@@ -10736,6 +10784,12 @@
       </c>
       <c r="Y106" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA106" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB106" s="1" t="s">
         <v>381</v>
@@ -10751,6 +10805,9 @@
       <c r="B107" s="1" t="n">
         <v>20211111</v>
       </c>
+      <c r="C107" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D107" s="2" t="s">
         <v>160</v>
       </c>
@@ -10778,6 +10835,18 @@
       <c r="M107" s="4" t="n">
         <v>2925739924</v>
       </c>
+      <c r="N107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="R107" s="2" t="n">
         <v>3.2</v>
       </c>
@@ -10801,6 +10870,12 @@
       </c>
       <c r="Y107" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z107" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA107" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB107" s="1" t="s">
         <v>381</v>
@@ -10816,14 +10891,17 @@
       <c r="B108" s="1" t="n">
         <v>20220622</v>
       </c>
+      <c r="C108" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D108" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H108" s="3" t="n">
         <v>10000</v>
@@ -10843,6 +10921,18 @@
       <c r="M108" s="4" t="n">
         <v>2925739924</v>
       </c>
+      <c r="N108" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="R108" s="2" t="n">
         <v>3.2</v>
       </c>
@@ -10866,6 +10956,12 @@
       </c>
       <c r="Y108" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z108" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA108" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB108" s="1" t="s">
         <v>381</v>
@@ -10881,6 +10977,9 @@
       <c r="B109" s="1" t="n">
         <v>20211011</v>
       </c>
+      <c r="C109" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D109" s="2" t="s">
         <v>160</v>
       </c>
@@ -10894,7 +10993,7 @@
         <v>18171</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J109" s="4" t="n">
         <v>55879</v>
@@ -10908,6 +11007,18 @@
       <c r="M109" s="4" t="n">
         <v>2954088919</v>
       </c>
+      <c r="N109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="R109" s="2" t="n">
         <v>2.97</v>
       </c>
@@ -10931,6 +11042,12 @@
       </c>
       <c r="Y109" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA109" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB109" s="1" t="s">
         <v>381</v>
@@ -10946,6 +11063,9 @@
       <c r="B110" s="1" t="n">
         <v>20220120</v>
       </c>
+      <c r="C110" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D110" s="2" t="s">
         <v>160</v>
       </c>
@@ -10959,7 +11079,7 @@
         <v>14606</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J110" s="4" t="n">
         <v>38939</v>
@@ -10973,6 +11093,18 @@
       <c r="M110" s="4" t="n">
         <v>2954088919</v>
       </c>
+      <c r="N110" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="R110" s="2" t="n">
         <v>2.97</v>
       </c>
@@ -10996,6 +11128,12 @@
       </c>
       <c r="Y110" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z110" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA110" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB110" s="1" t="s">
         <v>381</v>
@@ -11011,6 +11149,9 @@
       <c r="B111" s="1" t="n">
         <v>20220211</v>
       </c>
+      <c r="C111" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D111" s="2" t="s">
         <v>160</v>
       </c>
@@ -11024,7 +11165,7 @@
         <v>11091</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J111" s="4" t="n">
         <v>26561</v>
@@ -11038,6 +11179,18 @@
       <c r="M111" s="4" t="n">
         <v>2954088919</v>
       </c>
+      <c r="N111" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="R111" s="2" t="n">
         <v>2.97</v>
       </c>
@@ -11061,6 +11214,12 @@
       </c>
       <c r="Y111" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z111" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA111" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB111" s="1" t="s">
         <v>381</v>
@@ -11076,6 +11235,9 @@
       <c r="B112" s="1" t="n">
         <v>20211209</v>
       </c>
+      <c r="C112" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D112" s="2" t="s">
         <v>160</v>
       </c>
@@ -11089,7 +11251,7 @@
         <v>13505</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J112" s="4" t="n">
         <v>42605</v>
@@ -11103,6 +11265,18 @@
       <c r="M112" s="4" t="n">
         <v>2954088919</v>
       </c>
+      <c r="N112" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="R112" s="2" t="n">
         <v>2.97</v>
       </c>
@@ -11126,6 +11300,12 @@
       </c>
       <c r="Y112" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z112" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA112" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB112" s="1" t="s">
         <v>381</v>
@@ -11141,20 +11321,23 @@
       <c r="B113" s="1" t="n">
         <v>20220616</v>
       </c>
+      <c r="C113" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D113" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H113" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J113" s="4" t="n">
         <v>50000</v>
@@ -11168,6 +11351,18 @@
       <c r="M113" s="4" t="n">
         <v>2954088919</v>
       </c>
+      <c r="N113" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="R113" s="2" t="n">
         <v>2.97</v>
       </c>
@@ -11191,6 +11386,12 @@
       </c>
       <c r="Y113" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z113" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA113" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB113" s="1" t="s">
         <v>381</v>
@@ -11206,6 +11407,9 @@
       <c r="B114" s="1" t="n">
         <v>20211210</v>
       </c>
+      <c r="C114" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D114" s="2" t="s">
         <v>65</v>
       </c>
@@ -11219,7 +11423,7 @@
         <v>9511</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J114" s="4" t="n">
         <v>39816</v>
@@ -11233,6 +11437,18 @@
       <c r="M114" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N114" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="R114" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11256,6 +11472,12 @@
       </c>
       <c r="Y114" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z114" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA114" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB114" s="1" t="s">
         <v>381</v>
@@ -11271,6 +11493,9 @@
       <c r="B115" s="1" t="n">
         <v>20220311</v>
       </c>
+      <c r="C115" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D115" s="2" t="s">
         <v>65</v>
       </c>
@@ -11284,7 +11509,7 @@
         <v>8650</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J115" s="4" t="n">
         <v>13418</v>
@@ -11298,6 +11523,18 @@
       <c r="M115" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N115" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="R115" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11321,6 +11558,12 @@
       </c>
       <c r="Y115" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z115" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA115" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB115" s="1" t="s">
         <v>381</v>
@@ -11336,6 +11579,9 @@
       <c r="B116" s="1" t="n">
         <v>20211111</v>
       </c>
+      <c r="C116" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D116" s="2" t="s">
         <v>65</v>
       </c>
@@ -11349,7 +11595,7 @@
         <v>13939</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J116" s="4" t="n">
         <v>47723</v>
@@ -11363,6 +11609,18 @@
       <c r="M116" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N116" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="R116" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11386,6 +11644,12 @@
       </c>
       <c r="Y116" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z116" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA116" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB116" s="1" t="s">
         <v>381</v>
@@ -11401,6 +11665,9 @@
       <c r="B117" s="1" t="n">
         <v>20220325</v>
       </c>
+      <c r="C117" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D117" s="2" t="s">
         <v>65</v>
       </c>
@@ -11414,7 +11681,7 @@
         <v>12639</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J117" s="4" t="n">
         <v>25339</v>
@@ -11428,6 +11695,18 @@
       <c r="M117" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N117" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="R117" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11451,6 +11730,12 @@
       </c>
       <c r="Y117" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z117" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA117" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB117" s="1" t="s">
         <v>381</v>
@@ -11466,6 +11751,9 @@
       <c r="B118" s="1" t="n">
         <v>20220428</v>
       </c>
+      <c r="C118" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D118" s="2" t="s">
         <v>65</v>
       </c>
@@ -11479,7 +11767,7 @@
         <v>12248</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J118" s="4" t="n">
         <v>40941</v>
@@ -11493,6 +11781,18 @@
       <c r="M118" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="R118" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11516,6 +11816,12 @@
       </c>
       <c r="Y118" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z118" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA118" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB118" s="1" t="s">
         <v>381</v>
@@ -11531,6 +11837,9 @@
       <c r="B119" s="1" t="n">
         <v>20220505</v>
       </c>
+      <c r="C119" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D119" s="2" t="s">
         <v>65</v>
       </c>
@@ -11544,7 +11853,7 @@
         <v>13151</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J119" s="4" t="n">
         <v>50211</v>
@@ -11558,6 +11867,18 @@
       <c r="M119" s="4" t="n">
         <v>2641996423</v>
       </c>
+      <c r="N119" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="R119" s="2" t="n">
         <v>3.27</v>
       </c>
@@ -11581,6 +11902,12 @@
       </c>
       <c r="Y119" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z119" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA119" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB119" s="1" t="s">
         <v>381</v>
@@ -11596,6 +11923,9 @@
       <c r="B120" s="1" t="n">
         <v>20220304</v>
       </c>
+      <c r="C120" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D120" s="2" t="s">
         <v>65</v>
       </c>
@@ -11609,7 +11939,7 @@
         <v>13279</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J120" s="4" t="n">
         <v>45518</v>
@@ -11623,6 +11953,18 @@
       <c r="M120" s="4" t="n">
         <v>2705203875</v>
       </c>
+      <c r="N120" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="R120" s="2" t="n">
         <v>3.23</v>
       </c>
@@ -11646,6 +11988,12 @@
       </c>
       <c r="Y120" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z120" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA120" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB120" s="1" t="s">
         <v>381</v>
@@ -11661,6 +12009,9 @@
       <c r="B121" s="1" t="n">
         <v>20220318</v>
       </c>
+      <c r="C121" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D121" s="2" t="s">
         <v>65</v>
       </c>
@@ -11674,7 +12025,7 @@
         <v>19468</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J121" s="4" t="n">
         <v>57622</v>
@@ -11688,6 +12039,18 @@
       <c r="M121" s="4" t="n">
         <v>2705203875</v>
       </c>
+      <c r="N121" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="R121" s="2" t="n">
         <v>3.23</v>
       </c>
@@ -11711,6 +12074,12 @@
       </c>
       <c r="Y121" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z121" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA121" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB121" s="1" t="s">
         <v>381</v>
@@ -11726,6 +12095,9 @@
       <c r="B122" s="1" t="n">
         <v>20220407</v>
       </c>
+      <c r="C122" s="2" t="n">
+        <v>20220716</v>
+      </c>
       <c r="D122" s="2" t="s">
         <v>65</v>
       </c>
@@ -11739,7 +12111,7 @@
         <v>17131</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J122" s="4" t="n">
         <v>57147</v>
@@ -11753,6 +12125,18 @@
       <c r="M122" s="4" t="n">
         <v>2705203875</v>
       </c>
+      <c r="N122" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="R122" s="2" t="n">
         <v>3.23</v>
       </c>
@@ -11776,6 +12160,12 @@
       </c>
       <c r="Y122" s="2" t="s">
         <v>378</v>
+      </c>
+      <c r="Z122" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA122" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="AB122" s="1" t="s">
         <v>381</v>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1547,10 +1547,10 @@
   <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E126" activeCellId="0" sqref="E126"/>
     </sheetView>
   </sheetViews>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -1547,11 +1547,11 @@
   <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="X80" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E126" activeCellId="0" sqref="E126"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="AB124" activeCellId="0" sqref="AB124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10646,7 +10646,7 @@
         <v>20211213</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>160</v>
@@ -10732,7 +10732,7 @@
         <v>20211102</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>160</v>
@@ -10818,7 +10818,7 @@
         <v>20211111</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>160</v>
@@ -10904,7 +10904,7 @@
         <v>20220622</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>65</v>
@@ -10990,7 +10990,7 @@
         <v>20211011</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>160</v>
@@ -11076,7 +11076,7 @@
         <v>20220120</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>160</v>
@@ -11162,7 +11162,7 @@
         <v>20220211</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>160</v>
@@ -11248,7 +11248,7 @@
         <v>20211209</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>160</v>
@@ -11334,7 +11334,7 @@
         <v>20220616</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>20200718</v>
+        <v>20220718</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>65</v>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="431">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -265,6 +265,9 @@
     <t xml:space="preserve">11 nM</t>
   </si>
   <si>
+    <t xml:space="preserve">SequencingFiles_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">20190717_NextSeq_cbcl</t>
   </si>
   <si>
@@ -517,9 +520,6 @@
     <t xml:space="preserve">GACAGCAT,TTTGTACA,AGGCCGTG,CCATATGC</t>
   </si>
   <si>
-    <t xml:space="preserve">Seagate_SequencingFiles_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">20210126_UTA_NovaSeq_L3_fastq</t>
   </si>
   <si>
@@ -589,6 +589,9 @@
     <t xml:space="preserve">AGAAACACAA</t>
   </si>
   <si>
+    <t xml:space="preserve">SequencingFiles_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">20210716_UTA_NovaSeq_L1_L2_cbcl</t>
   </si>
   <si>
@@ -847,9 +850,6 @@
     <t xml:space="preserve">P101521</t>
   </si>
   <si>
-    <t xml:space="preserve">SequencingFiles_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">20211105_UTA_L3_L4_cbcl</t>
   </si>
   <si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t xml:space="preserve">20220722_L11_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_6</t>
   </si>
   <si>
     <t xml:space="preserve">20220801_L1_L2_cbcl</t>
@@ -1549,11 +1552,11 @@
   <dimension ref="A1:AD129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Y89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="W86" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
-      <selection pane="bottomRight" activeCell="Y124" activeCellId="0" sqref="Y124"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="AA128" activeCellId="0" sqref="AA128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2188,16 +2191,16 @@
         <v>42</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>44</v>
@@ -2217,13 +2220,13 @@
         <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="14" t="n">
         <v>10000</v>
@@ -2245,10 +2248,10 @@
         <v>180000000</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>37</v>
@@ -2279,16 +2282,16 @@
         <v>42</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>44</v>
@@ -2305,16 +2308,16 @@
         <v>20190717</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" s="14" t="n">
         <v>10000</v>
@@ -2336,10 +2339,10 @@
         <v>180000000</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>37</v>
@@ -2370,16 +2373,16 @@
         <v>42</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>44</v>
@@ -2396,16 +2399,16 @@
         <v>20190717</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="14" t="n">
         <v>10000</v>
@@ -2427,10 +2430,10 @@
         <v>180000000</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>37</v>
@@ -2461,16 +2464,16 @@
         <v>42</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>44</v>
@@ -2487,16 +2490,16 @@
         <v>20190717</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" s="14" t="n">
         <v>10000</v>
@@ -2518,10 +2521,10 @@
         <v>180000000</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>37</v>
@@ -2552,16 +2555,16 @@
         <v>42</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>44</v>
@@ -2578,16 +2581,16 @@
         <v>20190717</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="14" t="n">
         <v>10000</v>
@@ -2609,10 +2612,10 @@
         <v>180000000</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>37</v>
@@ -2643,16 +2646,16 @@
         <v>42</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>44</v>
@@ -2717,25 +2720,25 @@
         <v>45</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD13" s="2" t="n">
         <v>1</v>
@@ -2800,25 +2803,25 @@
         <v>45</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD14" s="2" t="n">
         <v>1</v>
@@ -2883,25 +2886,25 @@
         <v>45</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD15" s="2" t="n">
         <v>1</v>
@@ -2966,25 +2969,25 @@
         <v>45</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD16" s="2" t="n">
         <v>1</v>
@@ -3007,7 +3010,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>63</v>
@@ -3049,25 +3052,25 @@
         <v>45</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD17" s="2" t="n">
         <v>1</v>
@@ -3132,25 +3135,25 @@
         <v>20</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD18" s="2" t="n">
         <v>1</v>
@@ -3170,13 +3173,13 @@
         <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="14" t="n">
         <v>10000</v>
@@ -3195,10 +3198,10 @@
         <v>2650000000</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>37</v>
@@ -3215,25 +3218,25 @@
         <v>45</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD19" s="2" t="n">
         <v>1</v>
@@ -3253,13 +3256,13 @@
         <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" s="14" t="n">
         <v>10000</v>
@@ -3278,10 +3281,10 @@
         <v>2650000000</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>37</v>
@@ -3298,25 +3301,25 @@
         <v>20</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD20" s="2" t="n">
         <v>1</v>
@@ -3333,22 +3336,22 @@
         <v>20191121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="14" t="n">
         <v>50000</v>
@@ -3364,10 +3367,10 @@
         <v>2341200000</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>37</v>
@@ -3386,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD21" s="2" t="n">
         <v>1</v>
@@ -3421,22 +3424,22 @@
         <v>20191121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" s="14" t="n">
         <v>50000</v>
@@ -3452,10 +3455,10 @@
         <v>2341200000</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>37</v>
@@ -3474,25 +3477,25 @@
         <v>40</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>1</v>
@@ -3509,22 +3512,22 @@
         <v>20191121</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J23" s="14" t="n">
         <v>50000</v>
@@ -3540,10 +3543,10 @@
         <v>2341200000</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>37</v>
@@ -3562,25 +3565,25 @@
         <v>40</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD23" s="2" t="n">
         <v>1</v>
@@ -3597,22 +3600,22 @@
         <v>20191121</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" s="14" t="n">
         <v>50000</v>
@@ -3628,10 +3631,10 @@
         <v>2341200000</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>37</v>
@@ -3650,25 +3653,25 @@
         <v>40</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD24" s="2" t="n">
         <v>1</v>
@@ -3691,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>63</v>
@@ -3700,7 +3703,7 @@
         <v>4824</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" s="14" t="n">
         <v>50000</v>
@@ -3738,25 +3741,25 @@
         <v>40</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD25" s="2" t="n">
         <v>1</v>
@@ -3776,17 +3779,17 @@
         <v>66</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" s="14" t="n">
         <v>10000</v>
@@ -3802,10 +3805,10 @@
         <v>2341200000</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>37</v>
@@ -3824,25 +3827,25 @@
         <v>40</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD26" s="2" t="n">
         <v>1</v>
@@ -3862,17 +3865,17 @@
         <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="14" t="n">
         <v>50000</v>
@@ -3888,10 +3891,10 @@
         <v>2500010000</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>37</v>
@@ -3910,25 +3913,25 @@
         <v>40</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD27" s="2" t="n">
         <v>2</v>
@@ -3948,17 +3951,17 @@
         <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J28" s="14" t="n">
         <v>50000</v>
@@ -3974,10 +3977,10 @@
         <v>2500010000</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>37</v>
@@ -3996,25 +3999,25 @@
         <v>40</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD28" s="2" t="n">
         <v>2</v>
@@ -4034,17 +4037,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J29" s="14" t="n">
         <v>50000</v>
@@ -4060,10 +4063,10 @@
         <v>2500010000</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>37</v>
@@ -4082,25 +4085,25 @@
         <v>40</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD29" s="2" t="n">
         <v>2</v>
@@ -4120,17 +4123,17 @@
         <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J30" s="14" t="n">
         <v>50000</v>
@@ -4146,10 +4149,10 @@
         <v>2500010000</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>37</v>
@@ -4168,25 +4171,25 @@
         <v>40</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD30" s="2" t="n">
         <v>2</v>
@@ -4206,17 +4209,17 @@
         <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J31" s="14" t="n">
         <v>50001</v>
@@ -4232,10 +4235,10 @@
         <v>2500010000</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>37</v>
@@ -4254,25 +4257,25 @@
         <v>40</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD31" s="2" t="n">
         <v>2</v>
@@ -4292,19 +4295,19 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H32" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J32" s="14" t="n">
         <v>90000000</v>
@@ -4320,10 +4323,10 @@
         <v>2700000000</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>37</v>
@@ -4344,31 +4347,31 @@
         <v>80</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,19 +4388,19 @@
         <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H33" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J33" s="14" t="n">
         <v>90000000</v>
@@ -4413,10 +4416,10 @@
         <v>2700000000</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>37</v>
@@ -4437,31 +4440,31 @@
         <v>80</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,19 +4481,19 @@
         <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H34" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J34" s="14" t="n">
         <v>90000000</v>
@@ -4506,10 +4509,10 @@
         <v>2700000000</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>37</v>
@@ -4530,31 +4533,31 @@
         <v>80</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,19 +4574,19 @@
         <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H35" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J35" s="14" t="n">
         <v>75000</v>
@@ -4599,10 +4602,10 @@
         <v>3000000000</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>37</v>
@@ -4623,16 +4626,16 @@
         <v>50</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AB35" s="2" t="s">
         <v>158</v>
@@ -4641,7 +4644,7 @@
         <v>159</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,7 +4673,7 @@
         <v>10000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J36" s="14" t="n">
         <v>75000</v>
@@ -4710,16 +4713,16 @@
         <v>50</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AB36" s="2" t="s">
         <v>158</v>
@@ -4728,7 +4731,7 @@
         <v>159</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4760,7 @@
         <v>10000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J37" s="14" t="n">
         <v>75000000</v>
@@ -4797,16 +4800,16 @@
         <v>50</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>158</v>
@@ -4815,7 +4818,7 @@
         <v>159</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,7 +4847,7 @@
         <v>10000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J38" s="14" t="n">
         <v>75000000</v>
@@ -4884,16 +4887,16 @@
         <v>50</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>158</v>
@@ -4902,7 +4905,7 @@
         <v>159</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,31 +4972,31 @@
         <v>50</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,10 +5013,10 @@
         <v>175</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="14" t="n">
@@ -5036,16 +5039,16 @@
         <v>3000000000</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O40" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="P40" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="Q40" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>3</v>
@@ -5060,31 +5063,31 @@
         <v>50</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,10 +5104,10 @@
         <v>175</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="14" t="n">
@@ -5127,16 +5130,16 @@
         <v>3000000000</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="Q41" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>3</v>
@@ -5151,31 +5154,31 @@
         <v>50</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,10 +5195,10 @@
         <v>175</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="14" t="n">
@@ -5218,16 +5221,16 @@
         <v>3000000000</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="Q42" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>3</v>
@@ -5242,31 +5245,31 @@
         <v>50</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,10 +5286,10 @@
         <v>175</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="14" t="n">
@@ -5309,10 +5312,10 @@
         <v>3000000000</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>37</v>
@@ -5333,31 +5336,31 @@
         <v>50</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,10 +5377,10 @@
         <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="14" t="n">
@@ -5400,10 +5403,10 @@
         <v>3000000000</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>37</v>
@@ -5424,31 +5427,31 @@
         <v>50</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,10 +5468,10 @@
         <v>175</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="14" t="n">
@@ -5491,10 +5494,10 @@
         <v>3000000000</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>37</v>
@@ -5515,31 +5518,31 @@
         <v>50</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,10 +5559,10 @@
         <v>175</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="14" t="n">
@@ -5582,10 +5585,10 @@
         <v>3000000000</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>37</v>
@@ -5606,31 +5609,31 @@
         <v>50</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,19 +5650,19 @@
         <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H47" s="14" t="n">
         <v>17925</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J47" s="14" t="n">
         <v>50000</v>
@@ -5675,10 +5678,10 @@
         <v>2992170000</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>37</v>
@@ -5699,31 +5702,31 @@
         <v>50</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,7 +5746,7 @@
         <v>167</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>168</v>
@@ -5752,7 +5755,7 @@
         <v>8674</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J48" s="14" t="n">
         <v>30000</v>
@@ -5792,31 +5795,31 @@
         <v>50</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,17 +5836,17 @@
         <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="14" t="n">
         <v>8714</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J49" s="14" t="n">
         <v>50000</v>
@@ -5859,10 +5862,10 @@
         <v>2992170000</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>37</v>
@@ -5883,31 +5886,31 @@
         <v>50</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5924,17 +5927,17 @@
         <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J50" s="14" t="n">
         <v>70000</v>
@@ -5950,10 +5953,10 @@
         <v>2992170000</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>37</v>
@@ -5974,31 +5977,31 @@
         <v>50</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,17 +6018,17 @@
         <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J51" s="14" t="n">
         <v>70000</v>
@@ -6041,10 +6044,10 @@
         <v>2992170000</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>37</v>
@@ -6065,31 +6068,31 @@
         <v>50</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,19 +6109,19 @@
         <v>160</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H52" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J52" s="14" t="n">
         <v>42800</v>
@@ -6134,16 +6137,16 @@
         <v>2996000000</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="Q52" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R52" s="4" t="n">
         <v>2.84</v>
@@ -6158,31 +6161,31 @@
         <v>50</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,19 +6202,19 @@
         <v>160</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H53" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J53" s="14" t="n">
         <v>42800</v>
@@ -6227,16 +6230,16 @@
         <v>2996000000</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="Q53" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R53" s="4" t="n">
         <v>2.84</v>
@@ -6251,31 +6254,31 @@
         <v>50</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,19 +6295,19 @@
         <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H54" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J54" s="14" t="n">
         <v>42800</v>
@@ -6320,16 +6323,16 @@
         <v>2996000000</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O54" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="Q54" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R54" s="4" t="n">
         <v>2.84</v>
@@ -6344,31 +6347,31 @@
         <v>50</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,19 +6388,19 @@
         <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H55" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J55" s="14" t="n">
         <v>42800</v>
@@ -6413,16 +6416,16 @@
         <v>2996000000</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P55" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="Q55" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R55" s="4" t="n">
         <v>2.84</v>
@@ -6437,31 +6440,31 @@
         <v>50</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA55" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,19 +6481,19 @@
         <v>160</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H56" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J56" s="14" t="n">
         <v>42800</v>
@@ -6506,16 +6509,16 @@
         <v>2996000000</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="Q56" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R56" s="4" t="n">
         <v>2.84</v>
@@ -6530,31 +6533,31 @@
         <v>50</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,19 +6574,19 @@
         <v>160</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H57" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J57" s="14" t="n">
         <v>42800</v>
@@ -6599,16 +6602,16 @@
         <v>2996000000</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O57" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P57" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P57" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="Q57" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R57" s="4" t="n">
         <v>2.84</v>
@@ -6623,31 +6626,31 @@
         <v>50</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,19 +6667,19 @@
         <v>160</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H58" s="14" t="n">
         <v>10000</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J58" s="14" t="n">
         <v>42800</v>
@@ -6692,16 +6695,16 @@
         <v>2996000000</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O58" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P58" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="P58" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="Q58" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R58" s="4" t="n">
         <v>2.84</v>
@@ -6716,31 +6719,31 @@
         <v>50</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W58" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,17 +6760,17 @@
         <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="14" t="n">
         <v>8410</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J59" s="14" t="n">
         <v>28640</v>
@@ -6783,10 +6786,10 @@
         <v>3074024350</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>37</v>
@@ -6807,19 +6810,19 @@
         <v>25</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA59" s="2" t="s">
         <v>268</v>
@@ -6831,7 +6834,7 @@
         <v>270</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,17 +6851,17 @@
         <v>66</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="14" t="n">
         <v>8464</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J60" s="14" t="n">
         <v>35280</v>
@@ -6874,10 +6877,10 @@
         <v>3074024350</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>37</v>
@@ -6898,19 +6901,19 @@
         <v>25</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA60" s="2" t="s">
         <v>268</v>
@@ -6922,7 +6925,7 @@
         <v>270</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,19 +6942,19 @@
         <v>160</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>271</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H61" s="14" t="n">
         <v>6367</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J61" s="14" t="n">
         <v>43457</v>
@@ -6967,16 +6970,16 @@
         <v>3074024350</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P61" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="P61" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="Q61" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R61" s="4" t="n">
         <v>3.26</v>
@@ -6991,19 +6994,19 @@
         <v>25</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA61" s="2" t="s">
         <v>268</v>
@@ -7015,7 +7018,7 @@
         <v>270</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,19 +7035,19 @@
         <v>160</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H62" s="14" t="n">
         <v>3870</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J62" s="14" t="n">
         <v>8371</v>
@@ -7060,16 +7063,16 @@
         <v>3074024350</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O62" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P62" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="Q62" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R62" s="4" t="n">
         <v>3.26</v>
@@ -7084,19 +7087,19 @@
         <v>25</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA62" s="2" t="s">
         <v>268</v>
@@ -7108,7 +7111,7 @@
         <v>270</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,19 +7128,19 @@
         <v>160</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H63" s="14" t="n">
         <v>11600</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J63" s="14" t="n">
         <v>58583</v>
@@ -7153,16 +7156,16 @@
         <v>3074024350</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O63" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P63" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="P63" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="Q63" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R63" s="4" t="n">
         <v>3.26</v>
@@ -7177,19 +7180,19 @@
         <v>25</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA63" s="2" t="s">
         <v>268</v>
@@ -7201,7 +7204,7 @@
         <v>270</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,19 +7221,19 @@
         <v>66</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H64" s="14" t="n">
         <v>9287</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J64" s="14" t="n">
         <v>65607</v>
@@ -7246,16 +7249,16 @@
         <v>3074024350</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O64" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="P64" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P64" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="Q64" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R64" s="4" t="n">
         <v>3.26</v>
@@ -7270,19 +7273,19 @@
         <v>25</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA64" s="2" t="s">
         <v>268</v>
@@ -7294,7 +7297,7 @@
         <v>270</v>
       </c>
       <c r="AD64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,19 +7314,19 @@
         <v>160</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>275</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H65" s="14" t="n">
         <v>14332</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J65" s="14" t="n">
         <v>65351</v>
@@ -7339,16 +7342,16 @@
         <v>3074024350</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O65" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="Q65" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R65" s="4" t="n">
         <v>3.26</v>
@@ -7363,19 +7366,19 @@
         <v>25</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA65" s="2" t="s">
         <v>268</v>
@@ -7387,7 +7390,7 @@
         <v>270</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,13 +7407,13 @@
         <v>160</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H66" s="14" t="n">
         <v>14491</v>
@@ -7432,16 +7435,16 @@
         <v>3084510832</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P66" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="Q66" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R66" s="4" t="n">
         <v>8.34</v>
@@ -7456,19 +7459,19 @@
         <v>25</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA66" s="2" t="s">
         <v>268</v>
@@ -7497,13 +7500,13 @@
         <v>160</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H67" s="14" t="n">
         <v>7769</v>
@@ -7525,16 +7528,16 @@
         <v>3084510832</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O67" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P67" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="P67" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="Q67" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R67" s="4" t="n">
         <v>7.11</v>
@@ -7549,19 +7552,19 @@
         <v>25</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA67" s="2" t="s">
         <v>268</v>
@@ -7640,19 +7643,19 @@
         <v>30</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>268</v>
@@ -7731,19 +7734,19 @@
         <v>30</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y69" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA69" s="2" t="s">
         <v>268</v>
@@ -7822,19 +7825,19 @@
         <v>30</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W70" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA70" s="2" t="s">
         <v>268</v>
@@ -7863,10 +7866,10 @@
         <v>66</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="14" t="n">
@@ -7889,10 +7892,10 @@
         <v>2954800000</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P71" s="4" t="s">
         <v>37</v>
@@ -7909,19 +7912,19 @@
         <v>20</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA71" s="2" t="s">
         <v>293</v>
@@ -7933,7 +7936,7 @@
         <v>295</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,19 +8001,19 @@
         <v>20</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA72" s="2" t="s">
         <v>293</v>
@@ -8022,7 +8025,7 @@
         <v>295</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8087,19 +8090,19 @@
         <v>20</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA73" s="2" t="s">
         <v>293</v>
@@ -8111,7 +8114,7 @@
         <v>295</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,19 +8180,19 @@
         <v>20</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA74" s="2" t="s">
         <v>293</v>
@@ -8201,7 +8204,7 @@
         <v>295</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,16 +8246,16 @@
         <v>2954800000</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O75" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P75" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="P75" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="Q75" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R75" s="4" t="n">
         <v>5.24</v>
@@ -8267,19 +8270,19 @@
         <v>20</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA75" s="2" t="s">
         <v>293</v>
@@ -8291,7 +8294,7 @@
         <v>295</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,19 +8360,19 @@
         <v>20</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA76" s="2" t="s">
         <v>293</v>
@@ -8381,7 +8384,7 @@
         <v>295</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,16 +8450,16 @@
         <v>30</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB77" s="2" t="s">
         <v>314</v>
@@ -8465,7 +8468,7 @@
         <v>315</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,16 +8534,16 @@
         <v>30</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB78" s="2" t="s">
         <v>314</v>
@@ -8549,7 +8552,7 @@
         <v>315</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,16 +8594,16 @@
         <v>2800000000</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P79" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="P79" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="Q79" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R79" s="4" t="n">
         <v>2.83</v>
@@ -8615,16 +8618,16 @@
         <v>30</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB79" s="2" t="s">
         <v>314</v>
@@ -8633,7 +8636,7 @@
         <v>315</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,16 +8702,16 @@
         <v>30</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>314</v>
@@ -8717,7 +8720,7 @@
         <v>315</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,16 +8786,16 @@
         <v>30</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>330</v>
@@ -8801,7 +8804,7 @@
         <v>315</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8867,16 +8870,16 @@
         <v>30</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y82" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB82" s="2" t="s">
         <v>330</v>
@@ -8885,7 +8888,7 @@
         <v>315</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8951,16 +8954,16 @@
         <v>30</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB83" s="2" t="s">
         <v>330</v>
@@ -8969,7 +8972,7 @@
         <v>315</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9034,16 +9037,16 @@
         <v>30</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y84" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB84" s="2" t="s">
         <v>330</v>
@@ -9052,7 +9055,7 @@
         <v>315</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,16 +9120,16 @@
         <v>30</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>330</v>
@@ -9135,7 +9138,7 @@
         <v>315</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,19 +9203,19 @@
         <v>30</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y86" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA86" s="2" t="s">
         <v>293</v>
@@ -9224,7 +9227,7 @@
         <v>315</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,19 +9292,19 @@
         <v>30</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA87" s="2" t="s">
         <v>293</v>
@@ -9313,7 +9316,7 @@
         <v>315</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9378,19 +9381,19 @@
         <v>30</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA88" s="2" t="s">
         <v>293</v>
@@ -9402,7 +9405,7 @@
         <v>315</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,19 +9470,19 @@
         <v>30</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z89" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA89" s="2" t="s">
         <v>293</v>
@@ -9491,7 +9494,7 @@
         <v>315</v>
       </c>
       <c r="AD89" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,19 +9559,19 @@
         <v>30</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z90" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA90" s="2" t="s">
         <v>293</v>
@@ -9580,7 +9583,7 @@
         <v>315</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9645,19 +9648,19 @@
         <v>30</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z91" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA91" s="2" t="s">
         <v>293</v>
@@ -9669,7 +9672,7 @@
         <v>315</v>
       </c>
       <c r="AD91" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9710,16 +9713,16 @@
         <v>3000000000</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O92" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P92" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="P92" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="Q92" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R92" s="2" t="n">
         <v>3.21</v>
@@ -9734,19 +9737,19 @@
         <v>30</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z92" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA92" s="2" t="s">
         <v>293</v>
@@ -9758,7 +9761,7 @@
         <v>315</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9823,19 +9826,19 @@
         <v>30</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z93" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA93" s="2" t="s">
         <v>293</v>
@@ -9847,7 +9850,7 @@
         <v>315</v>
       </c>
       <c r="AD93" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,19 +9915,19 @@
         <v>30</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="Z94" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AA94" s="2" t="s">
         <v>293</v>
@@ -9936,7 +9939,7 @@
         <v>315</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10001,13 +10004,13 @@
         <v>30</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>378</v>
@@ -10025,7 +10028,7 @@
         <v>382</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10090,13 +10093,13 @@
         <v>30</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y96" s="2" t="s">
         <v>378</v>
@@ -10114,7 +10117,7 @@
         <v>382</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,13 +10182,13 @@
         <v>30</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y97" s="2" t="s">
         <v>378</v>
@@ -10203,7 +10206,7 @@
         <v>382</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10268,13 +10271,13 @@
         <v>30</v>
       </c>
       <c r="V98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y98" s="2" t="s">
         <v>378</v>
@@ -10292,7 +10295,7 @@
         <v>382</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,13 +10360,13 @@
         <v>30</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>378</v>
@@ -10381,7 +10384,7 @@
         <v>382</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10446,13 +10449,13 @@
         <v>30</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>378</v>
@@ -10535,13 +10538,13 @@
         <v>30</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y101" s="2" t="s">
         <v>378</v>
@@ -10624,13 +10627,13 @@
         <v>30</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y102" s="2" t="s">
         <v>378</v>
@@ -10713,13 +10716,13 @@
         <v>30</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y103" s="2" t="s">
         <v>378</v>
@@ -10778,16 +10781,16 @@
         <v>3000000000</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O104" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P104" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P104" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="Q104" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R104" s="2" t="n">
         <v>3.02</v>
@@ -10802,13 +10805,13 @@
         <v>30</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X104" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y104" s="2" t="s">
         <v>378</v>
@@ -10891,13 +10894,13 @@
         <v>30</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>378</v>
@@ -10915,7 +10918,7 @@
         <v>382</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10980,13 +10983,13 @@
         <v>30</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y106" s="2" t="s">
         <v>378</v>
@@ -11004,7 +11007,7 @@
         <v>382</v>
       </c>
       <c r="AD106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,16 +11048,16 @@
         <v>2925739924</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R107" s="2" t="n">
         <v>3.2</v>
@@ -11069,13 +11072,13 @@
         <v>30</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y107" s="2" t="s">
         <v>378</v>
@@ -11093,7 +11096,7 @@
         <v>382</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11158,13 +11161,13 @@
         <v>30</v>
       </c>
       <c r="V108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y108" s="2" t="s">
         <v>378</v>
@@ -11182,7 +11185,7 @@
         <v>382</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11247,13 +11250,13 @@
         <v>30</v>
       </c>
       <c r="V109" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X109" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y109" s="2" t="s">
         <v>378</v>
@@ -11336,13 +11339,13 @@
         <v>30</v>
       </c>
       <c r="V110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y110" s="2" t="s">
         <v>378</v>
@@ -11425,13 +11428,13 @@
         <v>30</v>
       </c>
       <c r="V111" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y111" s="2" t="s">
         <v>378</v>
@@ -11514,13 +11517,13 @@
         <v>30</v>
       </c>
       <c r="V112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y112" s="2" t="s">
         <v>378</v>
@@ -11603,13 +11606,13 @@
         <v>30</v>
       </c>
       <c r="V113" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y113" s="2" t="s">
         <v>378</v>
@@ -11692,13 +11695,13 @@
         <v>30</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y114" s="2" t="s">
         <v>378</v>
@@ -11716,7 +11719,7 @@
         <v>382</v>
       </c>
       <c r="AD114" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,13 +11784,13 @@
         <v>30</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y115" s="2" t="s">
         <v>378</v>
@@ -11805,7 +11808,7 @@
         <v>382</v>
       </c>
       <c r="AD115" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11846,16 +11849,16 @@
         <v>2641996423</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R116" s="2" t="n">
         <v>3.27</v>
@@ -11870,13 +11873,13 @@
         <v>30</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y116" s="2" t="s">
         <v>378</v>
@@ -11894,7 +11897,7 @@
         <v>382</v>
       </c>
       <c r="AD116" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,13 +11962,13 @@
         <v>30</v>
       </c>
       <c r="V117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W117" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X117" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y117" s="2" t="s">
         <v>378</v>
@@ -11983,7 +11986,7 @@
         <v>382</v>
       </c>
       <c r="AD117" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12048,13 +12051,13 @@
         <v>30</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X118" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y118" s="2" t="s">
         <v>378</v>
@@ -12072,7 +12075,7 @@
         <v>382</v>
       </c>
       <c r="AD118" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12137,13 +12140,13 @@
         <v>30</v>
       </c>
       <c r="V119" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X119" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y119" s="2" t="s">
         <v>378</v>
@@ -12161,7 +12164,7 @@
         <v>382</v>
       </c>
       <c r="AD119" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12226,13 +12229,13 @@
         <v>30</v>
       </c>
       <c r="V120" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y120" s="2" t="s">
         <v>378</v>
@@ -12315,13 +12318,13 @@
         <v>30</v>
       </c>
       <c r="V121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y121" s="2" t="s">
         <v>378</v>
@@ -12404,13 +12407,13 @@
         <v>30</v>
       </c>
       <c r="V122" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>378</v>
@@ -12493,31 +12496,31 @@
         <v>30</v>
       </c>
       <c r="V123" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W123" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X123" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y123" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z123" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA123" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12582,31 +12585,31 @@
         <v>30</v>
       </c>
       <c r="V124" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W124" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y124" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z124" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA124" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB124" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AC124" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12647,16 +12650,16 @@
         <v>2525739924</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R125" s="2" t="n">
         <v>3.2</v>
@@ -12671,31 +12674,31 @@
         <v>30</v>
       </c>
       <c r="V125" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y125" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z125" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA125" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB125" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AC125" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AD125" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12760,31 +12763,31 @@
         <v>30</v>
       </c>
       <c r="V126" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y126" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z126" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA126" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB126" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC126" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC126" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="AD126" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,31 +12852,31 @@
         <v>30</v>
       </c>
       <c r="V127" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y127" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z127" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA127" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB127" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC127" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC127" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="AD127" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,31 +12941,31 @@
         <v>30</v>
       </c>
       <c r="V128" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W128" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y128" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z128" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA128" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB128" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC128" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC128" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="AD128" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,31 +13030,31 @@
         <v>30</v>
       </c>
       <c r="V129" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y129" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Z129" s="2" t="s">
         <v>379</v>
       </c>
       <c r="AA129" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AB129" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC129" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC129" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="AD129" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="496">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1357,70 +1357,16 @@
     <t xml:space="preserve">20220914_Counts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76647_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_073</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">76647_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220012-GCCRI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76638_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">76638_V11_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220013</t>
@@ -1429,46 +1375,10 @@
     <t xml:space="preserve">20220914_L13_fastq</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76658_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_060</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_3rd</t>
-    </r>
+    <t xml:space="preserve">76658_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_060_3rd</t>
   </si>
   <si>
     <t xml:space="preserve">76662_V11_2nd</t>
@@ -1483,67 +1393,13 @@
     <t xml:space="preserve">20220914_L14_fastq</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76664_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_082</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76662_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">76664_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_082_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76662_V5_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220015</t>
@@ -1552,67 +1408,13 @@
     <t xml:space="preserve">20220914_L15_fastq</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76660_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76661_V11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_081</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">76660_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76661_V11_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_081_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">P20220016</t>
@@ -1621,46 +1423,10 @@
     <t xml:space="preserve">20220914_L16_fastq</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">76656_V5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_083</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_2nd</t>
-    </r>
+    <t xml:space="preserve">76656_V5_2nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_083_2nd</t>
   </si>
   <si>
     <t xml:space="preserve">76664_V11</t>
@@ -1690,25 +1456,7 @@
     <t xml:space="preserve">STARR_087</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_087</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_087_1st</t>
   </si>
   <si>
     <t xml:space="preserve">SI-TT-D1</t>
@@ -1723,25 +1471,7 @@
     <t xml:space="preserve">STARR_099</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_099</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_099_1st</t>
   </si>
   <si>
     <t xml:space="preserve">SI-TT-D12</t>
@@ -1756,25 +1486,7 @@
     <t xml:space="preserve">STARR_098</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_098</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_098_1st</t>
   </si>
   <si>
     <t xml:space="preserve">P20220018</t>
@@ -1795,25 +1507,7 @@
     <t xml:space="preserve">STARR_097</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_097</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_097_1st</t>
   </si>
   <si>
     <t xml:space="preserve">SI-TT-H9</t>
@@ -1828,25 +1522,7 @@
     <t xml:space="preserve">STARR_093</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">STARR_093</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_1st</t>
-    </r>
+    <t xml:space="preserve">STARR_093_1st</t>
   </si>
   <si>
     <t xml:space="preserve">SI-TT-H10</t>
@@ -1898,10 +1574,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1948,7 +1624,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2010,6 +1686,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2083,11 +1763,11 @@
   <dimension ref="A1:AMJ150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AC107" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-      <selection pane="bottomRight" activeCell="H140" activeCellId="0" sqref="H140"/>
+      <selection pane="bottomRight" activeCell="AE145" activeCellId="0" sqref="AE145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2113,7 +1793,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="15.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="16.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="20.37"/>
@@ -13950,6 +13630,9 @@
       <c r="AE133" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="AF133" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
@@ -14033,6 +13716,9 @@
       <c r="AE134" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="AF134" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
@@ -14116,6 +13802,9 @@
       <c r="AE135" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="AF135" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
@@ -14193,11 +13882,14 @@
       <c r="AA136" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD136" s="15" t="s">
+      <c r="AD136" s="16" t="s">
         <v>448</v>
       </c>
       <c r="AE136" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF136" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14276,11 +13968,14 @@
       <c r="AA137" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD137" s="15" t="s">
+      <c r="AD137" s="16" t="s">
         <v>448</v>
       </c>
       <c r="AE137" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF137" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14359,11 +14054,14 @@
       <c r="AA138" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD138" s="15" t="s">
+      <c r="AD138" s="16" t="s">
         <v>448</v>
       </c>
       <c r="AE138" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF138" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14442,11 +14140,14 @@
       <c r="AA139" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD139" s="15" t="s">
+      <c r="AD139" s="16" t="s">
         <v>453</v>
       </c>
       <c r="AE139" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF139" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14525,11 +14226,14 @@
       <c r="AA140" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD140" s="15" t="s">
+      <c r="AD140" s="16" t="s">
         <v>453</v>
       </c>
       <c r="AE140" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF140" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14608,11 +14312,14 @@
       <c r="AA141" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD141" s="15" t="s">
+      <c r="AD141" s="16" t="s">
         <v>453</v>
       </c>
       <c r="AE141" s="1" t="s">
         <v>436</v>
+      </c>
+      <c r="AF141" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14691,12 +14398,13 @@
       <c r="AA142" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD142" s="15" t="s">
+      <c r="AD142" s="16" t="s">
         <v>458</v>
       </c>
       <c r="AE142" s="1" t="s">
         <v>436</v>
       </c>
+      <c r="AF142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
@@ -14768,7 +14476,7 @@
       <c r="AA143" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD143" s="15" t="s">
+      <c r="AD143" s="16" t="s">
         <v>458</v>
       </c>
       <c r="AE143" s="1" t="s">
@@ -14851,7 +14559,7 @@
       <c r="AA144" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD144" s="15" t="s">
+      <c r="AD144" s="16" t="s">
         <v>458</v>
       </c>
       <c r="AE144" s="1" t="s">
@@ -14934,7 +14642,7 @@
       <c r="AA145" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD145" s="15" t="s">
+      <c r="AD145" s="16" t="s">
         <v>468</v>
       </c>
       <c r="AE145" s="1" t="s">
@@ -15017,7 +14725,7 @@
       <c r="AA146" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD146" s="15" t="s">
+      <c r="AD146" s="16" t="s">
         <v>468</v>
       </c>
       <c r="AE146" s="1" t="s">
@@ -15100,7 +14808,7 @@
       <c r="AA147" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD147" s="15" t="s">
+      <c r="AD147" s="16" t="s">
         <v>468</v>
       </c>
       <c r="AE147" s="1" t="s">
@@ -15183,7 +14891,7 @@
       <c r="AA148" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD148" s="15" t="s">
+      <c r="AD148" s="16" t="s">
         <v>485</v>
       </c>
       <c r="AE148" s="1" t="s">
@@ -15266,7 +14974,7 @@
       <c r="AA149" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD149" s="15" t="s">
+      <c r="AD149" s="16" t="s">
         <v>485</v>
       </c>
       <c r="AE149" s="1" t="s">
@@ -15349,7 +15057,7 @@
       <c r="AA150" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AD150" s="15" t="s">
+      <c r="AD150" s="16" t="s">
         <v>485</v>
       </c>
       <c r="AE150" s="1" t="s">

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="499">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1351,30 +1351,39 @@
     <t xml:space="preserve">3rd</t>
   </si>
   <si>
-    <t xml:space="preserve">20220914_L12_fastq</t>
+    <t xml:space="preserve">SequencingFiles_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L12_fastq_UTSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76647_V5_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220012-GCCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_073_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L12_fastq_GCCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76638_V11_3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_L13_fastq</t>
   </si>
   <si>
     <t xml:space="preserve">20220914_Counts</t>
   </si>
   <si>
-    <t xml:space="preserve">76647_V5_3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20220012-GCCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_073_3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20220013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76638_V11_3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_L13_fastq</t>
-  </si>
-  <si>
     <t xml:space="preserve">76658_V5_3rd</t>
   </si>
   <si>
@@ -1420,7 +1429,7 @@
     <t xml:space="preserve">STARR_081_2nd</t>
   </si>
   <si>
-    <t xml:space="preserve">20220914_L16_fastq</t>
+    <t xml:space="preserve">20220926_L16_fastq</t>
   </si>
   <si>
     <t xml:space="preserve">76656_V5_2nd</t>
@@ -1450,7 +1459,7 @@
     <t xml:space="preserve">TTGCTTCCAG</t>
   </si>
   <si>
-    <t xml:space="preserve">20220914_L17_fastq</t>
+    <t xml:space="preserve">20220926_L17_fastq</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_087</t>
@@ -1501,7 +1510,7 @@
     <t xml:space="preserve">CCCTATCTAT</t>
   </si>
   <si>
-    <t xml:space="preserve">20220914_L18_fastq</t>
+    <t xml:space="preserve">20220926_L18_fastq</t>
   </si>
   <si>
     <t xml:space="preserve">STARR_097</t>
@@ -1783,11 +1792,11 @@
   <dimension ref="A1:AMJ150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AB107" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="E40" activeCellId="0" sqref="E40"/>
+      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="bottomRight" activeCell="AC146" activeCellId="0" sqref="AC146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13329,7 +13338,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>432</v>
@@ -13398,13 +13410,13 @@
         <v>141</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE130" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF130" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13412,7 +13424,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>432</v>
@@ -13427,7 +13442,7 @@
         <v>20210713</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>434</v>
@@ -13481,13 +13496,13 @@
         <v>141</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE131" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF131" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13495,10 +13510,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>347</v>
@@ -13510,7 +13528,7 @@
         <v>20220318</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>434</v>
@@ -13564,13 +13582,13 @@
         <v>141</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE132" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AF132" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +13602,7 @@
         <v>211</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>288</v>
@@ -13596,7 +13614,7 @@
         <v>20211001</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>434</v>
@@ -13653,10 +13671,10 @@
         <v>427</v>
       </c>
       <c r="AE133" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF133" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13670,7 +13688,7 @@
         <v>211</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>285</v>
@@ -13682,7 +13700,7 @@
         <v>20210924</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>434</v>
@@ -13739,10 +13757,10 @@
         <v>427</v>
       </c>
       <c r="AE134" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF134" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13756,7 +13774,7 @@
         <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>303</v>
@@ -13768,7 +13786,7 @@
         <v>20211111</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>434</v>
@@ -13825,10 +13843,10 @@
         <v>427</v>
       </c>
       <c r="AE135" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF135" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13842,7 +13860,7 @@
         <v>134</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>390</v>
@@ -13854,10 +13872,10 @@
         <v>20220607</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K136" s="4" t="n">
         <v>9565</v>
@@ -13911,10 +13929,10 @@
         <v>427</v>
       </c>
       <c r="AE136" s="17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF136" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13928,7 +13946,7 @@
         <v>134</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>384</v>
@@ -13940,10 +13958,10 @@
         <v>20220405</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K137" s="4" t="n">
         <v>11784</v>
@@ -13997,10 +14015,10 @@
         <v>427</v>
       </c>
       <c r="AE137" s="17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF137" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14014,7 +14032,7 @@
         <v>134</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>404</v>
@@ -14026,10 +14044,10 @@
         <v>20220607</v>
       </c>
       <c r="H138" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="K138" s="4" t="n">
         <v>14084</v>
@@ -14083,10 +14101,10 @@
         <v>427</v>
       </c>
       <c r="AE138" s="17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF138" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14100,7 +14118,7 @@
         <v>277</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>375</v>
@@ -14112,10 +14130,10 @@
         <v>20220216</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>9266</v>
@@ -14169,10 +14187,10 @@
         <v>427</v>
       </c>
       <c r="AE139" s="17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF139" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14186,7 +14204,7 @@
         <v>277</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>385</v>
@@ -14198,10 +14216,10 @@
         <v>20220503</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K140" s="4" t="n">
         <v>12905</v>
@@ -14255,10 +14273,10 @@
         <v>427</v>
       </c>
       <c r="AE140" s="17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF140" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14272,7 +14290,7 @@
         <v>277</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>386</v>
@@ -14284,10 +14302,10 @@
         <v>20220517</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K141" s="4" t="n">
         <v>18148</v>
@@ -14341,10 +14359,10 @@
         <v>427</v>
       </c>
       <c r="AE141" s="17" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF141" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14352,11 +14370,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>20220914</v>
-      </c>
-      <c r="C142" s="0"/>
+        <v>20220926</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="D142" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>400</v>
@@ -14368,10 +14388,10 @@
         <v>20220531</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K142" s="4" t="n">
         <v>10076</v>
@@ -14422,13 +14442,13 @@
         <v>141</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE142" s="17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF142" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14436,10 +14456,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>280</v>
@@ -14451,10 +14474,10 @@
         <v>20210826</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K143" s="4" t="n">
         <v>7892</v>
@@ -14499,13 +14522,13 @@
         <v>141</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE143" s="17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF143" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14513,10 +14536,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>408</v>
@@ -14528,10 +14554,10 @@
         <v>20220608</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K144" s="4" t="n">
         <v>16806</v>
@@ -14582,13 +14608,13 @@
         <v>141</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE144" s="17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF144" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,13 +14622,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>162</v>
@@ -14611,10 +14640,10 @@
         <v>20220803</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K145" s="4" t="n">
         <v>10000</v>
@@ -14632,16 +14661,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>1.07</v>
@@ -14665,13 +14694,13 @@
         <v>141</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE145" s="17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF145" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14679,13 +14708,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>69</v>
@@ -14694,10 +14726,10 @@
         <v>20220712</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>10000</v>
@@ -14715,16 +14747,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>1.07</v>
@@ -14748,13 +14780,13 @@
         <v>141</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE146" s="17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF146" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14762,13 +14794,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>69</v>
@@ -14777,10 +14812,10 @@
         <v>20220808</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>10000</v>
@@ -14798,16 +14833,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="S147" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>1.07</v>
@@ -14831,13 +14866,13 @@
         <v>141</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE147" s="17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF147" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14845,13 +14880,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>69</v>
@@ -14860,10 +14898,10 @@
         <v>20220729</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K148" s="4" t="n">
         <v>10000</v>
@@ -14881,16 +14919,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>1.82</v>
@@ -14914,13 +14952,13 @@
         <v>141</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE148" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AF148" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14928,13 +14966,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>69</v>
@@ -14943,10 +14984,10 @@
         <v>20220802</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K149" s="4" t="n">
         <v>10000</v>
@@ -14964,16 +15005,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>1.82</v>
@@ -14997,13 +15038,13 @@
         <v>141</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE149" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AF149" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15011,13 +15052,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>20220914</v>
+        <v>20220926</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>69</v>
@@ -15026,10 +15070,10 @@
         <v>20220803</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K150" s="4" t="n">
         <v>10000</v>
@@ -15047,16 +15091,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>1.82</v>
@@ -15080,13 +15124,13 @@
         <v>141</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE150" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AF150" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
+++ b/ExperimentSummaryFiles/Form 2_Sequencing Samples.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="543">
   <si>
     <t xml:space="preserve">SQ_List</t>
   </si>
@@ -1354,6 +1354,12 @@
     <t xml:space="preserve">SequencingFiles_7</t>
   </si>
   <si>
+    <t xml:space="preserve">SequencingFiles_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_cbcl</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220926_L12_fastq_UTSA</t>
   </si>
   <si>
@@ -1378,6 +1384,9 @@
     <t xml:space="preserve">76638_V11_3rd</t>
   </si>
   <si>
+    <t xml:space="preserve">20220914_L2_L3_L4_cbcl</t>
+  </si>
+  <si>
     <t xml:space="preserve">20220914_L13_fastq</t>
   </si>
   <si>
@@ -1541,6 +1550,201 @@
   </si>
   <si>
     <t xml:space="preserve">TAGAGCCTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAATCGATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATTCCGTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L19_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGACATGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTAGACCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTGGAGAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAACAGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACAGTAACTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACGAACTGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L20_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGGAACCCAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCTCGAATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACCGCACCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTGACAGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20220021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_087</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L21_fastq</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-TT-D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTAATACGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCCGAGGTG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_093</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">STARR_098</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_2nd</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1553,7 +1757,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1602,6 +1806,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1789,14 +1999,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ150"/>
+  <dimension ref="A1:AMJ161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AB107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AC128" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-      <selection pane="bottomRight" activeCell="AC146" activeCellId="0" sqref="AC146"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="AD168" activeCellId="0" sqref="AD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13412,11 +13622,17 @@
       <c r="AB130" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC130" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD130" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE130" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF130" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13442,7 +13658,7 @@
         <v>20210713</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>434</v>
@@ -13498,11 +13714,17 @@
       <c r="AB131" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC131" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD131" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE131" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF131" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13516,7 +13738,7 @@
         <v>176</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>347</v>
@@ -13528,7 +13750,7 @@
         <v>20220318</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>434</v>
@@ -13584,11 +13806,17 @@
       <c r="AB132" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC132" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD132" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE132" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF132" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13602,7 +13830,7 @@
         <v>211</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>288</v>
@@ -13614,7 +13842,7 @@
         <v>20211001</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>434</v>
@@ -13670,11 +13898,17 @@
       <c r="AB133" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC133" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD133" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE133" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF133" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13688,7 +13922,7 @@
         <v>211</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>285</v>
@@ -13700,7 +13934,7 @@
         <v>20210924</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>434</v>
@@ -13756,11 +13990,17 @@
       <c r="AB134" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC134" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD134" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE134" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF134" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13774,7 +14014,7 @@
         <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>303</v>
@@ -13786,7 +14026,7 @@
         <v>20211111</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>434</v>
@@ -13842,11 +14082,17 @@
       <c r="AB135" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD135" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE135" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AF135" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13860,7 +14106,7 @@
         <v>134</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>390</v>
@@ -13872,10 +14118,10 @@
         <v>20220607</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K136" s="4" t="n">
         <v>9565</v>
@@ -13928,11 +14174,17 @@
       <c r="AB136" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC136" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD136" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE136" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AF136" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13946,7 +14198,7 @@
         <v>134</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>384</v>
@@ -13958,10 +14210,10 @@
         <v>20220405</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K137" s="4" t="n">
         <v>11784</v>
@@ -14014,11 +14266,17 @@
       <c r="AB137" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC137" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD137" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE137" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AF137" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14032,7 +14290,7 @@
         <v>134</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>404</v>
@@ -14044,10 +14302,10 @@
         <v>20220607</v>
       </c>
       <c r="H138" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="K138" s="4" t="n">
         <v>14084</v>
@@ -14100,11 +14358,17 @@
       <c r="AB138" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC138" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD138" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE138" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AF138" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14118,7 +14382,7 @@
         <v>277</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>375</v>
@@ -14130,10 +14394,10 @@
         <v>20220216</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>9266</v>
@@ -14186,11 +14450,17 @@
       <c r="AB139" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC139" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE139" s="17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF139" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14204,7 +14474,7 @@
         <v>277</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>385</v>
@@ -14216,10 +14486,10 @@
         <v>20220503</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K140" s="4" t="n">
         <v>12905</v>
@@ -14272,11 +14542,17 @@
       <c r="AB140" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC140" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD140" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE140" s="17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF140" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14290,7 +14566,7 @@
         <v>277</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>386</v>
@@ -14302,10 +14578,10 @@
         <v>20220517</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K141" s="4" t="n">
         <v>18148</v>
@@ -14358,11 +14634,17 @@
       <c r="AB141" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="AC141" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD141" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="AE141" s="17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF141" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14376,7 +14658,7 @@
         <v>211</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>400</v>
@@ -14388,10 +14670,10 @@
         <v>20220531</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K142" s="4" t="n">
         <v>10076</v>
@@ -14444,11 +14726,17 @@
       <c r="AB142" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC142" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE142" s="17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AF142" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14462,7 +14750,7 @@
         <v>211</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>280</v>
@@ -14474,10 +14762,10 @@
         <v>20210826</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K143" s="4" t="n">
         <v>7892</v>
@@ -14524,11 +14812,17 @@
       <c r="AB143" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC143" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE143" s="17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AF143" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14542,7 +14836,7 @@
         <v>211</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>408</v>
@@ -14554,10 +14848,10 @@
         <v>20220608</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K144" s="4" t="n">
         <v>16806</v>
@@ -14610,11 +14904,17 @@
       <c r="AB144" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC144" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE144" s="17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AF144" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,10 +14928,10 @@
         <v>134</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>162</v>
@@ -14640,10 +14940,10 @@
         <v>20220803</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K145" s="4" t="n">
         <v>10000</v>
@@ -14661,16 +14961,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="U145" s="1" t="n">
         <v>1.07</v>
@@ -14696,11 +14996,17 @@
       <c r="AB145" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC145" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE145" s="17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF145" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14714,10 +15020,10 @@
         <v>134</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>69</v>
@@ -14726,10 +15032,10 @@
         <v>20220712</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>10000</v>
@@ -14747,16 +15053,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="U146" s="1" t="n">
         <v>1.07</v>
@@ -14782,11 +15088,17 @@
       <c r="AB146" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC146" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE146" s="17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF146" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14800,10 +15112,10 @@
         <v>134</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>69</v>
@@ -14812,10 +15124,10 @@
         <v>20220808</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>10000</v>
@@ -14833,16 +15145,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S147" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="U147" s="1" t="n">
         <v>1.07</v>
@@ -14868,11 +15180,17 @@
       <c r="AB147" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC147" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE147" s="17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF147" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,10 +15204,10 @@
         <v>277</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>69</v>
@@ -14898,10 +15216,10 @@
         <v>20220729</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K148" s="4" t="n">
         <v>10000</v>
@@ -14919,16 +15237,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="U148" s="1" t="n">
         <v>1.82</v>
@@ -14954,11 +15272,17 @@
       <c r="AB148" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC148" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD148" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE148" s="17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AF148" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14972,10 +15296,10 @@
         <v>277</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>69</v>
@@ -14984,10 +15308,10 @@
         <v>20220802</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K149" s="4" t="n">
         <v>10000</v>
@@ -15005,16 +15329,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="U149" s="1" t="n">
         <v>1.82</v>
@@ -15040,11 +15364,17 @@
       <c r="AB149" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC149" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD149" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE149" s="17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AF149" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,10 +15388,10 @@
         <v>277</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>69</v>
@@ -15070,10 +15400,10 @@
         <v>20220803</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K150" s="4" t="n">
         <v>10000</v>
@@ -15091,16 +15421,16 @@
         <v>2700000000</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>414</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="U150" s="1" t="n">
         <v>1.82</v>
@@ -15126,11 +15456,1062 @@
       <c r="AB150" s="1" t="s">
         <v>435</v>
       </c>
+      <c r="AC150" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD150" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="AE150" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF150" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>20220805</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K151" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L151" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M151" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N151" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O151" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="U151" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V151" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="W151" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X151" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB151" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC151" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD151" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE151" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF151" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>20220913</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K152" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L152" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M152" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N152" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O152" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="U152" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V152" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="W152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X152" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB152" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC152" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD152" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE152" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF152" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>20220914</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K153" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L153" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M153" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N153" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O153" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="U153" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V153" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="W153" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X153" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB153" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD153" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE153" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF153" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>20220920</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K154" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L154" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M154" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N154" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O154" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="U154" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V154" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="W154" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X154" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z154" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA154" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB154" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC154" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD154" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE154" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF154" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>20220927</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K155" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L155" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M155" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N155" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O155" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="U155" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V155" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="W155" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X155" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z155" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA155" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB155" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC155" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD155" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE155" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF155" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>20220927</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K156" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L156" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="M156" s="3" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="N156" s="5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O156" s="3" t="n">
+        <v>2700000000</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U156" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V156" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="W156" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X156" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD156" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE156" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF156" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>20220712</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K157" s="4" t="n">
+        <v>22036</v>
+      </c>
+      <c r="L157" s="3" t="n">
+        <v>9597</v>
+      </c>
+      <c r="M157" s="3" t="n">
+        <v>211479492</v>
+      </c>
+      <c r="N157" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O157" s="3" t="n">
+        <v>2638482513</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U157" s="1" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V157" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="W157" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X157" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z157" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA157" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB157" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC157" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD157" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE157" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF157" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>20220808</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158" s="4" t="n">
+        <v>31804</v>
+      </c>
+      <c r="L158" s="4" t="n">
+        <v>12661</v>
+      </c>
+      <c r="M158" s="3" t="n">
+        <v>402670444</v>
+      </c>
+      <c r="N158" s="5" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="O158" s="3" t="n">
+        <v>2638482513</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U158" s="1" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V158" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="W158" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X158" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z158" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE158" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF158" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>20220721</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K159" s="4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L159" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="M159" s="3" t="n">
+        <v>600000000</v>
+      </c>
+      <c r="N159" s="5" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="O159" s="3" t="n">
+        <v>2638482513</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="U159" s="1" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V159" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="W159" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X159" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC159" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD159" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE159" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF159" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>20220803</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K160" s="4" t="n">
+        <v>75297</v>
+      </c>
+      <c r="L160" s="3" t="n">
+        <v>14037</v>
+      </c>
+      <c r="M160" s="3" t="n">
+        <v>1056943989</v>
+      </c>
+      <c r="N160" s="5" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="O160" s="3" t="n">
+        <v>2638482513</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="U160" s="1" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V160" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="W160" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X160" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE160" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF160" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>20221107</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>20220729</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="K161" s="4" t="n">
+        <v>35177</v>
+      </c>
+      <c r="L161" s="3" t="n">
+        <v>10444</v>
+      </c>
+      <c r="M161" s="3" t="n">
+        <v>367388588</v>
+      </c>
+      <c r="N161" s="5" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="O161" s="3" t="n">
+        <v>2638482513</v>
+      </c>
+      <c r="Q161" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AF150" s="2" t="s">
-        <v>437</v>
+      <c r="R161" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U161" s="1" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V161" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="W161" s="1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="X161" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF161" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
